--- a/DOC/ESP32-S3-Pin-Allocation.xlsx
+++ b/DOC/ESP32-S3-Pin-Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\GitHub\RoomDisplay_S3\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A11404-B595-4354-BC47-76726D3ACF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2CE98-638F-4445-ABB2-193D10CD40B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-S3-Modules" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1378,9 +1378,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1538,42 +1535,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1923,6 +1884,42 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1937,11 +1934,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A05E64-0B23-4CCE-A7CF-0B94A2D42DC4}" name="Table1" displayName="Table1" ref="A1:S46" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A05E64-0B23-4CCE-A7CF-0B94A2D42DC4}" name="Table1" displayName="Table1" ref="A1:S46" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S46" xr:uid="{C2A05E64-0B23-4CCE-A7CF-0B94A2D42DC4}">
     <filterColumn colId="6">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
       </filters>
     </filterColumn>
@@ -1950,25 +1946,25 @@
     <sortCondition ref="E1:E46"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E2DFA702-B535-490C-97A4-94C1D3A4A208}" name="MINI1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{CB8F976E-8567-4CE7-8C5A-E46753574887}" name="WROOM1" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0AD67039-3AD4-4320-B142-A418A79DA2B0}" name="WROOM2" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{423FE9A7-C8B3-4FF9-B905-02A1185CB94F}" name="ESP32-S3" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{1B752FC2-4C98-45DD-87E3-B7EB6660FE9D}" name="S3-CAM" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{700CC33D-3A5B-41F9-9AB2-7648CD258052}" name="Name" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{D2862861-F294-4DD8-969B-60C8D76EC82A}" name="Usable" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{4B4E667C-4FEF-48BF-9B1E-6C01663FA9CF}" name="Primary" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B64ADE42-A8A2-499F-93FE-880D287441D5}" name="Strap" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{4D9E205C-3F99-4D6D-A720-3B50C2CFF8BA}" name="Input" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{77FD6588-6BBE-4758-9997-2106D4C7480A}" name="Output" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{9C280F6D-6A42-4966-B221-9A3EAAE4933C}" name="Touch" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{7E86FDD9-D591-4B1A-938E-079764233E8C}" name="ADC" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{27C37951-CF43-45F6-AD19-D19515A48A10}" name="RTC" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{97D15B61-87B3-4E87-9F31-625609B71E53}" name="UART" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{27559FAC-59BF-4558-B3A3-BB2183FB6E6C}" name="SPI" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{DC42F2FE-0D65-4945-BC06-FE2E284F0EED}" name="I2C" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{55FA46DA-374D-49A3-857F-8F681F1AB611}" name="Other" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{9D9743EB-6B69-4447-AA55-D9466AF24A58}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E2DFA702-B535-490C-97A4-94C1D3A4A208}" name="MINI1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{CB8F976E-8567-4CE7-8C5A-E46753574887}" name="WROOM1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0AD67039-3AD4-4320-B142-A418A79DA2B0}" name="WROOM2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{423FE9A7-C8B3-4FF9-B905-02A1185CB94F}" name="ESP32-S3" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{1B752FC2-4C98-45DD-87E3-B7EB6660FE9D}" name="S3-CAM" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{700CC33D-3A5B-41F9-9AB2-7648CD258052}" name="Name" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D2862861-F294-4DD8-969B-60C8D76EC82A}" name="Usable" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{4B4E667C-4FEF-48BF-9B1E-6C01663FA9CF}" name="Primary" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B64ADE42-A8A2-499F-93FE-880D287441D5}" name="Strap" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{4D9E205C-3F99-4D6D-A720-3B50C2CFF8BA}" name="Input" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{77FD6588-6BBE-4758-9997-2106D4C7480A}" name="Output" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{9C280F6D-6A42-4966-B221-9A3EAAE4933C}" name="Touch" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{7E86FDD9-D591-4B1A-938E-079764233E8C}" name="ADC" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{27C37951-CF43-45F6-AD19-D19515A48A10}" name="RTC" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{97D15B61-87B3-4E87-9F31-625609B71E53}" name="UART" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{27559FAC-59BF-4558-B3A3-BB2183FB6E6C}" name="SPI" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{DC42F2FE-0D65-4945-BC06-FE2E284F0EED}" name="I2C" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{55FA46DA-374D-49A3-857F-8F681F1AB611}" name="Other" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{9D9743EB-6B69-4447-AA55-D9466AF24A58}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2175,16 +2171,16 @@
   <dimension ref="A1:AG999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.06640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="14" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.06640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.06640625" style="72" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.796875" style="20" bestFit="1" customWidth="1"/>
@@ -2195,7 +2191,7 @@
     <col min="13" max="13" width="12.59765625" style="20" customWidth="1"/>
     <col min="14" max="14" width="9.1328125" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.3984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.53125" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.53125" style="63" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.1328125" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.796875" style="20" customWidth="1"/>
     <col min="19" max="19" width="38.59765625" style="20" bestFit="1" customWidth="1"/>
@@ -2305,7 +2301,7 @@
       <c r="L2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="48" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="23" t="s">
@@ -2360,7 +2356,7 @@
       <c r="L3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="48" t="s">
         <v>35</v>
       </c>
       <c r="N3" s="23" t="s">
@@ -2415,7 +2411,7 @@
       <c r="L4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="48" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="23" t="s">
@@ -2470,7 +2466,7 @@
       <c r="L5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="48" t="s">
         <v>41</v>
       </c>
       <c r="N5" s="23" t="s">
@@ -2523,7 +2519,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="48" t="s">
         <v>64</v>
       </c>
       <c r="N6" s="23" t="s">
@@ -2582,7 +2578,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="48" t="s">
         <v>67</v>
       </c>
       <c r="N7" s="23" t="s">
@@ -2639,7 +2635,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="48" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="23" t="s">
@@ -2694,7 +2690,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="48" t="s">
         <v>73</v>
       </c>
       <c r="N9" s="23" t="s">
@@ -2753,7 +2749,7 @@
       <c r="L10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="48" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="23" t="s">
@@ -2781,7 +2777,7 @@
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
     </row>
-    <row r="11" spans="1:33" ht="15.75" customHeight="1">
+    <row r="11" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -2838,7 +2834,7 @@
       <c r="AF11" s="23"/>
       <c r="AG11" s="23"/>
     </row>
-    <row r="12" spans="1:33" ht="15.75" customHeight="1">
+    <row r="12" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A12" s="28">
         <v>44</v>
       </c>
@@ -2922,7 +2918,7 @@
       <c r="L13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="48" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="23" t="s">
@@ -2936,7 +2932,7 @@
       <c r="R13" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="44" t="s">
         <v>294</v>
       </c>
       <c r="T13" s="23"/>
@@ -2985,7 +2981,7 @@
       <c r="L14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N14" s="23" t="s">
@@ -2997,7 +2993,7 @@
       <c r="R14" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="S14" s="45" t="s">
+      <c r="S14" s="44" t="s">
         <v>294</v>
       </c>
       <c r="U14" s="23"/>
@@ -3043,7 +3039,7 @@
       <c r="L15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="48" t="s">
         <v>53</v>
       </c>
       <c r="N15" s="23" t="s">
@@ -3057,7 +3053,7 @@
       <c r="R15" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="44" t="s">
         <v>294</v>
       </c>
       <c r="T15" s="23"/>
@@ -3104,7 +3100,7 @@
       <c r="L16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="48" t="s">
         <v>56</v>
       </c>
       <c r="N16" s="23" t="s">
@@ -3118,7 +3114,7 @@
       <c r="R16" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="44" t="s">
         <v>294</v>
       </c>
       <c r="T16" s="23"/>
@@ -3167,7 +3163,7 @@
       <c r="L17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="48" t="s">
         <v>59</v>
       </c>
       <c r="N17" s="23" t="s">
@@ -3179,7 +3175,7 @@
       <c r="R17" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="44" t="s">
         <v>294</v>
       </c>
       <c r="T17" s="23"/>
@@ -3226,7 +3222,7 @@
       <c r="L18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="48" t="s">
         <v>62</v>
       </c>
       <c r="N18" s="23" t="s">
@@ -3240,7 +3236,7 @@
       <c r="R18" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="S18" s="45" t="s">
+      <c r="S18" s="44" t="s">
         <v>294</v>
       </c>
       <c r="U18" s="23"/>
@@ -3257,7 +3253,7 @@
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
     </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1">
+    <row r="19" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A19" s="24">
         <v>39</v>
       </c>
@@ -3314,7 +3310,7 @@
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1">
+    <row r="20" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A20" s="24">
         <v>40</v>
       </c>
@@ -3384,7 +3380,7 @@
       <c r="D21" s="24">
         <v>6</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="34" t="s">
         <v>252</v>
       </c>
       <c r="F21" s="27" t="s">
@@ -3397,10 +3393,10 @@
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="48" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="23" t="s">
@@ -3442,7 +3438,7 @@
       <c r="E22" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="27" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="27">
@@ -3457,7 +3453,7 @@
       <c r="L22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="48" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="23" t="s">
@@ -3466,7 +3462,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="23"/>
-      <c r="R22" s="44"/>
+      <c r="R22" s="43"/>
       <c r="S22" s="23" t="s">
         <v>230</v>
       </c>
@@ -3485,7 +3481,7 @@
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1">
+    <row r="23" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="24">
         <v>38</v>
       </c>
@@ -3536,7 +3532,7 @@
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1">
+    <row r="24" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="24">
         <v>37</v>
       </c>
@@ -3589,7 +3585,7 @@
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1">
+    <row r="25" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="24">
         <v>36</v>
       </c>
@@ -3628,7 +3624,7 @@
       <c r="R25" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="S25" s="45" t="s">
+      <c r="S25" s="44" t="s">
         <v>283</v>
       </c>
       <c r="T25" s="23"/>
@@ -3646,7 +3642,7 @@
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1">
+    <row r="26" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="24">
         <v>35</v>
       </c>
@@ -3685,7 +3681,7 @@
       <c r="R26" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S26" s="45" t="s">
+      <c r="S26" s="44" t="s">
         <v>283</v>
       </c>
       <c r="T26" s="23"/>
@@ -3740,7 +3736,7 @@
       <c r="R27" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="45" t="s">
+      <c r="S27" s="44" t="s">
         <v>283</v>
       </c>
       <c r="T27" s="23"/>
@@ -3765,16 +3761,16 @@
       <c r="B28" s="25">
         <v>30</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="24">
         <v>42</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="47" t="s">
         <v>101</v>
       </c>
       <c r="G28" s="27">
@@ -3792,7 +3788,7 @@
       <c r="O28" s="27"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
-      <c r="R28" s="45" t="s">
+      <c r="R28" s="44" t="s">
         <v>225</v>
       </c>
       <c r="S28" s="23" t="s">
@@ -3820,16 +3816,16 @@
       <c r="B29" s="25">
         <v>29</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="24">
         <v>41</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="47" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="27">
@@ -3847,7 +3843,7 @@
       <c r="O29" s="27"/>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="44" t="s">
         <v>224</v>
       </c>
       <c r="S29" s="23" t="s">
@@ -3875,16 +3871,16 @@
       <c r="B30" s="25">
         <v>28</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24">
         <v>40</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="47" t="s">
         <v>97</v>
       </c>
       <c r="G30" s="27">
@@ -3902,7 +3898,7 @@
       <c r="O30" s="27"/>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
-      <c r="R30" s="45" t="s">
+      <c r="R30" s="44" t="s">
         <v>223</v>
       </c>
       <c r="S30" s="23" t="s">
@@ -3923,7 +3919,7 @@
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
+    <row r="31" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="24">
         <v>4</v>
       </c>
@@ -3961,7 +3957,7 @@
       <c r="P31" s="27"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="49" t="s">
+      <c r="S31" s="48" t="s">
         <v>235</v>
       </c>
       <c r="T31" s="23"/>
@@ -3979,7 +3975,7 @@
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
+    <row r="32" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="24">
         <v>41</v>
       </c>
@@ -4038,7 +4034,7 @@
       <c r="A33" s="24">
         <v>30</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="49">
         <v>25</v>
       </c>
       <c r="C33" s="28">
@@ -4047,7 +4043,7 @@
       <c r="D33" s="28">
         <v>36</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="50" t="s">
         <v>253</v>
       </c>
       <c r="F33" s="27" t="s">
@@ -4093,7 +4089,7 @@
       <c r="A34" s="24">
         <v>27</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="49">
         <v>24</v>
       </c>
       <c r="C34" s="28">
@@ -4102,7 +4098,7 @@
       <c r="D34" s="28">
         <v>37</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="51" t="s">
         <v>254</v>
       </c>
       <c r="F34" s="27" t="s">
@@ -4191,7 +4187,7 @@
       <c r="AF35" s="23"/>
       <c r="AG35" s="23"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1">
+    <row r="36" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="28">
         <v>24</v>
       </c>
@@ -4252,7 +4248,7 @@
       <c r="AF36" s="23"/>
       <c r="AG36" s="23"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1">
+    <row r="37" spans="1:33" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="28">
         <v>23</v>
       </c>
@@ -4317,13 +4313,13 @@
       <c r="A38" s="28">
         <v>26</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="24">
         <v>28</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="27">
@@ -4339,10 +4335,10 @@
       <c r="O38" s="27"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
-      <c r="R38" s="45" t="s">
+      <c r="R38" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="S38" s="45" t="s">
+      <c r="S38" s="44" t="s">
         <v>220</v>
       </c>
       <c r="T38" s="23"/>
@@ -4361,14 +4357,14 @@
       <c r="AG38" s="23"/>
     </row>
     <row r="39" spans="1:33" ht="15.75" hidden="1" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="24">
         <v>30</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="47" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="27">
@@ -4406,14 +4402,14 @@
       <c r="AG39" s="23"/>
     </row>
     <row r="40" spans="1:33" ht="15.75" hidden="1" customHeight="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="24">
         <v>31</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="47" t="s">
         <v>88</v>
       </c>
       <c r="G40" s="27">
@@ -4451,14 +4447,14 @@
       <c r="AG40" s="23"/>
     </row>
     <row r="41" spans="1:33" ht="15.75" hidden="1" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="24">
         <v>32</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="47" t="s">
         <v>89</v>
       </c>
       <c r="G41" s="27">
@@ -4498,14 +4494,14 @@
       <c r="AG41" s="23"/>
     </row>
     <row r="42" spans="1:33" ht="15.75" hidden="1" customHeight="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="24">
         <v>33</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="47" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="27">
@@ -4543,14 +4539,14 @@
       <c r="AG42" s="23"/>
     </row>
     <row r="43" spans="1:33" ht="15.75" hidden="1" customHeight="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="24">
         <v>34</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48" t="s">
+      <c r="E43" s="46"/>
+      <c r="F43" s="47" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="27">
@@ -4572,7 +4568,7 @@
       <c r="S43" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="T43" s="55"/>
+      <c r="T43" s="54"/>
       <c r="U43" s="23"/>
       <c r="V43" s="23"/>
       <c r="W43" s="23"/>
@@ -4588,14 +4584,14 @@
       <c r="AG43" s="23"/>
     </row>
     <row r="44" spans="1:33" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="24">
         <v>35</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="46"/>
+      <c r="F44" s="47" t="s">
         <v>93</v>
       </c>
       <c r="G44" s="27">
@@ -4617,7 +4613,7 @@
       <c r="S44" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="T44" s="56"/>
+      <c r="T44" s="55"/>
       <c r="U44" s="23"/>
       <c r="V44" s="23"/>
       <c r="W44" s="23"/>
@@ -4636,12 +4632,12 @@
       <c r="A45" s="24">
         <v>28</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="24">
         <v>38</v>
       </c>
-      <c r="E45" s="47"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="32" t="s">
         <v>94</v>
       </c>
@@ -4663,7 +4659,7 @@
       <c r="R45" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="S45" s="45" t="s">
+      <c r="S45" s="44" t="s">
         <v>216</v>
       </c>
       <c r="T45" s="23"/>
@@ -4685,12 +4681,12 @@
       <c r="A46" s="24">
         <v>29</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="24">
         <v>39</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="32" t="s">
         <v>95</v>
       </c>
@@ -4712,7 +4708,7 @@
       <c r="R46" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="S46" s="45" t="s">
+      <c r="S46" s="44" t="s">
         <v>216</v>
       </c>
       <c r="T46" s="23"/>
@@ -4735,7 +4731,7 @@
       <c r="B47" s="27"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
-      <c r="E47" s="57"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -4778,11 +4774,11 @@
         <f>B48-3</f>
         <v>16</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="45" t="s">
+      <c r="E48" s="58"/>
+      <c r="F48" s="44" t="s">
         <v>288</v>
       </c>
       <c r="I48" s="23"/>
@@ -4823,12 +4819,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="88" t="s">
+      <c r="E49" s="58"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="87" t="s">
         <v>289</v>
       </c>
       <c r="I49" s="23"/>
@@ -4870,12 +4866,12 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="88" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="87" t="s">
         <v>290</v>
       </c>
       <c r="I50" s="23"/>
@@ -4909,9 +4905,9 @@
       <c r="B51" s="27"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="45" t="s">
+      <c r="E51" s="56"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="44" t="s">
         <v>291</v>
       </c>
       <c r="H51" s="23"/>
@@ -4942,16 +4938,16 @@
       <c r="AG51" s="23"/>
     </row>
     <row r="52" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="45" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="H52" s="61"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
@@ -4979,107 +4975,107 @@
       <c r="AG52" s="23"/>
     </row>
     <row r="53" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="45" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="H53" s="61"/>
+      <c r="H53" s="60"/>
       <c r="O53" s="33"/>
     </row>
     <row r="54" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="70"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="69"/>
       <c r="O54" s="33"/>
     </row>
     <row r="55" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="70"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="69"/>
       <c r="O55" s="33"/>
     </row>
     <row r="56" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A56" s="75"/>
-      <c r="B56" s="70"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="70"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="69"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="69"/>
       <c r="O56" s="33"/>
     </row>
     <row r="57" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="70"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="69"/>
       <c r="O57" s="33"/>
     </row>
     <row r="58" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="70"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="69"/>
       <c r="O58" s="33"/>
     </row>
     <row r="59" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="70"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="69"/>
       <c r="O59" s="33"/>
     </row>
     <row r="60" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="70"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="69"/>
       <c r="O60" s="33"/>
     </row>
     <row r="61" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A61" s="75"/>
-      <c r="B61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="70"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="69"/>
       <c r="O61" s="33"/>
     </row>
     <row r="62" spans="1:33" ht="15.75" customHeight="1">
@@ -5087,67 +5083,67 @@
       <c r="B62" s="33"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="79"/>
+      <c r="E62" s="78"/>
       <c r="O62" s="33"/>
     </row>
     <row r="63" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A63" s="80"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
       <c r="O63" s="33"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
       <c r="O64" s="33"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A65" s="71"/>
-      <c r="G65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
+      <c r="A65" s="70"/>
+      <c r="G65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
       <c r="O65" s="33"/>
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A66" s="71"/>
-      <c r="G66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
+      <c r="A66" s="70"/>
+      <c r="G66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
       <c r="O66" s="33"/>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A67" s="71"/>
-      <c r="G67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
+      <c r="A67" s="70"/>
+      <c r="G67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
       <c r="O67" s="33"/>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A68" s="71"/>
-      <c r="G68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
+      <c r="A68" s="70"/>
+      <c r="G68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
       <c r="O68" s="33"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1">
@@ -5155,7 +5151,7 @@
       <c r="B69" s="33"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
-      <c r="E69" s="79"/>
+      <c r="E69" s="78"/>
       <c r="O69" s="33"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1">
@@ -5163,7 +5159,7 @@
       <c r="B70" s="33"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
-      <c r="E70" s="79"/>
+      <c r="E70" s="78"/>
       <c r="O70" s="33"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1">
@@ -5171,7 +5167,7 @@
       <c r="B71" s="33"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
-      <c r="E71" s="79"/>
+      <c r="E71" s="78"/>
       <c r="O71" s="33"/>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1">
@@ -5179,7 +5175,7 @@
       <c r="B72" s="33"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="79"/>
+      <c r="E72" s="78"/>
       <c r="O72" s="33"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1">
@@ -5187,7 +5183,7 @@
       <c r="B73" s="33"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="79"/>
+      <c r="E73" s="78"/>
       <c r="O73" s="33"/>
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1">
@@ -5195,7 +5191,7 @@
       <c r="B74" s="33"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
-      <c r="E74" s="79"/>
+      <c r="E74" s="78"/>
       <c r="O74" s="33"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1">
@@ -5203,7 +5199,7 @@
       <c r="B75" s="33"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
-      <c r="E75" s="79"/>
+      <c r="E75" s="78"/>
       <c r="O75" s="33"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1">
@@ -5211,7 +5207,7 @@
       <c r="B76" s="33"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
-      <c r="E76" s="79"/>
+      <c r="E76" s="78"/>
       <c r="O76" s="33"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1">
@@ -5219,7 +5215,7 @@
       <c r="B77" s="33"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
-      <c r="E77" s="79"/>
+      <c r="E77" s="78"/>
       <c r="O77" s="33"/>
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1">
@@ -5227,7 +5223,7 @@
       <c r="B78" s="33"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
-      <c r="E78" s="79"/>
+      <c r="E78" s="78"/>
       <c r="O78" s="33"/>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1">
@@ -5235,7 +5231,7 @@
       <c r="B79" s="33"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="79"/>
+      <c r="E79" s="78"/>
       <c r="O79" s="33"/>
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1">
@@ -5243,7 +5239,7 @@
       <c r="B80" s="33"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="79"/>
+      <c r="E80" s="78"/>
       <c r="O80" s="33"/>
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1">
@@ -5251,7 +5247,7 @@
       <c r="B81" s="33"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="79"/>
+      <c r="E81" s="78"/>
       <c r="O81" s="33"/>
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1">
@@ -5259,7 +5255,7 @@
       <c r="B82" s="33"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="79"/>
+      <c r="E82" s="78"/>
       <c r="O82" s="33"/>
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1">
@@ -5267,7 +5263,7 @@
       <c r="B83" s="33"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
-      <c r="E83" s="79"/>
+      <c r="E83" s="78"/>
       <c r="O83" s="33"/>
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1">
@@ -5275,7 +5271,7 @@
       <c r="B84" s="33"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="79"/>
+      <c r="E84" s="78"/>
       <c r="O84" s="33"/>
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1">
@@ -5283,7 +5279,7 @@
       <c r="B85" s="33"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="79"/>
+      <c r="E85" s="78"/>
       <c r="O85" s="33"/>
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1">
@@ -5291,7 +5287,7 @@
       <c r="B86" s="33"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
-      <c r="E86" s="79"/>
+      <c r="E86" s="78"/>
       <c r="O86" s="33"/>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1">
@@ -5299,7 +5295,7 @@
       <c r="B87" s="33"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
-      <c r="E87" s="79"/>
+      <c r="E87" s="78"/>
       <c r="O87" s="33"/>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1">
@@ -5307,7 +5303,7 @@
       <c r="B88" s="33"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
-      <c r="E88" s="79"/>
+      <c r="E88" s="78"/>
       <c r="O88" s="33"/>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1">
@@ -5315,7 +5311,7 @@
       <c r="B89" s="33"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
-      <c r="E89" s="79"/>
+      <c r="E89" s="78"/>
       <c r="O89" s="33"/>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1">
@@ -5323,7 +5319,7 @@
       <c r="B90" s="33"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
-      <c r="E90" s="79"/>
+      <c r="E90" s="78"/>
       <c r="O90" s="33"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1">
@@ -5331,7 +5327,7 @@
       <c r="B91" s="33"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
-      <c r="E91" s="79"/>
+      <c r="E91" s="78"/>
       <c r="O91" s="33"/>
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1">
@@ -5339,7 +5335,7 @@
       <c r="B92" s="33"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
-      <c r="E92" s="79"/>
+      <c r="E92" s="78"/>
       <c r="O92" s="33"/>
     </row>
     <row r="93" spans="1:15" ht="15.75" customHeight="1">
@@ -5347,7 +5343,7 @@
       <c r="B93" s="33"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
-      <c r="E93" s="79"/>
+      <c r="E93" s="78"/>
       <c r="O93" s="33"/>
     </row>
     <row r="94" spans="1:15" ht="15.75" customHeight="1">
@@ -5355,7 +5351,7 @@
       <c r="B94" s="33"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
-      <c r="E94" s="79"/>
+      <c r="E94" s="78"/>
       <c r="O94" s="33"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" customHeight="1">
@@ -5363,7 +5359,7 @@
       <c r="B95" s="33"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
-      <c r="E95" s="79"/>
+      <c r="E95" s="78"/>
       <c r="O95" s="33"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" customHeight="1">
@@ -5371,7 +5367,7 @@
       <c r="B96" s="33"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
-      <c r="E96" s="79"/>
+      <c r="E96" s="78"/>
       <c r="O96" s="33"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" customHeight="1">
@@ -5379,7 +5375,7 @@
       <c r="B97" s="33"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
-      <c r="E97" s="79"/>
+      <c r="E97" s="78"/>
       <c r="O97" s="33"/>
     </row>
     <row r="98" spans="1:15" ht="15.75" customHeight="1">
@@ -5387,7 +5383,7 @@
       <c r="B98" s="33"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
-      <c r="E98" s="79"/>
+      <c r="E98" s="78"/>
       <c r="O98" s="33"/>
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1">
@@ -5395,7 +5391,7 @@
       <c r="B99" s="33"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="79"/>
+      <c r="E99" s="78"/>
       <c r="O99" s="33"/>
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1">
@@ -5403,7 +5399,7 @@
       <c r="B100" s="33"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
-      <c r="E100" s="79"/>
+      <c r="E100" s="78"/>
       <c r="O100" s="33"/>
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1">
@@ -5411,7 +5407,7 @@
       <c r="B101" s="33"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
-      <c r="E101" s="79"/>
+      <c r="E101" s="78"/>
       <c r="O101" s="33"/>
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
@@ -5419,7 +5415,7 @@
       <c r="B102" s="33"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
-      <c r="E102" s="79"/>
+      <c r="E102" s="78"/>
       <c r="O102" s="33"/>
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1">
@@ -5427,7 +5423,7 @@
       <c r="B103" s="33"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
-      <c r="E103" s="79"/>
+      <c r="E103" s="78"/>
       <c r="O103" s="33"/>
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
@@ -5435,7 +5431,7 @@
       <c r="B104" s="33"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
-      <c r="E104" s="79"/>
+      <c r="E104" s="78"/>
       <c r="O104" s="33"/>
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1">
@@ -5443,7 +5439,7 @@
       <c r="B105" s="33"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
-      <c r="E105" s="79"/>
+      <c r="E105" s="78"/>
       <c r="O105" s="33"/>
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1">
@@ -5451,7 +5447,7 @@
       <c r="B106" s="33"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
-      <c r="E106" s="79"/>
+      <c r="E106" s="78"/>
       <c r="O106" s="33"/>
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1">
@@ -5459,7 +5455,7 @@
       <c r="B107" s="33"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
-      <c r="E107" s="79"/>
+      <c r="E107" s="78"/>
       <c r="O107" s="33"/>
     </row>
     <row r="108" spans="1:15" ht="15.75" customHeight="1">
@@ -5467,7 +5463,7 @@
       <c r="B108" s="33"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
-      <c r="E108" s="79"/>
+      <c r="E108" s="78"/>
       <c r="O108" s="33"/>
     </row>
     <row r="109" spans="1:15" ht="15.75" customHeight="1">
@@ -5475,7 +5471,7 @@
       <c r="B109" s="33"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
-      <c r="E109" s="79"/>
+      <c r="E109" s="78"/>
       <c r="O109" s="33"/>
     </row>
     <row r="110" spans="1:15" ht="15.75" customHeight="1">
@@ -5483,7 +5479,7 @@
       <c r="B110" s="33"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
-      <c r="E110" s="79"/>
+      <c r="E110" s="78"/>
       <c r="O110" s="33"/>
     </row>
     <row r="111" spans="1:15" ht="15.75" customHeight="1">
@@ -5491,7 +5487,7 @@
       <c r="B111" s="33"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
-      <c r="E111" s="79"/>
+      <c r="E111" s="78"/>
       <c r="O111" s="33"/>
     </row>
     <row r="112" spans="1:15" ht="15.75" customHeight="1">
@@ -5499,7 +5495,7 @@
       <c r="B112" s="33"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
-      <c r="E112" s="79"/>
+      <c r="E112" s="78"/>
       <c r="O112" s="33"/>
     </row>
     <row r="113" spans="1:15" ht="15.75" customHeight="1">
@@ -5507,7 +5503,7 @@
       <c r="B113" s="33"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
-      <c r="E113" s="79"/>
+      <c r="E113" s="78"/>
       <c r="O113" s="33"/>
     </row>
     <row r="114" spans="1:15" ht="15.75" customHeight="1">
@@ -5515,7 +5511,7 @@
       <c r="B114" s="33"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
-      <c r="E114" s="79"/>
+      <c r="E114" s="78"/>
       <c r="O114" s="33"/>
     </row>
     <row r="115" spans="1:15" ht="15.75" customHeight="1">
@@ -5523,7 +5519,7 @@
       <c r="B115" s="33"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
-      <c r="E115" s="79"/>
+      <c r="E115" s="78"/>
       <c r="O115" s="33"/>
     </row>
     <row r="116" spans="1:15" ht="15.75" customHeight="1">
@@ -5531,7 +5527,7 @@
       <c r="B116" s="33"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
-      <c r="E116" s="79"/>
+      <c r="E116" s="78"/>
       <c r="O116" s="33"/>
     </row>
     <row r="117" spans="1:15" ht="15.75" customHeight="1">
@@ -5539,7 +5535,7 @@
       <c r="B117" s="33"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
-      <c r="E117" s="79"/>
+      <c r="E117" s="78"/>
       <c r="O117" s="33"/>
     </row>
     <row r="118" spans="1:15" ht="15.75" customHeight="1">
@@ -5547,7 +5543,7 @@
       <c r="B118" s="33"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
-      <c r="E118" s="79"/>
+      <c r="E118" s="78"/>
       <c r="O118" s="33"/>
     </row>
     <row r="119" spans="1:15" ht="15.75" customHeight="1">
@@ -5555,7 +5551,7 @@
       <c r="B119" s="33"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
-      <c r="E119" s="79"/>
+      <c r="E119" s="78"/>
       <c r="O119" s="33"/>
     </row>
     <row r="120" spans="1:15" ht="15.75" customHeight="1">
@@ -5563,7 +5559,7 @@
       <c r="B120" s="33"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
-      <c r="E120" s="79"/>
+      <c r="E120" s="78"/>
       <c r="O120" s="33"/>
     </row>
     <row r="121" spans="1:15" ht="15.75" customHeight="1">
@@ -5571,7 +5567,7 @@
       <c r="B121" s="33"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="79"/>
+      <c r="E121" s="78"/>
       <c r="O121" s="33"/>
     </row>
     <row r="122" spans="1:15" ht="15.75" customHeight="1">
@@ -5579,7 +5575,7 @@
       <c r="B122" s="33"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="79"/>
+      <c r="E122" s="78"/>
       <c r="O122" s="33"/>
     </row>
     <row r="123" spans="1:15" ht="15.75" customHeight="1">
@@ -5587,7 +5583,7 @@
       <c r="B123" s="33"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
-      <c r="E123" s="79"/>
+      <c r="E123" s="78"/>
       <c r="O123" s="33"/>
     </row>
     <row r="124" spans="1:15" ht="15.75" customHeight="1">
@@ -5595,7 +5591,7 @@
       <c r="B124" s="33"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
-      <c r="E124" s="79"/>
+      <c r="E124" s="78"/>
       <c r="O124" s="33"/>
     </row>
     <row r="125" spans="1:15" ht="15.75" customHeight="1">
@@ -5603,7 +5599,7 @@
       <c r="B125" s="33"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
-      <c r="E125" s="79"/>
+      <c r="E125" s="78"/>
       <c r="O125" s="33"/>
     </row>
     <row r="126" spans="1:15" ht="15.75" customHeight="1">
@@ -5611,7 +5607,7 @@
       <c r="B126" s="33"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
-      <c r="E126" s="79"/>
+      <c r="E126" s="78"/>
       <c r="O126" s="33"/>
     </row>
     <row r="127" spans="1:15" ht="15.75" customHeight="1">
@@ -5619,7 +5615,7 @@
       <c r="B127" s="33"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
-      <c r="E127" s="79"/>
+      <c r="E127" s="78"/>
       <c r="O127" s="33"/>
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1">
@@ -5627,7 +5623,7 @@
       <c r="B128" s="33"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
-      <c r="E128" s="79"/>
+      <c r="E128" s="78"/>
       <c r="O128" s="33"/>
     </row>
     <row r="129" spans="1:15" ht="15.75" customHeight="1">
@@ -5635,7 +5631,7 @@
       <c r="B129" s="33"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
-      <c r="E129" s="79"/>
+      <c r="E129" s="78"/>
       <c r="O129" s="33"/>
     </row>
     <row r="130" spans="1:15" ht="15.75" customHeight="1">
@@ -5643,7 +5639,7 @@
       <c r="B130" s="33"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
-      <c r="E130" s="79"/>
+      <c r="E130" s="78"/>
       <c r="O130" s="33"/>
     </row>
     <row r="131" spans="1:15" ht="15.75" customHeight="1">
@@ -5651,7 +5647,7 @@
       <c r="B131" s="33"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
-      <c r="E131" s="79"/>
+      <c r="E131" s="78"/>
       <c r="O131" s="33"/>
     </row>
     <row r="132" spans="1:15" ht="15.75" customHeight="1">
@@ -5659,7 +5655,7 @@
       <c r="B132" s="33"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
-      <c r="E132" s="79"/>
+      <c r="E132" s="78"/>
       <c r="O132" s="33"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" customHeight="1">
@@ -5667,7 +5663,7 @@
       <c r="B133" s="33"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
-      <c r="E133" s="79"/>
+      <c r="E133" s="78"/>
       <c r="O133" s="33"/>
     </row>
     <row r="134" spans="1:15" ht="15.75" customHeight="1">
@@ -5675,7 +5671,7 @@
       <c r="B134" s="33"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
-      <c r="E134" s="79"/>
+      <c r="E134" s="78"/>
       <c r="O134" s="33"/>
     </row>
     <row r="135" spans="1:15" ht="15.75" customHeight="1">
@@ -5683,7 +5679,7 @@
       <c r="B135" s="33"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
-      <c r="E135" s="79"/>
+      <c r="E135" s="78"/>
       <c r="O135" s="33"/>
     </row>
     <row r="136" spans="1:15" ht="15.75" customHeight="1">
@@ -5691,7 +5687,7 @@
       <c r="B136" s="33"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
-      <c r="E136" s="79"/>
+      <c r="E136" s="78"/>
       <c r="O136" s="33"/>
     </row>
     <row r="137" spans="1:15" ht="15.75" customHeight="1">
@@ -5699,7 +5695,7 @@
       <c r="B137" s="33"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
-      <c r="E137" s="79"/>
+      <c r="E137" s="78"/>
       <c r="O137" s="33"/>
     </row>
     <row r="138" spans="1:15" ht="15.75" customHeight="1">
@@ -5707,7 +5703,7 @@
       <c r="B138" s="33"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
-      <c r="E138" s="79"/>
+      <c r="E138" s="78"/>
       <c r="O138" s="33"/>
     </row>
     <row r="139" spans="1:15" ht="15.75" customHeight="1">
@@ -5715,7 +5711,7 @@
       <c r="B139" s="33"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
-      <c r="E139" s="79"/>
+      <c r="E139" s="78"/>
       <c r="O139" s="33"/>
     </row>
     <row r="140" spans="1:15" ht="15.75" customHeight="1">
@@ -5723,7 +5719,7 @@
       <c r="B140" s="33"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
-      <c r="E140" s="79"/>
+      <c r="E140" s="78"/>
       <c r="O140" s="33"/>
     </row>
     <row r="141" spans="1:15" ht="15.75" customHeight="1">
@@ -5731,7 +5727,7 @@
       <c r="B141" s="33"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
-      <c r="E141" s="79"/>
+      <c r="E141" s="78"/>
       <c r="O141" s="33"/>
     </row>
     <row r="142" spans="1:15" ht="15.75" customHeight="1">
@@ -5739,7 +5735,7 @@
       <c r="B142" s="33"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
-      <c r="E142" s="79"/>
+      <c r="E142" s="78"/>
       <c r="O142" s="33"/>
     </row>
     <row r="143" spans="1:15" ht="15.75" customHeight="1">
@@ -5747,7 +5743,7 @@
       <c r="B143" s="33"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
-      <c r="E143" s="79"/>
+      <c r="E143" s="78"/>
       <c r="O143" s="33"/>
     </row>
     <row r="144" spans="1:15" ht="15.75" customHeight="1">
@@ -5755,7 +5751,7 @@
       <c r="B144" s="33"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
-      <c r="E144" s="79"/>
+      <c r="E144" s="78"/>
       <c r="O144" s="33"/>
     </row>
     <row r="145" spans="1:15" ht="15.75" customHeight="1">
@@ -5763,7 +5759,7 @@
       <c r="B145" s="33"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
-      <c r="E145" s="79"/>
+      <c r="E145" s="78"/>
       <c r="O145" s="33"/>
     </row>
     <row r="146" spans="1:15" ht="15.75" customHeight="1">
@@ -5771,7 +5767,7 @@
       <c r="B146" s="33"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
-      <c r="E146" s="79"/>
+      <c r="E146" s="78"/>
       <c r="O146" s="33"/>
     </row>
     <row r="147" spans="1:15" ht="15.75" customHeight="1">
@@ -5779,7 +5775,7 @@
       <c r="B147" s="33"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
-      <c r="E147" s="79"/>
+      <c r="E147" s="78"/>
       <c r="O147" s="33"/>
     </row>
     <row r="148" spans="1:15" ht="15.75" customHeight="1">
@@ -5787,7 +5783,7 @@
       <c r="B148" s="33"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
-      <c r="E148" s="79"/>
+      <c r="E148" s="78"/>
       <c r="O148" s="33"/>
     </row>
     <row r="149" spans="1:15" ht="15.75" customHeight="1">
@@ -5795,7 +5791,7 @@
       <c r="B149" s="33"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
-      <c r="E149" s="79"/>
+      <c r="E149" s="78"/>
       <c r="O149" s="33"/>
     </row>
     <row r="150" spans="1:15" ht="15.75" customHeight="1">
@@ -5803,7 +5799,7 @@
       <c r="B150" s="33"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
-      <c r="E150" s="79"/>
+      <c r="E150" s="78"/>
       <c r="O150" s="33"/>
     </row>
     <row r="151" spans="1:15" ht="15.75" customHeight="1">
@@ -5811,7 +5807,7 @@
       <c r="B151" s="33"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
-      <c r="E151" s="79"/>
+      <c r="E151" s="78"/>
       <c r="O151" s="33"/>
     </row>
     <row r="152" spans="1:15" ht="15.75" customHeight="1">
@@ -5819,7 +5815,7 @@
       <c r="B152" s="33"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
-      <c r="E152" s="79"/>
+      <c r="E152" s="78"/>
       <c r="O152" s="33"/>
     </row>
     <row r="153" spans="1:15" ht="15.75" customHeight="1">
@@ -5827,7 +5823,7 @@
       <c r="B153" s="33"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
-      <c r="E153" s="79"/>
+      <c r="E153" s="78"/>
       <c r="O153" s="33"/>
     </row>
     <row r="154" spans="1:15" ht="15.75" customHeight="1">
@@ -5835,7 +5831,7 @@
       <c r="B154" s="33"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
-      <c r="E154" s="79"/>
+      <c r="E154" s="78"/>
       <c r="O154" s="33"/>
     </row>
     <row r="155" spans="1:15" ht="15.75" customHeight="1">
@@ -5843,7 +5839,7 @@
       <c r="B155" s="33"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
-      <c r="E155" s="79"/>
+      <c r="E155" s="78"/>
       <c r="O155" s="33"/>
     </row>
     <row r="156" spans="1:15" ht="15.75" customHeight="1">
@@ -5851,7 +5847,7 @@
       <c r="B156" s="33"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
-      <c r="E156" s="79"/>
+      <c r="E156" s="78"/>
       <c r="O156" s="33"/>
     </row>
     <row r="157" spans="1:15" ht="15.75" customHeight="1">
@@ -5859,7 +5855,7 @@
       <c r="B157" s="33"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
-      <c r="E157" s="79"/>
+      <c r="E157" s="78"/>
       <c r="O157" s="33"/>
     </row>
     <row r="158" spans="1:15" ht="15.75" customHeight="1">
@@ -5867,7 +5863,7 @@
       <c r="B158" s="33"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
-      <c r="E158" s="79"/>
+      <c r="E158" s="78"/>
       <c r="O158" s="33"/>
     </row>
     <row r="159" spans="1:15" ht="15.75" customHeight="1">
@@ -5875,7 +5871,7 @@
       <c r="B159" s="33"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
-      <c r="E159" s="79"/>
+      <c r="E159" s="78"/>
       <c r="O159" s="33"/>
     </row>
     <row r="160" spans="1:15" ht="15.75" customHeight="1">
@@ -5883,7 +5879,7 @@
       <c r="B160" s="33"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
-      <c r="E160" s="79"/>
+      <c r="E160" s="78"/>
       <c r="O160" s="33"/>
     </row>
     <row r="161" spans="1:15" ht="15.75" customHeight="1">
@@ -5891,7 +5887,7 @@
       <c r="B161" s="33"/>
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
-      <c r="E161" s="79"/>
+      <c r="E161" s="78"/>
       <c r="O161" s="33"/>
     </row>
     <row r="162" spans="1:15" ht="15.75" customHeight="1">
@@ -5899,7 +5895,7 @@
       <c r="B162" s="33"/>
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
-      <c r="E162" s="79"/>
+      <c r="E162" s="78"/>
       <c r="O162" s="33"/>
     </row>
     <row r="163" spans="1:15" ht="15.75" customHeight="1">
@@ -5907,7 +5903,7 @@
       <c r="B163" s="33"/>
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
-      <c r="E163" s="79"/>
+      <c r="E163" s="78"/>
       <c r="O163" s="33"/>
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1">
@@ -5915,7 +5911,7 @@
       <c r="B164" s="33"/>
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
-      <c r="E164" s="79"/>
+      <c r="E164" s="78"/>
       <c r="O164" s="33"/>
     </row>
     <row r="165" spans="1:15" ht="15.75" customHeight="1">
@@ -5923,7 +5919,7 @@
       <c r="B165" s="33"/>
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
-      <c r="E165" s="79"/>
+      <c r="E165" s="78"/>
       <c r="O165" s="33"/>
     </row>
     <row r="166" spans="1:15" ht="15.75" customHeight="1">
@@ -5931,7 +5927,7 @@
       <c r="B166" s="33"/>
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
-      <c r="E166" s="79"/>
+      <c r="E166" s="78"/>
       <c r="O166" s="33"/>
     </row>
     <row r="167" spans="1:15" ht="15.75" customHeight="1">
@@ -5939,7 +5935,7 @@
       <c r="B167" s="33"/>
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
-      <c r="E167" s="79"/>
+      <c r="E167" s="78"/>
       <c r="O167" s="33"/>
     </row>
     <row r="168" spans="1:15" ht="15.75" customHeight="1">
@@ -5947,7 +5943,7 @@
       <c r="B168" s="33"/>
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
-      <c r="E168" s="79"/>
+      <c r="E168" s="78"/>
       <c r="O168" s="33"/>
     </row>
     <row r="169" spans="1:15" ht="15.75" customHeight="1">
@@ -5955,7 +5951,7 @@
       <c r="B169" s="33"/>
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
-      <c r="E169" s="79"/>
+      <c r="E169" s="78"/>
       <c r="O169" s="33"/>
     </row>
     <row r="170" spans="1:15" ht="15.75" customHeight="1">
@@ -5963,7 +5959,7 @@
       <c r="B170" s="33"/>
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
-      <c r="E170" s="79"/>
+      <c r="E170" s="78"/>
       <c r="O170" s="33"/>
     </row>
     <row r="171" spans="1:15" ht="15.75" customHeight="1">
@@ -5971,7 +5967,7 @@
       <c r="B171" s="33"/>
       <c r="C171" s="28"/>
       <c r="D171" s="28"/>
-      <c r="E171" s="79"/>
+      <c r="E171" s="78"/>
       <c r="O171" s="33"/>
     </row>
     <row r="172" spans="1:15" ht="15.75" customHeight="1">
@@ -5979,7 +5975,7 @@
       <c r="B172" s="33"/>
       <c r="C172" s="28"/>
       <c r="D172" s="28"/>
-      <c r="E172" s="79"/>
+      <c r="E172" s="78"/>
       <c r="O172" s="33"/>
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1">
@@ -5987,7 +5983,7 @@
       <c r="B173" s="33"/>
       <c r="C173" s="28"/>
       <c r="D173" s="28"/>
-      <c r="E173" s="79"/>
+      <c r="E173" s="78"/>
       <c r="O173" s="33"/>
     </row>
     <row r="174" spans="1:15" ht="15.75" customHeight="1">
@@ -5995,7 +5991,7 @@
       <c r="B174" s="33"/>
       <c r="C174" s="28"/>
       <c r="D174" s="28"/>
-      <c r="E174" s="79"/>
+      <c r="E174" s="78"/>
       <c r="O174" s="33"/>
     </row>
     <row r="175" spans="1:15" ht="15.75" customHeight="1">
@@ -6003,7 +5999,7 @@
       <c r="B175" s="33"/>
       <c r="C175" s="28"/>
       <c r="D175" s="28"/>
-      <c r="E175" s="79"/>
+      <c r="E175" s="78"/>
       <c r="O175" s="33"/>
     </row>
     <row r="176" spans="1:15" ht="15.75" customHeight="1">
@@ -6011,7 +6007,7 @@
       <c r="B176" s="33"/>
       <c r="C176" s="28"/>
       <c r="D176" s="28"/>
-      <c r="E176" s="79"/>
+      <c r="E176" s="78"/>
       <c r="O176" s="33"/>
     </row>
     <row r="177" spans="1:15" ht="15.75" customHeight="1">
@@ -6019,7 +6015,7 @@
       <c r="B177" s="33"/>
       <c r="C177" s="28"/>
       <c r="D177" s="28"/>
-      <c r="E177" s="79"/>
+      <c r="E177" s="78"/>
       <c r="O177" s="33"/>
     </row>
     <row r="178" spans="1:15" ht="15.75" customHeight="1">
@@ -6027,7 +6023,7 @@
       <c r="B178" s="33"/>
       <c r="C178" s="28"/>
       <c r="D178" s="28"/>
-      <c r="E178" s="79"/>
+      <c r="E178" s="78"/>
       <c r="O178" s="33"/>
     </row>
     <row r="179" spans="1:15" ht="15.75" customHeight="1">
@@ -6035,7 +6031,7 @@
       <c r="B179" s="33"/>
       <c r="C179" s="28"/>
       <c r="D179" s="28"/>
-      <c r="E179" s="79"/>
+      <c r="E179" s="78"/>
       <c r="O179" s="33"/>
     </row>
     <row r="180" spans="1:15" ht="15.75" customHeight="1">
@@ -6043,7 +6039,7 @@
       <c r="B180" s="33"/>
       <c r="C180" s="28"/>
       <c r="D180" s="28"/>
-      <c r="E180" s="79"/>
+      <c r="E180" s="78"/>
       <c r="O180" s="33"/>
     </row>
     <row r="181" spans="1:15" ht="15.75" customHeight="1">
@@ -6051,7 +6047,7 @@
       <c r="B181" s="33"/>
       <c r="C181" s="28"/>
       <c r="D181" s="28"/>
-      <c r="E181" s="79"/>
+      <c r="E181" s="78"/>
       <c r="O181" s="33"/>
     </row>
     <row r="182" spans="1:15" ht="15.75" customHeight="1">
@@ -6059,7 +6055,7 @@
       <c r="B182" s="33"/>
       <c r="C182" s="28"/>
       <c r="D182" s="28"/>
-      <c r="E182" s="79"/>
+      <c r="E182" s="78"/>
       <c r="O182" s="33"/>
     </row>
     <row r="183" spans="1:15" ht="15.75" customHeight="1">
@@ -6067,7 +6063,7 @@
       <c r="B183" s="33"/>
       <c r="C183" s="28"/>
       <c r="D183" s="28"/>
-      <c r="E183" s="79"/>
+      <c r="E183" s="78"/>
       <c r="O183" s="33"/>
     </row>
     <row r="184" spans="1:15" ht="15.75" customHeight="1">
@@ -6075,7 +6071,7 @@
       <c r="B184" s="33"/>
       <c r="C184" s="28"/>
       <c r="D184" s="28"/>
-      <c r="E184" s="79"/>
+      <c r="E184" s="78"/>
       <c r="O184" s="33"/>
     </row>
     <row r="185" spans="1:15" ht="15.75" customHeight="1">
@@ -6083,7 +6079,7 @@
       <c r="B185" s="33"/>
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
-      <c r="E185" s="79"/>
+      <c r="E185" s="78"/>
       <c r="O185" s="33"/>
     </row>
     <row r="186" spans="1:15" ht="15.75" customHeight="1">
@@ -6091,7 +6087,7 @@
       <c r="B186" s="33"/>
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
-      <c r="E186" s="79"/>
+      <c r="E186" s="78"/>
       <c r="O186" s="33"/>
     </row>
     <row r="187" spans="1:15" ht="15.75" customHeight="1">
@@ -6099,7 +6095,7 @@
       <c r="B187" s="33"/>
       <c r="C187" s="28"/>
       <c r="D187" s="28"/>
-      <c r="E187" s="79"/>
+      <c r="E187" s="78"/>
       <c r="O187" s="33"/>
     </row>
     <row r="188" spans="1:15" ht="15.75" customHeight="1">
@@ -6107,7 +6103,7 @@
       <c r="B188" s="33"/>
       <c r="C188" s="28"/>
       <c r="D188" s="28"/>
-      <c r="E188" s="79"/>
+      <c r="E188" s="78"/>
       <c r="O188" s="33"/>
     </row>
     <row r="189" spans="1:15" ht="15.75" customHeight="1">
@@ -6115,7 +6111,7 @@
       <c r="B189" s="33"/>
       <c r="C189" s="28"/>
       <c r="D189" s="28"/>
-      <c r="E189" s="79"/>
+      <c r="E189" s="78"/>
       <c r="O189" s="33"/>
     </row>
     <row r="190" spans="1:15" ht="15.75" customHeight="1">
@@ -6123,7 +6119,7 @@
       <c r="B190" s="33"/>
       <c r="C190" s="28"/>
       <c r="D190" s="28"/>
-      <c r="E190" s="79"/>
+      <c r="E190" s="78"/>
       <c r="O190" s="33"/>
     </row>
     <row r="191" spans="1:15" ht="15.75" customHeight="1">
@@ -6131,7 +6127,7 @@
       <c r="B191" s="33"/>
       <c r="C191" s="28"/>
       <c r="D191" s="28"/>
-      <c r="E191" s="79"/>
+      <c r="E191" s="78"/>
       <c r="O191" s="33"/>
     </row>
     <row r="192" spans="1:15" ht="15.75" customHeight="1">
@@ -6139,7 +6135,7 @@
       <c r="B192" s="33"/>
       <c r="C192" s="28"/>
       <c r="D192" s="28"/>
-      <c r="E192" s="79"/>
+      <c r="E192" s="78"/>
       <c r="O192" s="33"/>
     </row>
     <row r="193" spans="1:15" ht="15.75" customHeight="1">
@@ -6147,7 +6143,7 @@
       <c r="B193" s="33"/>
       <c r="C193" s="28"/>
       <c r="D193" s="28"/>
-      <c r="E193" s="79"/>
+      <c r="E193" s="78"/>
       <c r="O193" s="33"/>
     </row>
     <row r="194" spans="1:15" ht="15.75" customHeight="1">
@@ -6155,7 +6151,7 @@
       <c r="B194" s="33"/>
       <c r="C194" s="28"/>
       <c r="D194" s="28"/>
-      <c r="E194" s="79"/>
+      <c r="E194" s="78"/>
       <c r="O194" s="33"/>
     </row>
     <row r="195" spans="1:15" ht="15.75" customHeight="1">
@@ -6163,7 +6159,7 @@
       <c r="B195" s="33"/>
       <c r="C195" s="28"/>
       <c r="D195" s="28"/>
-      <c r="E195" s="79"/>
+      <c r="E195" s="78"/>
       <c r="O195" s="33"/>
     </row>
     <row r="196" spans="1:15" ht="15.75" customHeight="1">
@@ -6171,7 +6167,7 @@
       <c r="B196" s="33"/>
       <c r="C196" s="28"/>
       <c r="D196" s="28"/>
-      <c r="E196" s="79"/>
+      <c r="E196" s="78"/>
       <c r="O196" s="33"/>
     </row>
     <row r="197" spans="1:15" ht="15.75" customHeight="1">
@@ -6179,7 +6175,7 @@
       <c r="B197" s="33"/>
       <c r="C197" s="28"/>
       <c r="D197" s="28"/>
-      <c r="E197" s="79"/>
+      <c r="E197" s="78"/>
       <c r="O197" s="33"/>
     </row>
     <row r="198" spans="1:15" ht="15.75" customHeight="1">
@@ -6187,7 +6183,7 @@
       <c r="B198" s="33"/>
       <c r="C198" s="28"/>
       <c r="D198" s="28"/>
-      <c r="E198" s="79"/>
+      <c r="E198" s="78"/>
       <c r="O198" s="33"/>
     </row>
     <row r="199" spans="1:15" ht="15.75" customHeight="1">
@@ -6195,7 +6191,7 @@
       <c r="B199" s="33"/>
       <c r="C199" s="28"/>
       <c r="D199" s="28"/>
-      <c r="E199" s="79"/>
+      <c r="E199" s="78"/>
       <c r="O199" s="33"/>
     </row>
     <row r="200" spans="1:15" ht="15.75" customHeight="1">
@@ -6203,7 +6199,7 @@
       <c r="B200" s="33"/>
       <c r="C200" s="28"/>
       <c r="D200" s="28"/>
-      <c r="E200" s="79"/>
+      <c r="E200" s="78"/>
       <c r="O200" s="33"/>
     </row>
     <row r="201" spans="1:15" ht="15.75" customHeight="1">
@@ -6211,7 +6207,7 @@
       <c r="B201" s="33"/>
       <c r="C201" s="28"/>
       <c r="D201" s="28"/>
-      <c r="E201" s="79"/>
+      <c r="E201" s="78"/>
       <c r="O201" s="33"/>
     </row>
     <row r="202" spans="1:15" ht="15.75" customHeight="1">
@@ -6219,7 +6215,7 @@
       <c r="B202" s="33"/>
       <c r="C202" s="28"/>
       <c r="D202" s="28"/>
-      <c r="E202" s="79"/>
+      <c r="E202" s="78"/>
       <c r="O202" s="33"/>
     </row>
     <row r="203" spans="1:15" ht="15.75" customHeight="1">
@@ -6227,7 +6223,7 @@
       <c r="B203" s="33"/>
       <c r="C203" s="28"/>
       <c r="D203" s="28"/>
-      <c r="E203" s="79"/>
+      <c r="E203" s="78"/>
       <c r="O203" s="33"/>
     </row>
     <row r="204" spans="1:15" ht="15.75" customHeight="1">
@@ -6235,7 +6231,7 @@
       <c r="B204" s="33"/>
       <c r="C204" s="28"/>
       <c r="D204" s="28"/>
-      <c r="E204" s="79"/>
+      <c r="E204" s="78"/>
       <c r="O204" s="33"/>
     </row>
     <row r="205" spans="1:15" ht="15.75" customHeight="1">
@@ -6243,7 +6239,7 @@
       <c r="B205" s="33"/>
       <c r="C205" s="28"/>
       <c r="D205" s="28"/>
-      <c r="E205" s="79"/>
+      <c r="E205" s="78"/>
       <c r="O205" s="33"/>
     </row>
     <row r="206" spans="1:15" ht="15.75" customHeight="1">
@@ -6251,7 +6247,7 @@
       <c r="B206" s="33"/>
       <c r="C206" s="28"/>
       <c r="D206" s="28"/>
-      <c r="E206" s="79"/>
+      <c r="E206" s="78"/>
       <c r="O206" s="33"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1">
@@ -6259,7 +6255,7 @@
       <c r="B207" s="33"/>
       <c r="C207" s="28"/>
       <c r="D207" s="28"/>
-      <c r="E207" s="79"/>
+      <c r="E207" s="78"/>
       <c r="O207" s="33"/>
     </row>
     <row r="208" spans="1:15" ht="15.75" customHeight="1">
@@ -6267,7 +6263,7 @@
       <c r="B208" s="33"/>
       <c r="C208" s="28"/>
       <c r="D208" s="28"/>
-      <c r="E208" s="79"/>
+      <c r="E208" s="78"/>
       <c r="O208" s="33"/>
     </row>
     <row r="209" spans="1:15" ht="15.75" customHeight="1">
@@ -6275,7 +6271,7 @@
       <c r="B209" s="33"/>
       <c r="C209" s="28"/>
       <c r="D209" s="28"/>
-      <c r="E209" s="79"/>
+      <c r="E209" s="78"/>
       <c r="O209" s="33"/>
     </row>
     <row r="210" spans="1:15" ht="15.75" customHeight="1">
@@ -6283,7 +6279,7 @@
       <c r="B210" s="33"/>
       <c r="C210" s="28"/>
       <c r="D210" s="28"/>
-      <c r="E210" s="79"/>
+      <c r="E210" s="78"/>
       <c r="O210" s="33"/>
     </row>
     <row r="211" spans="1:15" ht="15.75" customHeight="1">
@@ -6291,7 +6287,7 @@
       <c r="B211" s="33"/>
       <c r="C211" s="28"/>
       <c r="D211" s="28"/>
-      <c r="E211" s="79"/>
+      <c r="E211" s="78"/>
       <c r="O211" s="33"/>
     </row>
     <row r="212" spans="1:15" ht="15.75" customHeight="1">
@@ -6299,7 +6295,7 @@
       <c r="B212" s="33"/>
       <c r="C212" s="28"/>
       <c r="D212" s="28"/>
-      <c r="E212" s="79"/>
+      <c r="E212" s="78"/>
       <c r="O212" s="33"/>
     </row>
     <row r="213" spans="1:15" ht="15.75" customHeight="1">
@@ -6307,7 +6303,7 @@
       <c r="B213" s="33"/>
       <c r="C213" s="28"/>
       <c r="D213" s="28"/>
-      <c r="E213" s="79"/>
+      <c r="E213" s="78"/>
       <c r="O213" s="33"/>
     </row>
     <row r="214" spans="1:15" ht="15.75" customHeight="1">
@@ -6315,7 +6311,7 @@
       <c r="B214" s="33"/>
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
-      <c r="E214" s="79"/>
+      <c r="E214" s="78"/>
       <c r="O214" s="33"/>
     </row>
     <row r="215" spans="1:15" ht="15.75" customHeight="1">
@@ -6323,7 +6319,7 @@
       <c r="B215" s="33"/>
       <c r="C215" s="28"/>
       <c r="D215" s="28"/>
-      <c r="E215" s="79"/>
+      <c r="E215" s="78"/>
       <c r="O215" s="33"/>
     </row>
     <row r="216" spans="1:15" ht="15.75" customHeight="1">
@@ -6331,7 +6327,7 @@
       <c r="B216" s="33"/>
       <c r="C216" s="28"/>
       <c r="D216" s="28"/>
-      <c r="E216" s="79"/>
+      <c r="E216" s="78"/>
       <c r="O216" s="33"/>
     </row>
     <row r="217" spans="1:15" ht="15.75" customHeight="1">
@@ -6339,7 +6335,7 @@
       <c r="B217" s="33"/>
       <c r="C217" s="28"/>
       <c r="D217" s="28"/>
-      <c r="E217" s="79"/>
+      <c r="E217" s="78"/>
       <c r="O217" s="33"/>
     </row>
     <row r="218" spans="1:15" ht="15.75" customHeight="1">
@@ -6347,7 +6343,7 @@
       <c r="B218" s="33"/>
       <c r="C218" s="28"/>
       <c r="D218" s="28"/>
-      <c r="E218" s="79"/>
+      <c r="E218" s="78"/>
       <c r="O218" s="33"/>
     </row>
     <row r="219" spans="1:15" ht="15.75" customHeight="1">
@@ -6355,7 +6351,7 @@
       <c r="B219" s="33"/>
       <c r="C219" s="28"/>
       <c r="D219" s="28"/>
-      <c r="E219" s="79"/>
+      <c r="E219" s="78"/>
       <c r="O219" s="33"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" customHeight="1">
@@ -6363,7 +6359,7 @@
       <c r="B220" s="33"/>
       <c r="C220" s="28"/>
       <c r="D220" s="28"/>
-      <c r="E220" s="79"/>
+      <c r="E220" s="78"/>
       <c r="O220" s="33"/>
     </row>
     <row r="221" spans="1:15" ht="15.75" customHeight="1">
@@ -6371,7 +6367,7 @@
       <c r="B221" s="33"/>
       <c r="C221" s="28"/>
       <c r="D221" s="28"/>
-      <c r="E221" s="79"/>
+      <c r="E221" s="78"/>
       <c r="O221" s="33"/>
     </row>
     <row r="222" spans="1:15" ht="15.75" customHeight="1">
@@ -6379,7 +6375,7 @@
       <c r="B222" s="33"/>
       <c r="C222" s="28"/>
       <c r="D222" s="28"/>
-      <c r="E222" s="79"/>
+      <c r="E222" s="78"/>
       <c r="O222" s="33"/>
     </row>
     <row r="223" spans="1:15" ht="15.75" customHeight="1">
@@ -6387,7 +6383,7 @@
       <c r="B223" s="33"/>
       <c r="C223" s="28"/>
       <c r="D223" s="28"/>
-      <c r="E223" s="79"/>
+      <c r="E223" s="78"/>
       <c r="O223" s="33"/>
     </row>
     <row r="224" spans="1:15" ht="15.75" customHeight="1">
@@ -6395,7 +6391,7 @@
       <c r="B224" s="33"/>
       <c r="C224" s="28"/>
       <c r="D224" s="28"/>
-      <c r="E224" s="79"/>
+      <c r="E224" s="78"/>
       <c r="O224" s="33"/>
     </row>
     <row r="225" spans="1:15" ht="15.75" customHeight="1">
@@ -6403,7 +6399,7 @@
       <c r="B225" s="33"/>
       <c r="C225" s="28"/>
       <c r="D225" s="28"/>
-      <c r="E225" s="79"/>
+      <c r="E225" s="78"/>
       <c r="O225" s="33"/>
     </row>
     <row r="226" spans="1:15" ht="15.75" customHeight="1">
@@ -6411,7 +6407,7 @@
       <c r="B226" s="33"/>
       <c r="C226" s="28"/>
       <c r="D226" s="28"/>
-      <c r="E226" s="79"/>
+      <c r="E226" s="78"/>
       <c r="O226" s="33"/>
     </row>
     <row r="227" spans="1:15" ht="15.75" customHeight="1">
@@ -6419,7 +6415,7 @@
       <c r="B227" s="33"/>
       <c r="C227" s="28"/>
       <c r="D227" s="28"/>
-      <c r="E227" s="79"/>
+      <c r="E227" s="78"/>
       <c r="O227" s="33"/>
     </row>
     <row r="228" spans="1:15" ht="15.75" customHeight="1">
@@ -6427,7 +6423,7 @@
       <c r="B228" s="33"/>
       <c r="C228" s="28"/>
       <c r="D228" s="28"/>
-      <c r="E228" s="79"/>
+      <c r="E228" s="78"/>
       <c r="O228" s="33"/>
     </row>
     <row r="229" spans="1:15" ht="15.75" customHeight="1">
@@ -6435,7 +6431,7 @@
       <c r="B229" s="33"/>
       <c r="C229" s="28"/>
       <c r="D229" s="28"/>
-      <c r="E229" s="79"/>
+      <c r="E229" s="78"/>
       <c r="O229" s="33"/>
     </row>
     <row r="230" spans="1:15" ht="15.75" customHeight="1">
@@ -6443,7 +6439,7 @@
       <c r="B230" s="33"/>
       <c r="C230" s="28"/>
       <c r="D230" s="28"/>
-      <c r="E230" s="79"/>
+      <c r="E230" s="78"/>
       <c r="O230" s="33"/>
     </row>
     <row r="231" spans="1:15" ht="15.75" customHeight="1">
@@ -6451,7 +6447,7 @@
       <c r="B231" s="33"/>
       <c r="C231" s="28"/>
       <c r="D231" s="28"/>
-      <c r="E231" s="79"/>
+      <c r="E231" s="78"/>
       <c r="O231" s="33"/>
     </row>
     <row r="232" spans="1:15" ht="15.75" customHeight="1">
@@ -6459,7 +6455,7 @@
       <c r="B232" s="33"/>
       <c r="C232" s="28"/>
       <c r="D232" s="28"/>
-      <c r="E232" s="79"/>
+      <c r="E232" s="78"/>
       <c r="O232" s="33"/>
     </row>
     <row r="233" spans="1:15" ht="15.75" customHeight="1">
@@ -6467,7 +6463,7 @@
       <c r="B233" s="33"/>
       <c r="C233" s="28"/>
       <c r="D233" s="28"/>
-      <c r="E233" s="79"/>
+      <c r="E233" s="78"/>
       <c r="O233" s="33"/>
     </row>
     <row r="234" spans="1:15" ht="15.75" customHeight="1">
@@ -6475,7 +6471,7 @@
       <c r="B234" s="33"/>
       <c r="C234" s="28"/>
       <c r="D234" s="28"/>
-      <c r="E234" s="79"/>
+      <c r="E234" s="78"/>
       <c r="O234" s="33"/>
     </row>
     <row r="235" spans="1:15" ht="15.75" customHeight="1">
@@ -6483,7 +6479,7 @@
       <c r="B235" s="33"/>
       <c r="C235" s="28"/>
       <c r="D235" s="28"/>
-      <c r="E235" s="79"/>
+      <c r="E235" s="78"/>
       <c r="O235" s="33"/>
     </row>
     <row r="236" spans="1:15" ht="15.75" customHeight="1">
@@ -6491,7 +6487,7 @@
       <c r="B236" s="33"/>
       <c r="C236" s="28"/>
       <c r="D236" s="28"/>
-      <c r="E236" s="79"/>
+      <c r="E236" s="78"/>
       <c r="O236" s="33"/>
     </row>
     <row r="237" spans="1:15" ht="15.75" customHeight="1">
@@ -6499,7 +6495,7 @@
       <c r="B237" s="33"/>
       <c r="C237" s="28"/>
       <c r="D237" s="28"/>
-      <c r="E237" s="79"/>
+      <c r="E237" s="78"/>
       <c r="O237" s="33"/>
     </row>
     <row r="238" spans="1:15" ht="15.75" customHeight="1">
@@ -6507,7 +6503,7 @@
       <c r="B238" s="33"/>
       <c r="C238" s="28"/>
       <c r="D238" s="28"/>
-      <c r="E238" s="79"/>
+      <c r="E238" s="78"/>
       <c r="O238" s="33"/>
     </row>
     <row r="239" spans="1:15" ht="15.75" customHeight="1">
@@ -6515,7 +6511,7 @@
       <c r="B239" s="33"/>
       <c r="C239" s="28"/>
       <c r="D239" s="28"/>
-      <c r="E239" s="79"/>
+      <c r="E239" s="78"/>
       <c r="O239" s="33"/>
     </row>
     <row r="240" spans="1:15" ht="15.75" customHeight="1">
@@ -6523,7 +6519,7 @@
       <c r="B240" s="33"/>
       <c r="C240" s="28"/>
       <c r="D240" s="28"/>
-      <c r="E240" s="79"/>
+      <c r="E240" s="78"/>
       <c r="O240" s="33"/>
     </row>
     <row r="241" spans="1:15" ht="15.75" customHeight="1">
@@ -6531,7 +6527,7 @@
       <c r="B241" s="33"/>
       <c r="C241" s="28"/>
       <c r="D241" s="28"/>
-      <c r="E241" s="79"/>
+      <c r="E241" s="78"/>
       <c r="O241" s="33"/>
     </row>
     <row r="242" spans="1:15" ht="15.75" customHeight="1">
@@ -6539,7 +6535,7 @@
       <c r="B242" s="33"/>
       <c r="C242" s="28"/>
       <c r="D242" s="28"/>
-      <c r="E242" s="79"/>
+      <c r="E242" s="78"/>
       <c r="O242" s="33"/>
     </row>
     <row r="243" spans="1:15" ht="15.75" customHeight="1">
@@ -6547,7 +6543,7 @@
       <c r="B243" s="33"/>
       <c r="C243" s="28"/>
       <c r="D243" s="28"/>
-      <c r="E243" s="79"/>
+      <c r="E243" s="78"/>
       <c r="O243" s="33"/>
     </row>
     <row r="244" spans="1:15" ht="15.75" customHeight="1">
@@ -6555,7 +6551,7 @@
       <c r="B244" s="33"/>
       <c r="C244" s="28"/>
       <c r="D244" s="28"/>
-      <c r="E244" s="79"/>
+      <c r="E244" s="78"/>
       <c r="O244" s="33"/>
     </row>
     <row r="245" spans="1:15" ht="15.75" customHeight="1">
@@ -6563,7 +6559,7 @@
       <c r="B245" s="33"/>
       <c r="C245" s="28"/>
       <c r="D245" s="28"/>
-      <c r="E245" s="79"/>
+      <c r="E245" s="78"/>
       <c r="O245" s="33"/>
     </row>
     <row r="246" spans="1:15" ht="15.75" customHeight="1">
@@ -6571,7 +6567,7 @@
       <c r="B246" s="33"/>
       <c r="C246" s="28"/>
       <c r="D246" s="28"/>
-      <c r="E246" s="79"/>
+      <c r="E246" s="78"/>
       <c r="O246" s="33"/>
     </row>
     <row r="247" spans="1:15" ht="15.75" customHeight="1">
@@ -6579,7 +6575,7 @@
       <c r="B247" s="33"/>
       <c r="C247" s="28"/>
       <c r="D247" s="28"/>
-      <c r="E247" s="79"/>
+      <c r="E247" s="78"/>
       <c r="O247" s="33"/>
     </row>
     <row r="248" spans="1:15" ht="15.75" customHeight="1">
@@ -6587,7 +6583,7 @@
       <c r="B248" s="33"/>
       <c r="C248" s="28"/>
       <c r="D248" s="28"/>
-      <c r="E248" s="79"/>
+      <c r="E248" s="78"/>
       <c r="O248" s="33"/>
     </row>
     <row r="249" spans="1:15" ht="15.75" customHeight="1">
@@ -6595,7 +6591,7 @@
       <c r="B249" s="33"/>
       <c r="C249" s="28"/>
       <c r="D249" s="28"/>
-      <c r="E249" s="79"/>
+      <c r="E249" s="78"/>
       <c r="O249" s="33"/>
     </row>
     <row r="250" spans="1:15" ht="15.75" customHeight="1">
@@ -6603,7 +6599,7 @@
       <c r="B250" s="33"/>
       <c r="C250" s="28"/>
       <c r="D250" s="28"/>
-      <c r="E250" s="79"/>
+      <c r="E250" s="78"/>
       <c r="O250" s="33"/>
     </row>
     <row r="251" spans="1:15" ht="15.75" customHeight="1">
@@ -6611,7 +6607,7 @@
       <c r="B251" s="33"/>
       <c r="C251" s="28"/>
       <c r="D251" s="28"/>
-      <c r="E251" s="79"/>
+      <c r="E251" s="78"/>
       <c r="O251" s="33"/>
     </row>
     <row r="252" spans="1:15" ht="15.75" customHeight="1">
@@ -6619,7 +6615,7 @@
       <c r="B252" s="33"/>
       <c r="C252" s="28"/>
       <c r="D252" s="28"/>
-      <c r="E252" s="79"/>
+      <c r="E252" s="78"/>
       <c r="O252" s="33"/>
     </row>
     <row r="253" spans="1:15" ht="15.75" customHeight="1">
@@ -6627,7 +6623,7 @@
       <c r="B253" s="33"/>
       <c r="C253" s="28"/>
       <c r="D253" s="28"/>
-      <c r="E253" s="79"/>
+      <c r="E253" s="78"/>
       <c r="O253" s="33"/>
     </row>
     <row r="254" spans="1:15" ht="15.75" customHeight="1">
@@ -6635,7 +6631,7 @@
       <c r="B254" s="33"/>
       <c r="C254" s="28"/>
       <c r="D254" s="28"/>
-      <c r="E254" s="79"/>
+      <c r="E254" s="78"/>
       <c r="O254" s="33"/>
     </row>
     <row r="255" spans="1:15" ht="15.75" customHeight="1">
@@ -6643,7 +6639,7 @@
       <c r="B255" s="33"/>
       <c r="C255" s="28"/>
       <c r="D255" s="28"/>
-      <c r="E255" s="79"/>
+      <c r="E255" s="78"/>
       <c r="O255" s="33"/>
     </row>
     <row r="256" spans="1:15" ht="15.75" customHeight="1">
@@ -6651,7 +6647,7 @@
       <c r="B256" s="33"/>
       <c r="C256" s="28"/>
       <c r="D256" s="28"/>
-      <c r="E256" s="79"/>
+      <c r="E256" s="78"/>
       <c r="O256" s="33"/>
     </row>
     <row r="257" spans="1:15" ht="15.75" customHeight="1">
@@ -6659,7 +6655,7 @@
       <c r="B257" s="33"/>
       <c r="C257" s="28"/>
       <c r="D257" s="28"/>
-      <c r="E257" s="79"/>
+      <c r="E257" s="78"/>
       <c r="O257" s="33"/>
     </row>
     <row r="258" spans="1:15" ht="15.75" customHeight="1">
@@ -6667,7 +6663,7 @@
       <c r="B258" s="33"/>
       <c r="C258" s="28"/>
       <c r="D258" s="28"/>
-      <c r="E258" s="79"/>
+      <c r="E258" s="78"/>
       <c r="O258" s="33"/>
     </row>
     <row r="259" spans="1:15" ht="15.75" customHeight="1">
@@ -6675,7 +6671,7 @@
       <c r="B259" s="33"/>
       <c r="C259" s="28"/>
       <c r="D259" s="28"/>
-      <c r="E259" s="79"/>
+      <c r="E259" s="78"/>
       <c r="O259" s="33"/>
     </row>
     <row r="260" spans="1:15" ht="15.75" customHeight="1">
@@ -6683,7 +6679,7 @@
       <c r="B260" s="33"/>
       <c r="C260" s="28"/>
       <c r="D260" s="28"/>
-      <c r="E260" s="79"/>
+      <c r="E260" s="78"/>
       <c r="O260" s="33"/>
     </row>
     <row r="261" spans="1:15" ht="15.75" customHeight="1">
@@ -6691,7 +6687,7 @@
       <c r="B261" s="33"/>
       <c r="C261" s="28"/>
       <c r="D261" s="28"/>
-      <c r="E261" s="79"/>
+      <c r="E261" s="78"/>
       <c r="O261" s="33"/>
     </row>
     <row r="262" spans="1:15" ht="15.75" customHeight="1">
@@ -6699,7 +6695,7 @@
       <c r="B262" s="33"/>
       <c r="C262" s="28"/>
       <c r="D262" s="28"/>
-      <c r="E262" s="79"/>
+      <c r="E262" s="78"/>
       <c r="O262" s="33"/>
     </row>
     <row r="263" spans="1:15" ht="15.75" customHeight="1">
@@ -6707,7 +6703,7 @@
       <c r="B263" s="33"/>
       <c r="C263" s="28"/>
       <c r="D263" s="28"/>
-      <c r="E263" s="79"/>
+      <c r="E263" s="78"/>
       <c r="O263" s="33"/>
     </row>
     <row r="264" spans="1:15" ht="15.75" customHeight="1">
@@ -6715,7 +6711,7 @@
       <c r="B264" s="33"/>
       <c r="C264" s="28"/>
       <c r="D264" s="28"/>
-      <c r="E264" s="79"/>
+      <c r="E264" s="78"/>
       <c r="O264" s="33"/>
     </row>
     <row r="265" spans="1:15" ht="15.75" customHeight="1">
@@ -6723,7 +6719,7 @@
       <c r="B265" s="33"/>
       <c r="C265" s="28"/>
       <c r="D265" s="28"/>
-      <c r="E265" s="79"/>
+      <c r="E265" s="78"/>
       <c r="O265" s="33"/>
     </row>
     <row r="266" spans="1:15" ht="15.75" customHeight="1">
@@ -6731,7 +6727,7 @@
       <c r="B266" s="33"/>
       <c r="C266" s="28"/>
       <c r="D266" s="28"/>
-      <c r="E266" s="79"/>
+      <c r="E266" s="78"/>
       <c r="O266" s="33"/>
     </row>
     <row r="267" spans="1:15" ht="15.75" customHeight="1">
@@ -6739,7 +6735,7 @@
       <c r="B267" s="33"/>
       <c r="C267" s="28"/>
       <c r="D267" s="28"/>
-      <c r="E267" s="79"/>
+      <c r="E267" s="78"/>
       <c r="O267" s="33"/>
     </row>
     <row r="268" spans="1:15" ht="15.75" customHeight="1">
@@ -6747,7 +6743,7 @@
       <c r="B268" s="33"/>
       <c r="C268" s="28"/>
       <c r="D268" s="28"/>
-      <c r="E268" s="79"/>
+      <c r="E268" s="78"/>
       <c r="O268" s="33"/>
     </row>
     <row r="269" spans="1:15" ht="15.75" customHeight="1">
@@ -6755,7 +6751,7 @@
       <c r="B269" s="33"/>
       <c r="C269" s="28"/>
       <c r="D269" s="28"/>
-      <c r="E269" s="79"/>
+      <c r="E269" s="78"/>
       <c r="O269" s="33"/>
     </row>
     <row r="270" spans="1:15" ht="15.75" customHeight="1">
@@ -6763,7 +6759,7 @@
       <c r="B270" s="33"/>
       <c r="C270" s="28"/>
       <c r="D270" s="28"/>
-      <c r="E270" s="79"/>
+      <c r="E270" s="78"/>
       <c r="O270" s="33"/>
     </row>
     <row r="271" spans="1:15" ht="15.75" customHeight="1">
@@ -6771,7 +6767,7 @@
       <c r="B271" s="33"/>
       <c r="C271" s="28"/>
       <c r="D271" s="28"/>
-      <c r="E271" s="79"/>
+      <c r="E271" s="78"/>
       <c r="O271" s="33"/>
     </row>
     <row r="272" spans="1:15" ht="15.75" customHeight="1">
@@ -6779,7 +6775,7 @@
       <c r="B272" s="33"/>
       <c r="C272" s="28"/>
       <c r="D272" s="28"/>
-      <c r="E272" s="79"/>
+      <c r="E272" s="78"/>
       <c r="O272" s="33"/>
     </row>
     <row r="273" spans="1:15" ht="15.75" customHeight="1">
@@ -6787,7 +6783,7 @@
       <c r="B273" s="33"/>
       <c r="C273" s="28"/>
       <c r="D273" s="28"/>
-      <c r="E273" s="79"/>
+      <c r="E273" s="78"/>
       <c r="O273" s="33"/>
     </row>
     <row r="274" spans="1:15" ht="15.75" customHeight="1">
@@ -6795,7 +6791,7 @@
       <c r="B274" s="33"/>
       <c r="C274" s="28"/>
       <c r="D274" s="28"/>
-      <c r="E274" s="79"/>
+      <c r="E274" s="78"/>
       <c r="O274" s="33"/>
     </row>
     <row r="275" spans="1:15" ht="15.75" customHeight="1">
@@ -6803,7 +6799,7 @@
       <c r="B275" s="33"/>
       <c r="C275" s="28"/>
       <c r="D275" s="28"/>
-      <c r="E275" s="79"/>
+      <c r="E275" s="78"/>
       <c r="O275" s="33"/>
     </row>
     <row r="276" spans="1:15" ht="15.75" customHeight="1">
@@ -6811,7 +6807,7 @@
       <c r="B276" s="33"/>
       <c r="C276" s="28"/>
       <c r="D276" s="28"/>
-      <c r="E276" s="79"/>
+      <c r="E276" s="78"/>
       <c r="O276" s="33"/>
     </row>
     <row r="277" spans="1:15" ht="15.75" customHeight="1">
@@ -6819,7 +6815,7 @@
       <c r="B277" s="33"/>
       <c r="C277" s="28"/>
       <c r="D277" s="28"/>
-      <c r="E277" s="79"/>
+      <c r="E277" s="78"/>
       <c r="O277" s="33"/>
     </row>
     <row r="278" spans="1:15" ht="15.75" customHeight="1">
@@ -6827,7 +6823,7 @@
       <c r="B278" s="33"/>
       <c r="C278" s="28"/>
       <c r="D278" s="28"/>
-      <c r="E278" s="79"/>
+      <c r="E278" s="78"/>
       <c r="O278" s="33"/>
     </row>
     <row r="279" spans="1:15" ht="15.75" customHeight="1">
@@ -6835,7 +6831,7 @@
       <c r="B279" s="33"/>
       <c r="C279" s="28"/>
       <c r="D279" s="28"/>
-      <c r="E279" s="79"/>
+      <c r="E279" s="78"/>
       <c r="O279" s="33"/>
     </row>
     <row r="280" spans="1:15" ht="15.75" customHeight="1">
@@ -6843,7 +6839,7 @@
       <c r="B280" s="33"/>
       <c r="C280" s="28"/>
       <c r="D280" s="28"/>
-      <c r="E280" s="79"/>
+      <c r="E280" s="78"/>
       <c r="O280" s="33"/>
     </row>
     <row r="281" spans="1:15" ht="15.75" customHeight="1">
@@ -6851,7 +6847,7 @@
       <c r="B281" s="33"/>
       <c r="C281" s="28"/>
       <c r="D281" s="28"/>
-      <c r="E281" s="79"/>
+      <c r="E281" s="78"/>
       <c r="O281" s="33"/>
     </row>
     <row r="282" spans="1:15" ht="15.75" customHeight="1">
@@ -6859,7 +6855,7 @@
       <c r="B282" s="33"/>
       <c r="C282" s="28"/>
       <c r="D282" s="28"/>
-      <c r="E282" s="79"/>
+      <c r="E282" s="78"/>
       <c r="O282" s="33"/>
     </row>
     <row r="283" spans="1:15" ht="15.75" customHeight="1">
@@ -6867,7 +6863,7 @@
       <c r="B283" s="33"/>
       <c r="C283" s="28"/>
       <c r="D283" s="28"/>
-      <c r="E283" s="79"/>
+      <c r="E283" s="78"/>
       <c r="O283" s="33"/>
     </row>
     <row r="284" spans="1:15" ht="15.75" customHeight="1">
@@ -6875,7 +6871,7 @@
       <c r="B284" s="33"/>
       <c r="C284" s="28"/>
       <c r="D284" s="28"/>
-      <c r="E284" s="79"/>
+      <c r="E284" s="78"/>
       <c r="O284" s="33"/>
     </row>
     <row r="285" spans="1:15" ht="15.75" customHeight="1">
@@ -6883,7 +6879,7 @@
       <c r="B285" s="33"/>
       <c r="C285" s="28"/>
       <c r="D285" s="28"/>
-      <c r="E285" s="79"/>
+      <c r="E285" s="78"/>
       <c r="O285" s="33"/>
     </row>
     <row r="286" spans="1:15" ht="15.75" customHeight="1">
@@ -6891,7 +6887,7 @@
       <c r="B286" s="33"/>
       <c r="C286" s="28"/>
       <c r="D286" s="28"/>
-      <c r="E286" s="79"/>
+      <c r="E286" s="78"/>
       <c r="O286" s="33"/>
     </row>
     <row r="287" spans="1:15" ht="15.75" customHeight="1">
@@ -6899,7 +6895,7 @@
       <c r="B287" s="33"/>
       <c r="C287" s="28"/>
       <c r="D287" s="28"/>
-      <c r="E287" s="79"/>
+      <c r="E287" s="78"/>
       <c r="O287" s="33"/>
     </row>
     <row r="288" spans="1:15" ht="15.75" customHeight="1">
@@ -6907,7 +6903,7 @@
       <c r="B288" s="33"/>
       <c r="C288" s="28"/>
       <c r="D288" s="28"/>
-      <c r="E288" s="79"/>
+      <c r="E288" s="78"/>
       <c r="O288" s="33"/>
     </row>
     <row r="289" spans="1:15" ht="15.75" customHeight="1">
@@ -6915,7 +6911,7 @@
       <c r="B289" s="33"/>
       <c r="C289" s="28"/>
       <c r="D289" s="28"/>
-      <c r="E289" s="79"/>
+      <c r="E289" s="78"/>
       <c r="O289" s="33"/>
     </row>
     <row r="290" spans="1:15" ht="15.75" customHeight="1">
@@ -6923,7 +6919,7 @@
       <c r="B290" s="33"/>
       <c r="C290" s="28"/>
       <c r="D290" s="28"/>
-      <c r="E290" s="79"/>
+      <c r="E290" s="78"/>
       <c r="O290" s="33"/>
     </row>
     <row r="291" spans="1:15" ht="15.75" customHeight="1">
@@ -6931,7 +6927,7 @@
       <c r="B291" s="33"/>
       <c r="C291" s="28"/>
       <c r="D291" s="28"/>
-      <c r="E291" s="79"/>
+      <c r="E291" s="78"/>
       <c r="O291" s="33"/>
     </row>
     <row r="292" spans="1:15" ht="15.75" customHeight="1">
@@ -6939,7 +6935,7 @@
       <c r="B292" s="33"/>
       <c r="C292" s="28"/>
       <c r="D292" s="28"/>
-      <c r="E292" s="79"/>
+      <c r="E292" s="78"/>
       <c r="O292" s="33"/>
     </row>
     <row r="293" spans="1:15" ht="15.75" customHeight="1">
@@ -6947,7 +6943,7 @@
       <c r="B293" s="33"/>
       <c r="C293" s="28"/>
       <c r="D293" s="28"/>
-      <c r="E293" s="79"/>
+      <c r="E293" s="78"/>
       <c r="O293" s="33"/>
     </row>
     <row r="294" spans="1:15" ht="15.75" customHeight="1">
@@ -6955,7 +6951,7 @@
       <c r="B294" s="33"/>
       <c r="C294" s="28"/>
       <c r="D294" s="28"/>
-      <c r="E294" s="79"/>
+      <c r="E294" s="78"/>
       <c r="O294" s="33"/>
     </row>
     <row r="295" spans="1:15" ht="15.75" customHeight="1">
@@ -6963,7 +6959,7 @@
       <c r="B295" s="33"/>
       <c r="C295" s="28"/>
       <c r="D295" s="28"/>
-      <c r="E295" s="79"/>
+      <c r="E295" s="78"/>
       <c r="O295" s="33"/>
     </row>
     <row r="296" spans="1:15" ht="15.75" customHeight="1">
@@ -6971,7 +6967,7 @@
       <c r="B296" s="33"/>
       <c r="C296" s="28"/>
       <c r="D296" s="28"/>
-      <c r="E296" s="79"/>
+      <c r="E296" s="78"/>
       <c r="O296" s="33"/>
     </row>
     <row r="297" spans="1:15" ht="15.75" customHeight="1">
@@ -6979,7 +6975,7 @@
       <c r="B297" s="33"/>
       <c r="C297" s="28"/>
       <c r="D297" s="28"/>
-      <c r="E297" s="79"/>
+      <c r="E297" s="78"/>
       <c r="O297" s="33"/>
     </row>
     <row r="298" spans="1:15" ht="15.75" customHeight="1">
@@ -6987,7 +6983,7 @@
       <c r="B298" s="33"/>
       <c r="C298" s="28"/>
       <c r="D298" s="28"/>
-      <c r="E298" s="79"/>
+      <c r="E298" s="78"/>
       <c r="O298" s="33"/>
     </row>
     <row r="299" spans="1:15" ht="15.75" customHeight="1">
@@ -6995,7 +6991,7 @@
       <c r="B299" s="33"/>
       <c r="C299" s="28"/>
       <c r="D299" s="28"/>
-      <c r="E299" s="79"/>
+      <c r="E299" s="78"/>
       <c r="O299" s="33"/>
     </row>
     <row r="300" spans="1:15" ht="15.75" customHeight="1">
@@ -7003,7 +6999,7 @@
       <c r="B300" s="33"/>
       <c r="C300" s="28"/>
       <c r="D300" s="28"/>
-      <c r="E300" s="79"/>
+      <c r="E300" s="78"/>
       <c r="O300" s="33"/>
     </row>
     <row r="301" spans="1:15" ht="15.75" customHeight="1">
@@ -7011,7 +7007,7 @@
       <c r="B301" s="33"/>
       <c r="C301" s="28"/>
       <c r="D301" s="28"/>
-      <c r="E301" s="79"/>
+      <c r="E301" s="78"/>
       <c r="O301" s="33"/>
     </row>
     <row r="302" spans="1:15" ht="15.75" customHeight="1">
@@ -7019,7 +7015,7 @@
       <c r="B302" s="33"/>
       <c r="C302" s="28"/>
       <c r="D302" s="28"/>
-      <c r="E302" s="79"/>
+      <c r="E302" s="78"/>
       <c r="O302" s="33"/>
     </row>
     <row r="303" spans="1:15" ht="15.75" customHeight="1">
@@ -7027,7 +7023,7 @@
       <c r="B303" s="33"/>
       <c r="C303" s="28"/>
       <c r="D303" s="28"/>
-      <c r="E303" s="79"/>
+      <c r="E303" s="78"/>
       <c r="O303" s="33"/>
     </row>
     <row r="304" spans="1:15" ht="15.75" customHeight="1">
@@ -7035,7 +7031,7 @@
       <c r="B304" s="33"/>
       <c r="C304" s="28"/>
       <c r="D304" s="28"/>
-      <c r="E304" s="79"/>
+      <c r="E304" s="78"/>
       <c r="O304" s="33"/>
     </row>
     <row r="305" spans="1:15" ht="15.75" customHeight="1">
@@ -7043,7 +7039,7 @@
       <c r="B305" s="33"/>
       <c r="C305" s="28"/>
       <c r="D305" s="28"/>
-      <c r="E305" s="79"/>
+      <c r="E305" s="78"/>
       <c r="O305" s="33"/>
     </row>
     <row r="306" spans="1:15" ht="15.75" customHeight="1">
@@ -7051,7 +7047,7 @@
       <c r="B306" s="33"/>
       <c r="C306" s="28"/>
       <c r="D306" s="28"/>
-      <c r="E306" s="79"/>
+      <c r="E306" s="78"/>
       <c r="O306" s="33"/>
     </row>
     <row r="307" spans="1:15" ht="15.75" customHeight="1">
@@ -7059,7 +7055,7 @@
       <c r="B307" s="33"/>
       <c r="C307" s="28"/>
       <c r="D307" s="28"/>
-      <c r="E307" s="79"/>
+      <c r="E307" s="78"/>
       <c r="O307" s="33"/>
     </row>
     <row r="308" spans="1:15" ht="15.75" customHeight="1">
@@ -7067,7 +7063,7 @@
       <c r="B308" s="33"/>
       <c r="C308" s="28"/>
       <c r="D308" s="28"/>
-      <c r="E308" s="79"/>
+      <c r="E308" s="78"/>
       <c r="O308" s="33"/>
     </row>
     <row r="309" spans="1:15" ht="15.75" customHeight="1">
@@ -7075,7 +7071,7 @@
       <c r="B309" s="33"/>
       <c r="C309" s="28"/>
       <c r="D309" s="28"/>
-      <c r="E309" s="79"/>
+      <c r="E309" s="78"/>
       <c r="O309" s="33"/>
     </row>
     <row r="310" spans="1:15" ht="15.75" customHeight="1">
@@ -7083,7 +7079,7 @@
       <c r="B310" s="33"/>
       <c r="C310" s="28"/>
       <c r="D310" s="28"/>
-      <c r="E310" s="79"/>
+      <c r="E310" s="78"/>
       <c r="O310" s="33"/>
     </row>
     <row r="311" spans="1:15" ht="15.75" customHeight="1">
@@ -7091,7 +7087,7 @@
       <c r="B311" s="33"/>
       <c r="C311" s="28"/>
       <c r="D311" s="28"/>
-      <c r="E311" s="79"/>
+      <c r="E311" s="78"/>
       <c r="O311" s="33"/>
     </row>
     <row r="312" spans="1:15" ht="15.75" customHeight="1">
@@ -7099,7 +7095,7 @@
       <c r="B312" s="33"/>
       <c r="C312" s="28"/>
       <c r="D312" s="28"/>
-      <c r="E312" s="79"/>
+      <c r="E312" s="78"/>
       <c r="O312" s="33"/>
     </row>
     <row r="313" spans="1:15" ht="15.75" customHeight="1">
@@ -7107,7 +7103,7 @@
       <c r="B313" s="33"/>
       <c r="C313" s="28"/>
       <c r="D313" s="28"/>
-      <c r="E313" s="79"/>
+      <c r="E313" s="78"/>
       <c r="O313" s="33"/>
     </row>
     <row r="314" spans="1:15" ht="15.75" customHeight="1">
@@ -7115,7 +7111,7 @@
       <c r="B314" s="33"/>
       <c r="C314" s="28"/>
       <c r="D314" s="28"/>
-      <c r="E314" s="79"/>
+      <c r="E314" s="78"/>
       <c r="O314" s="33"/>
     </row>
     <row r="315" spans="1:15" ht="15.75" customHeight="1">
@@ -7123,7 +7119,7 @@
       <c r="B315" s="33"/>
       <c r="C315" s="28"/>
       <c r="D315" s="28"/>
-      <c r="E315" s="79"/>
+      <c r="E315" s="78"/>
       <c r="O315" s="33"/>
     </row>
     <row r="316" spans="1:15" ht="15.75" customHeight="1">
@@ -7131,7 +7127,7 @@
       <c r="B316" s="33"/>
       <c r="C316" s="28"/>
       <c r="D316" s="28"/>
-      <c r="E316" s="79"/>
+      <c r="E316" s="78"/>
       <c r="O316" s="33"/>
     </row>
     <row r="317" spans="1:15" ht="15.75" customHeight="1">
@@ -7139,7 +7135,7 @@
       <c r="B317" s="33"/>
       <c r="C317" s="28"/>
       <c r="D317" s="28"/>
-      <c r="E317" s="79"/>
+      <c r="E317" s="78"/>
       <c r="O317" s="33"/>
     </row>
     <row r="318" spans="1:15" ht="15.75" customHeight="1">
@@ -7147,7 +7143,7 @@
       <c r="B318" s="33"/>
       <c r="C318" s="28"/>
       <c r="D318" s="28"/>
-      <c r="E318" s="79"/>
+      <c r="E318" s="78"/>
       <c r="O318" s="33"/>
     </row>
     <row r="319" spans="1:15" ht="15.75" customHeight="1">
@@ -7155,7 +7151,7 @@
       <c r="B319" s="33"/>
       <c r="C319" s="28"/>
       <c r="D319" s="28"/>
-      <c r="E319" s="79"/>
+      <c r="E319" s="78"/>
       <c r="O319" s="33"/>
     </row>
     <row r="320" spans="1:15" ht="15.75" customHeight="1">
@@ -7163,7 +7159,7 @@
       <c r="B320" s="33"/>
       <c r="C320" s="28"/>
       <c r="D320" s="28"/>
-      <c r="E320" s="79"/>
+      <c r="E320" s="78"/>
       <c r="O320" s="33"/>
     </row>
     <row r="321" spans="1:15" ht="15.75" customHeight="1">
@@ -7171,7 +7167,7 @@
       <c r="B321" s="33"/>
       <c r="C321" s="28"/>
       <c r="D321" s="28"/>
-      <c r="E321" s="79"/>
+      <c r="E321" s="78"/>
       <c r="O321" s="33"/>
     </row>
     <row r="322" spans="1:15" ht="15.75" customHeight="1">
@@ -7179,7 +7175,7 @@
       <c r="B322" s="33"/>
       <c r="C322" s="28"/>
       <c r="D322" s="28"/>
-      <c r="E322" s="79"/>
+      <c r="E322" s="78"/>
       <c r="O322" s="33"/>
     </row>
     <row r="323" spans="1:15" ht="15.75" customHeight="1">
@@ -7187,7 +7183,7 @@
       <c r="B323" s="33"/>
       <c r="C323" s="28"/>
       <c r="D323" s="28"/>
-      <c r="E323" s="79"/>
+      <c r="E323" s="78"/>
       <c r="O323" s="33"/>
     </row>
     <row r="324" spans="1:15" ht="15.75" customHeight="1">
@@ -7195,7 +7191,7 @@
       <c r="B324" s="33"/>
       <c r="C324" s="28"/>
       <c r="D324" s="28"/>
-      <c r="E324" s="79"/>
+      <c r="E324" s="78"/>
       <c r="O324" s="33"/>
     </row>
     <row r="325" spans="1:15" ht="15.75" customHeight="1">
@@ -7203,7 +7199,7 @@
       <c r="B325" s="33"/>
       <c r="C325" s="28"/>
       <c r="D325" s="28"/>
-      <c r="E325" s="79"/>
+      <c r="E325" s="78"/>
       <c r="O325" s="33"/>
     </row>
     <row r="326" spans="1:15" ht="15.75" customHeight="1">
@@ -7211,7 +7207,7 @@
       <c r="B326" s="33"/>
       <c r="C326" s="28"/>
       <c r="D326" s="28"/>
-      <c r="E326" s="79"/>
+      <c r="E326" s="78"/>
       <c r="O326" s="33"/>
     </row>
     <row r="327" spans="1:15" ht="15.75" customHeight="1">
@@ -7219,7 +7215,7 @@
       <c r="B327" s="33"/>
       <c r="C327" s="28"/>
       <c r="D327" s="28"/>
-      <c r="E327" s="79"/>
+      <c r="E327" s="78"/>
       <c r="O327" s="33"/>
     </row>
     <row r="328" spans="1:15" ht="15.75" customHeight="1">
@@ -7227,7 +7223,7 @@
       <c r="B328" s="33"/>
       <c r="C328" s="28"/>
       <c r="D328" s="28"/>
-      <c r="E328" s="79"/>
+      <c r="E328" s="78"/>
       <c r="O328" s="33"/>
     </row>
     <row r="329" spans="1:15" ht="15.75" customHeight="1">
@@ -7235,7 +7231,7 @@
       <c r="B329" s="33"/>
       <c r="C329" s="28"/>
       <c r="D329" s="28"/>
-      <c r="E329" s="79"/>
+      <c r="E329" s="78"/>
       <c r="O329" s="33"/>
     </row>
     <row r="330" spans="1:15" ht="15.75" customHeight="1">
@@ -7243,7 +7239,7 @@
       <c r="B330" s="33"/>
       <c r="C330" s="28"/>
       <c r="D330" s="28"/>
-      <c r="E330" s="79"/>
+      <c r="E330" s="78"/>
       <c r="O330" s="33"/>
     </row>
     <row r="331" spans="1:15" ht="15.75" customHeight="1">
@@ -7251,7 +7247,7 @@
       <c r="B331" s="33"/>
       <c r="C331" s="28"/>
       <c r="D331" s="28"/>
-      <c r="E331" s="79"/>
+      <c r="E331" s="78"/>
       <c r="O331" s="33"/>
     </row>
     <row r="332" spans="1:15" ht="15.75" customHeight="1">
@@ -7259,7 +7255,7 @@
       <c r="B332" s="33"/>
       <c r="C332" s="28"/>
       <c r="D332" s="28"/>
-      <c r="E332" s="79"/>
+      <c r="E332" s="78"/>
       <c r="O332" s="33"/>
     </row>
     <row r="333" spans="1:15" ht="15.75" customHeight="1">
@@ -7267,7 +7263,7 @@
       <c r="B333" s="33"/>
       <c r="C333" s="28"/>
       <c r="D333" s="28"/>
-      <c r="E333" s="79"/>
+      <c r="E333" s="78"/>
       <c r="O333" s="33"/>
     </row>
     <row r="334" spans="1:15" ht="15.75" customHeight="1">
@@ -7275,7 +7271,7 @@
       <c r="B334" s="33"/>
       <c r="C334" s="28"/>
       <c r="D334" s="28"/>
-      <c r="E334" s="79"/>
+      <c r="E334" s="78"/>
       <c r="O334" s="33"/>
     </row>
     <row r="335" spans="1:15" ht="15.75" customHeight="1">
@@ -7283,7 +7279,7 @@
       <c r="B335" s="33"/>
       <c r="C335" s="28"/>
       <c r="D335" s="28"/>
-      <c r="E335" s="79"/>
+      <c r="E335" s="78"/>
       <c r="O335" s="33"/>
     </row>
     <row r="336" spans="1:15" ht="15.75" customHeight="1">
@@ -7291,7 +7287,7 @@
       <c r="B336" s="33"/>
       <c r="C336" s="28"/>
       <c r="D336" s="28"/>
-      <c r="E336" s="79"/>
+      <c r="E336" s="78"/>
       <c r="O336" s="33"/>
     </row>
     <row r="337" spans="1:15" ht="15.75" customHeight="1">
@@ -7299,7 +7295,7 @@
       <c r="B337" s="33"/>
       <c r="C337" s="28"/>
       <c r="D337" s="28"/>
-      <c r="E337" s="79"/>
+      <c r="E337" s="78"/>
       <c r="O337" s="33"/>
     </row>
     <row r="338" spans="1:15" ht="15.75" customHeight="1">
@@ -7307,7 +7303,7 @@
       <c r="B338" s="33"/>
       <c r="C338" s="28"/>
       <c r="D338" s="28"/>
-      <c r="E338" s="79"/>
+      <c r="E338" s="78"/>
       <c r="O338" s="33"/>
     </row>
     <row r="339" spans="1:15" ht="15.75" customHeight="1">
@@ -7315,7 +7311,7 @@
       <c r="B339" s="33"/>
       <c r="C339" s="28"/>
       <c r="D339" s="28"/>
-      <c r="E339" s="79"/>
+      <c r="E339" s="78"/>
       <c r="O339" s="33"/>
     </row>
     <row r="340" spans="1:15" ht="15.75" customHeight="1">
@@ -7323,7 +7319,7 @@
       <c r="B340" s="33"/>
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
-      <c r="E340" s="79"/>
+      <c r="E340" s="78"/>
       <c r="O340" s="33"/>
     </row>
     <row r="341" spans="1:15" ht="15.75" customHeight="1">
@@ -7331,7 +7327,7 @@
       <c r="B341" s="33"/>
       <c r="C341" s="28"/>
       <c r="D341" s="28"/>
-      <c r="E341" s="79"/>
+      <c r="E341" s="78"/>
       <c r="O341" s="33"/>
     </row>
     <row r="342" spans="1:15" ht="15.75" customHeight="1">
@@ -7339,7 +7335,7 @@
       <c r="B342" s="33"/>
       <c r="C342" s="28"/>
       <c r="D342" s="28"/>
-      <c r="E342" s="79"/>
+      <c r="E342" s="78"/>
       <c r="O342" s="33"/>
     </row>
     <row r="343" spans="1:15" ht="15.75" customHeight="1">
@@ -7347,7 +7343,7 @@
       <c r="B343" s="33"/>
       <c r="C343" s="28"/>
       <c r="D343" s="28"/>
-      <c r="E343" s="79"/>
+      <c r="E343" s="78"/>
       <c r="O343" s="33"/>
     </row>
     <row r="344" spans="1:15" ht="15.75" customHeight="1">
@@ -7355,7 +7351,7 @@
       <c r="B344" s="33"/>
       <c r="C344" s="28"/>
       <c r="D344" s="28"/>
-      <c r="E344" s="79"/>
+      <c r="E344" s="78"/>
       <c r="O344" s="33"/>
     </row>
     <row r="345" spans="1:15" ht="15.75" customHeight="1">
@@ -7363,7 +7359,7 @@
       <c r="B345" s="33"/>
       <c r="C345" s="28"/>
       <c r="D345" s="28"/>
-      <c r="E345" s="79"/>
+      <c r="E345" s="78"/>
       <c r="O345" s="33"/>
     </row>
     <row r="346" spans="1:15" ht="15.75" customHeight="1">
@@ -7371,7 +7367,7 @@
       <c r="B346" s="33"/>
       <c r="C346" s="28"/>
       <c r="D346" s="28"/>
-      <c r="E346" s="79"/>
+      <c r="E346" s="78"/>
       <c r="O346" s="33"/>
     </row>
     <row r="347" spans="1:15" ht="15.75" customHeight="1">
@@ -7379,7 +7375,7 @@
       <c r="B347" s="33"/>
       <c r="C347" s="28"/>
       <c r="D347" s="28"/>
-      <c r="E347" s="79"/>
+      <c r="E347" s="78"/>
       <c r="O347" s="33"/>
     </row>
     <row r="348" spans="1:15" ht="15.75" customHeight="1">
@@ -7387,7 +7383,7 @@
       <c r="B348" s="33"/>
       <c r="C348" s="28"/>
       <c r="D348" s="28"/>
-      <c r="E348" s="79"/>
+      <c r="E348" s="78"/>
       <c r="O348" s="33"/>
     </row>
     <row r="349" spans="1:15" ht="15.75" customHeight="1">
@@ -7395,7 +7391,7 @@
       <c r="B349" s="33"/>
       <c r="C349" s="28"/>
       <c r="D349" s="28"/>
-      <c r="E349" s="79"/>
+      <c r="E349" s="78"/>
       <c r="O349" s="33"/>
     </row>
     <row r="350" spans="1:15" ht="15.75" customHeight="1">
@@ -7403,7 +7399,7 @@
       <c r="B350" s="33"/>
       <c r="C350" s="28"/>
       <c r="D350" s="28"/>
-      <c r="E350" s="79"/>
+      <c r="E350" s="78"/>
       <c r="O350" s="33"/>
     </row>
     <row r="351" spans="1:15" ht="15.75" customHeight="1">
@@ -7411,7 +7407,7 @@
       <c r="B351" s="33"/>
       <c r="C351" s="28"/>
       <c r="D351" s="28"/>
-      <c r="E351" s="79"/>
+      <c r="E351" s="78"/>
       <c r="O351" s="33"/>
     </row>
     <row r="352" spans="1:15" ht="15.75" customHeight="1">
@@ -7419,7 +7415,7 @@
       <c r="B352" s="33"/>
       <c r="C352" s="28"/>
       <c r="D352" s="28"/>
-      <c r="E352" s="79"/>
+      <c r="E352" s="78"/>
       <c r="O352" s="33"/>
     </row>
     <row r="353" spans="1:15" ht="15.75" customHeight="1">
@@ -7427,7 +7423,7 @@
       <c r="B353" s="33"/>
       <c r="C353" s="28"/>
       <c r="D353" s="28"/>
-      <c r="E353" s="79"/>
+      <c r="E353" s="78"/>
       <c r="O353" s="33"/>
     </row>
     <row r="354" spans="1:15" ht="15.75" customHeight="1">
@@ -7435,7 +7431,7 @@
       <c r="B354" s="33"/>
       <c r="C354" s="28"/>
       <c r="D354" s="28"/>
-      <c r="E354" s="79"/>
+      <c r="E354" s="78"/>
       <c r="O354" s="33"/>
     </row>
     <row r="355" spans="1:15" ht="15.75" customHeight="1">
@@ -7443,7 +7439,7 @@
       <c r="B355" s="33"/>
       <c r="C355" s="28"/>
       <c r="D355" s="28"/>
-      <c r="E355" s="79"/>
+      <c r="E355" s="78"/>
       <c r="O355" s="33"/>
     </row>
     <row r="356" spans="1:15" ht="15.75" customHeight="1">
@@ -7451,7 +7447,7 @@
       <c r="B356" s="33"/>
       <c r="C356" s="28"/>
       <c r="D356" s="28"/>
-      <c r="E356" s="79"/>
+      <c r="E356" s="78"/>
       <c r="O356" s="33"/>
     </row>
     <row r="357" spans="1:15" ht="15.75" customHeight="1">
@@ -7459,7 +7455,7 @@
       <c r="B357" s="33"/>
       <c r="C357" s="28"/>
       <c r="D357" s="28"/>
-      <c r="E357" s="79"/>
+      <c r="E357" s="78"/>
       <c r="O357" s="33"/>
     </row>
     <row r="358" spans="1:15" ht="15.75" customHeight="1">
@@ -7467,7 +7463,7 @@
       <c r="B358" s="33"/>
       <c r="C358" s="28"/>
       <c r="D358" s="28"/>
-      <c r="E358" s="79"/>
+      <c r="E358" s="78"/>
       <c r="O358" s="33"/>
     </row>
     <row r="359" spans="1:15" ht="15.75" customHeight="1">
@@ -7475,7 +7471,7 @@
       <c r="B359" s="33"/>
       <c r="C359" s="28"/>
       <c r="D359" s="28"/>
-      <c r="E359" s="79"/>
+      <c r="E359" s="78"/>
       <c r="O359" s="33"/>
     </row>
     <row r="360" spans="1:15" ht="15.75" customHeight="1">
@@ -7483,7 +7479,7 @@
       <c r="B360" s="33"/>
       <c r="C360" s="28"/>
       <c r="D360" s="28"/>
-      <c r="E360" s="79"/>
+      <c r="E360" s="78"/>
       <c r="O360" s="33"/>
     </row>
     <row r="361" spans="1:15" ht="15.75" customHeight="1">
@@ -7491,7 +7487,7 @@
       <c r="B361" s="33"/>
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
-      <c r="E361" s="79"/>
+      <c r="E361" s="78"/>
       <c r="O361" s="33"/>
     </row>
     <row r="362" spans="1:15" ht="15.75" customHeight="1">
@@ -7499,7 +7495,7 @@
       <c r="B362" s="33"/>
       <c r="C362" s="28"/>
       <c r="D362" s="28"/>
-      <c r="E362" s="79"/>
+      <c r="E362" s="78"/>
       <c r="O362" s="33"/>
     </row>
     <row r="363" spans="1:15" ht="15.75" customHeight="1">
@@ -7507,7 +7503,7 @@
       <c r="B363" s="33"/>
       <c r="C363" s="28"/>
       <c r="D363" s="28"/>
-      <c r="E363" s="79"/>
+      <c r="E363" s="78"/>
       <c r="O363" s="33"/>
     </row>
     <row r="364" spans="1:15" ht="15.75" customHeight="1">
@@ -7515,7 +7511,7 @@
       <c r="B364" s="33"/>
       <c r="C364" s="28"/>
       <c r="D364" s="28"/>
-      <c r="E364" s="79"/>
+      <c r="E364" s="78"/>
       <c r="O364" s="33"/>
     </row>
     <row r="365" spans="1:15" ht="15.75" customHeight="1">
@@ -7523,7 +7519,7 @@
       <c r="B365" s="33"/>
       <c r="C365" s="28"/>
       <c r="D365" s="28"/>
-      <c r="E365" s="79"/>
+      <c r="E365" s="78"/>
       <c r="O365" s="33"/>
     </row>
     <row r="366" spans="1:15" ht="15.75" customHeight="1">
@@ -7531,7 +7527,7 @@
       <c r="B366" s="33"/>
       <c r="C366" s="28"/>
       <c r="D366" s="28"/>
-      <c r="E366" s="79"/>
+      <c r="E366" s="78"/>
       <c r="O366" s="33"/>
     </row>
     <row r="367" spans="1:15" ht="15.75" customHeight="1">
@@ -7539,7 +7535,7 @@
       <c r="B367" s="33"/>
       <c r="C367" s="28"/>
       <c r="D367" s="28"/>
-      <c r="E367" s="79"/>
+      <c r="E367" s="78"/>
       <c r="O367" s="33"/>
     </row>
     <row r="368" spans="1:15" ht="15.75" customHeight="1">
@@ -7547,7 +7543,7 @@
       <c r="B368" s="33"/>
       <c r="C368" s="28"/>
       <c r="D368" s="28"/>
-      <c r="E368" s="79"/>
+      <c r="E368" s="78"/>
       <c r="O368" s="33"/>
     </row>
     <row r="369" spans="1:15" ht="15.75" customHeight="1">
@@ -7555,7 +7551,7 @@
       <c r="B369" s="33"/>
       <c r="C369" s="28"/>
       <c r="D369" s="28"/>
-      <c r="E369" s="79"/>
+      <c r="E369" s="78"/>
       <c r="O369" s="33"/>
     </row>
     <row r="370" spans="1:15" ht="15.75" customHeight="1">
@@ -7563,7 +7559,7 @@
       <c r="B370" s="33"/>
       <c r="C370" s="28"/>
       <c r="D370" s="28"/>
-      <c r="E370" s="79"/>
+      <c r="E370" s="78"/>
       <c r="O370" s="33"/>
     </row>
     <row r="371" spans="1:15" ht="15.75" customHeight="1">
@@ -7571,7 +7567,7 @@
       <c r="B371" s="33"/>
       <c r="C371" s="28"/>
       <c r="D371" s="28"/>
-      <c r="E371" s="79"/>
+      <c r="E371" s="78"/>
       <c r="O371" s="33"/>
     </row>
     <row r="372" spans="1:15" ht="15.75" customHeight="1">
@@ -7579,7 +7575,7 @@
       <c r="B372" s="33"/>
       <c r="C372" s="28"/>
       <c r="D372" s="28"/>
-      <c r="E372" s="79"/>
+      <c r="E372" s="78"/>
       <c r="O372" s="33"/>
     </row>
     <row r="373" spans="1:15" ht="15.75" customHeight="1">
@@ -7587,7 +7583,7 @@
       <c r="B373" s="33"/>
       <c r="C373" s="28"/>
       <c r="D373" s="28"/>
-      <c r="E373" s="79"/>
+      <c r="E373" s="78"/>
       <c r="O373" s="33"/>
     </row>
     <row r="374" spans="1:15" ht="15.75" customHeight="1">
@@ -7595,7 +7591,7 @@
       <c r="B374" s="33"/>
       <c r="C374" s="28"/>
       <c r="D374" s="28"/>
-      <c r="E374" s="79"/>
+      <c r="E374" s="78"/>
       <c r="O374" s="33"/>
     </row>
     <row r="375" spans="1:15" ht="15.75" customHeight="1">
@@ -7603,7 +7599,7 @@
       <c r="B375" s="33"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
-      <c r="E375" s="79"/>
+      <c r="E375" s="78"/>
       <c r="O375" s="33"/>
     </row>
     <row r="376" spans="1:15" ht="15.75" customHeight="1">
@@ -7611,7 +7607,7 @@
       <c r="B376" s="33"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
-      <c r="E376" s="79"/>
+      <c r="E376" s="78"/>
       <c r="O376" s="33"/>
     </row>
     <row r="377" spans="1:15" ht="15.75" customHeight="1">
@@ -7619,7 +7615,7 @@
       <c r="B377" s="33"/>
       <c r="C377" s="28"/>
       <c r="D377" s="28"/>
-      <c r="E377" s="79"/>
+      <c r="E377" s="78"/>
       <c r="O377" s="33"/>
     </row>
     <row r="378" spans="1:15" ht="15.75" customHeight="1">
@@ -7627,7 +7623,7 @@
       <c r="B378" s="33"/>
       <c r="C378" s="28"/>
       <c r="D378" s="28"/>
-      <c r="E378" s="79"/>
+      <c r="E378" s="78"/>
       <c r="O378" s="33"/>
     </row>
     <row r="379" spans="1:15" ht="15.75" customHeight="1">
@@ -7635,7 +7631,7 @@
       <c r="B379" s="33"/>
       <c r="C379" s="28"/>
       <c r="D379" s="28"/>
-      <c r="E379" s="79"/>
+      <c r="E379" s="78"/>
       <c r="O379" s="33"/>
     </row>
     <row r="380" spans="1:15" ht="15.75" customHeight="1">
@@ -7643,7 +7639,7 @@
       <c r="B380" s="33"/>
       <c r="C380" s="28"/>
       <c r="D380" s="28"/>
-      <c r="E380" s="79"/>
+      <c r="E380" s="78"/>
       <c r="O380" s="33"/>
     </row>
     <row r="381" spans="1:15" ht="15.75" customHeight="1">
@@ -7651,7 +7647,7 @@
       <c r="B381" s="33"/>
       <c r="C381" s="28"/>
       <c r="D381" s="28"/>
-      <c r="E381" s="79"/>
+      <c r="E381" s="78"/>
       <c r="O381" s="33"/>
     </row>
     <row r="382" spans="1:15" ht="15.75" customHeight="1">
@@ -7659,7 +7655,7 @@
       <c r="B382" s="33"/>
       <c r="C382" s="28"/>
       <c r="D382" s="28"/>
-      <c r="E382" s="79"/>
+      <c r="E382" s="78"/>
       <c r="O382" s="33"/>
     </row>
     <row r="383" spans="1:15" ht="15.75" customHeight="1">
@@ -7667,7 +7663,7 @@
       <c r="B383" s="33"/>
       <c r="C383" s="28"/>
       <c r="D383" s="28"/>
-      <c r="E383" s="79"/>
+      <c r="E383" s="78"/>
       <c r="O383" s="33"/>
     </row>
     <row r="384" spans="1:15" ht="15.75" customHeight="1">
@@ -7675,7 +7671,7 @@
       <c r="B384" s="33"/>
       <c r="C384" s="28"/>
       <c r="D384" s="28"/>
-      <c r="E384" s="79"/>
+      <c r="E384" s="78"/>
       <c r="O384" s="33"/>
     </row>
     <row r="385" spans="1:15" ht="15.75" customHeight="1">
@@ -7683,7 +7679,7 @@
       <c r="B385" s="33"/>
       <c r="C385" s="28"/>
       <c r="D385" s="28"/>
-      <c r="E385" s="79"/>
+      <c r="E385" s="78"/>
       <c r="O385" s="33"/>
     </row>
     <row r="386" spans="1:15" ht="15.75" customHeight="1">
@@ -7691,7 +7687,7 @@
       <c r="B386" s="33"/>
       <c r="C386" s="28"/>
       <c r="D386" s="28"/>
-      <c r="E386" s="79"/>
+      <c r="E386" s="78"/>
       <c r="O386" s="33"/>
     </row>
     <row r="387" spans="1:15" ht="15.75" customHeight="1">
@@ -7699,7 +7695,7 @@
       <c r="B387" s="33"/>
       <c r="C387" s="28"/>
       <c r="D387" s="28"/>
-      <c r="E387" s="79"/>
+      <c r="E387" s="78"/>
       <c r="O387" s="33"/>
     </row>
     <row r="388" spans="1:15" ht="15.75" customHeight="1">
@@ -7707,7 +7703,7 @@
       <c r="B388" s="33"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
-      <c r="E388" s="79"/>
+      <c r="E388" s="78"/>
       <c r="O388" s="33"/>
     </row>
     <row r="389" spans="1:15" ht="15.75" customHeight="1">
@@ -7715,7 +7711,7 @@
       <c r="B389" s="33"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
-      <c r="E389" s="79"/>
+      <c r="E389" s="78"/>
       <c r="O389" s="33"/>
     </row>
     <row r="390" spans="1:15" ht="15.75" customHeight="1">
@@ -7723,7 +7719,7 @@
       <c r="B390" s="33"/>
       <c r="C390" s="28"/>
       <c r="D390" s="28"/>
-      <c r="E390" s="79"/>
+      <c r="E390" s="78"/>
       <c r="O390" s="33"/>
     </row>
     <row r="391" spans="1:15" ht="15.75" customHeight="1">
@@ -7731,7 +7727,7 @@
       <c r="B391" s="33"/>
       <c r="C391" s="28"/>
       <c r="D391" s="28"/>
-      <c r="E391" s="79"/>
+      <c r="E391" s="78"/>
       <c r="O391" s="33"/>
     </row>
     <row r="392" spans="1:15" ht="15.75" customHeight="1">
@@ -7739,7 +7735,7 @@
       <c r="B392" s="33"/>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
-      <c r="E392" s="79"/>
+      <c r="E392" s="78"/>
       <c r="O392" s="33"/>
     </row>
     <row r="393" spans="1:15" ht="15.75" customHeight="1">
@@ -7747,7 +7743,7 @@
       <c r="B393" s="33"/>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
-      <c r="E393" s="79"/>
+      <c r="E393" s="78"/>
       <c r="O393" s="33"/>
     </row>
     <row r="394" spans="1:15" ht="15.75" customHeight="1">
@@ -7755,7 +7751,7 @@
       <c r="B394" s="33"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
-      <c r="E394" s="79"/>
+      <c r="E394" s="78"/>
       <c r="O394" s="33"/>
     </row>
     <row r="395" spans="1:15" ht="15.75" customHeight="1">
@@ -7763,7 +7759,7 @@
       <c r="B395" s="33"/>
       <c r="C395" s="28"/>
       <c r="D395" s="28"/>
-      <c r="E395" s="79"/>
+      <c r="E395" s="78"/>
       <c r="O395" s="33"/>
     </row>
     <row r="396" spans="1:15" ht="15.75" customHeight="1">
@@ -7771,7 +7767,7 @@
       <c r="B396" s="33"/>
       <c r="C396" s="28"/>
       <c r="D396" s="28"/>
-      <c r="E396" s="79"/>
+      <c r="E396" s="78"/>
       <c r="O396" s="33"/>
     </row>
     <row r="397" spans="1:15" ht="15.75" customHeight="1">
@@ -7779,7 +7775,7 @@
       <c r="B397" s="33"/>
       <c r="C397" s="28"/>
       <c r="D397" s="28"/>
-      <c r="E397" s="79"/>
+      <c r="E397" s="78"/>
       <c r="O397" s="33"/>
     </row>
     <row r="398" spans="1:15" ht="15.75" customHeight="1">
@@ -7787,7 +7783,7 @@
       <c r="B398" s="33"/>
       <c r="C398" s="28"/>
       <c r="D398" s="28"/>
-      <c r="E398" s="79"/>
+      <c r="E398" s="78"/>
       <c r="O398" s="33"/>
     </row>
     <row r="399" spans="1:15" ht="15.75" customHeight="1">
@@ -7795,7 +7791,7 @@
       <c r="B399" s="33"/>
       <c r="C399" s="28"/>
       <c r="D399" s="28"/>
-      <c r="E399" s="79"/>
+      <c r="E399" s="78"/>
       <c r="O399" s="33"/>
     </row>
     <row r="400" spans="1:15" ht="15.75" customHeight="1">
@@ -7803,7 +7799,7 @@
       <c r="B400" s="33"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
-      <c r="E400" s="79"/>
+      <c r="E400" s="78"/>
       <c r="O400" s="33"/>
     </row>
     <row r="401" spans="1:15" ht="15.75" customHeight="1">
@@ -7811,7 +7807,7 @@
       <c r="B401" s="33"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
-      <c r="E401" s="79"/>
+      <c r="E401" s="78"/>
       <c r="O401" s="33"/>
     </row>
     <row r="402" spans="1:15" ht="15.75" customHeight="1">
@@ -7819,7 +7815,7 @@
       <c r="B402" s="33"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
-      <c r="E402" s="79"/>
+      <c r="E402" s="78"/>
       <c r="O402" s="33"/>
     </row>
     <row r="403" spans="1:15" ht="15.75" customHeight="1">
@@ -7827,7 +7823,7 @@
       <c r="B403" s="33"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
-      <c r="E403" s="79"/>
+      <c r="E403" s="78"/>
       <c r="O403" s="33"/>
     </row>
     <row r="404" spans="1:15" ht="15.75" customHeight="1">
@@ -7835,7 +7831,7 @@
       <c r="B404" s="33"/>
       <c r="C404" s="28"/>
       <c r="D404" s="28"/>
-      <c r="E404" s="79"/>
+      <c r="E404" s="78"/>
       <c r="O404" s="33"/>
     </row>
     <row r="405" spans="1:15" ht="15.75" customHeight="1">
@@ -7843,7 +7839,7 @@
       <c r="B405" s="33"/>
       <c r="C405" s="28"/>
       <c r="D405" s="28"/>
-      <c r="E405" s="79"/>
+      <c r="E405" s="78"/>
       <c r="O405" s="33"/>
     </row>
     <row r="406" spans="1:15" ht="15.75" customHeight="1">
@@ -7851,7 +7847,7 @@
       <c r="B406" s="33"/>
       <c r="C406" s="28"/>
       <c r="D406" s="28"/>
-      <c r="E406" s="79"/>
+      <c r="E406" s="78"/>
       <c r="O406" s="33"/>
     </row>
     <row r="407" spans="1:15" ht="15.75" customHeight="1">
@@ -7859,7 +7855,7 @@
       <c r="B407" s="33"/>
       <c r="C407" s="28"/>
       <c r="D407" s="28"/>
-      <c r="E407" s="79"/>
+      <c r="E407" s="78"/>
       <c r="O407" s="33"/>
     </row>
     <row r="408" spans="1:15" ht="15.75" customHeight="1">
@@ -7867,7 +7863,7 @@
       <c r="B408" s="33"/>
       <c r="C408" s="28"/>
       <c r="D408" s="28"/>
-      <c r="E408" s="79"/>
+      <c r="E408" s="78"/>
       <c r="O408" s="33"/>
     </row>
     <row r="409" spans="1:15" ht="15.75" customHeight="1">
@@ -7875,7 +7871,7 @@
       <c r="B409" s="33"/>
       <c r="C409" s="28"/>
       <c r="D409" s="28"/>
-      <c r="E409" s="79"/>
+      <c r="E409" s="78"/>
       <c r="O409" s="33"/>
     </row>
     <row r="410" spans="1:15" ht="15.75" customHeight="1">
@@ -7883,7 +7879,7 @@
       <c r="B410" s="33"/>
       <c r="C410" s="28"/>
       <c r="D410" s="28"/>
-      <c r="E410" s="79"/>
+      <c r="E410" s="78"/>
       <c r="O410" s="33"/>
     </row>
     <row r="411" spans="1:15" ht="15.75" customHeight="1">
@@ -7891,7 +7887,7 @@
       <c r="B411" s="33"/>
       <c r="C411" s="28"/>
       <c r="D411" s="28"/>
-      <c r="E411" s="79"/>
+      <c r="E411" s="78"/>
       <c r="O411" s="33"/>
     </row>
     <row r="412" spans="1:15" ht="15.75" customHeight="1">
@@ -7899,7 +7895,7 @@
       <c r="B412" s="33"/>
       <c r="C412" s="28"/>
       <c r="D412" s="28"/>
-      <c r="E412" s="79"/>
+      <c r="E412" s="78"/>
       <c r="O412" s="33"/>
     </row>
     <row r="413" spans="1:15" ht="15.75" customHeight="1">
@@ -7907,7 +7903,7 @@
       <c r="B413" s="33"/>
       <c r="C413" s="28"/>
       <c r="D413" s="28"/>
-      <c r="E413" s="79"/>
+      <c r="E413" s="78"/>
       <c r="O413" s="33"/>
     </row>
     <row r="414" spans="1:15" ht="15.75" customHeight="1">
@@ -7915,7 +7911,7 @@
       <c r="B414" s="33"/>
       <c r="C414" s="28"/>
       <c r="D414" s="28"/>
-      <c r="E414" s="79"/>
+      <c r="E414" s="78"/>
       <c r="O414" s="33"/>
     </row>
     <row r="415" spans="1:15" ht="15.75" customHeight="1">
@@ -7923,7 +7919,7 @@
       <c r="B415" s="33"/>
       <c r="C415" s="28"/>
       <c r="D415" s="28"/>
-      <c r="E415" s="79"/>
+      <c r="E415" s="78"/>
       <c r="O415" s="33"/>
     </row>
     <row r="416" spans="1:15" ht="15.75" customHeight="1">
@@ -7931,7 +7927,7 @@
       <c r="B416" s="33"/>
       <c r="C416" s="28"/>
       <c r="D416" s="28"/>
-      <c r="E416" s="79"/>
+      <c r="E416" s="78"/>
       <c r="O416" s="33"/>
     </row>
     <row r="417" spans="1:15" ht="15.75" customHeight="1">
@@ -7939,7 +7935,7 @@
       <c r="B417" s="33"/>
       <c r="C417" s="28"/>
       <c r="D417" s="28"/>
-      <c r="E417" s="79"/>
+      <c r="E417" s="78"/>
       <c r="O417" s="33"/>
     </row>
     <row r="418" spans="1:15" ht="15.75" customHeight="1">
@@ -7947,7 +7943,7 @@
       <c r="B418" s="33"/>
       <c r="C418" s="28"/>
       <c r="D418" s="28"/>
-      <c r="E418" s="79"/>
+      <c r="E418" s="78"/>
       <c r="O418" s="33"/>
     </row>
     <row r="419" spans="1:15" ht="15.75" customHeight="1">
@@ -7955,7 +7951,7 @@
       <c r="B419" s="33"/>
       <c r="C419" s="28"/>
       <c r="D419" s="28"/>
-      <c r="E419" s="79"/>
+      <c r="E419" s="78"/>
       <c r="O419" s="33"/>
     </row>
     <row r="420" spans="1:15" ht="15.75" customHeight="1">
@@ -7963,7 +7959,7 @@
       <c r="B420" s="33"/>
       <c r="C420" s="28"/>
       <c r="D420" s="28"/>
-      <c r="E420" s="79"/>
+      <c r="E420" s="78"/>
       <c r="O420" s="33"/>
     </row>
     <row r="421" spans="1:15" ht="15.75" customHeight="1">
@@ -7971,7 +7967,7 @@
       <c r="B421" s="33"/>
       <c r="C421" s="28"/>
       <c r="D421" s="28"/>
-      <c r="E421" s="79"/>
+      <c r="E421" s="78"/>
       <c r="O421" s="33"/>
     </row>
     <row r="422" spans="1:15" ht="15.75" customHeight="1">
@@ -7979,7 +7975,7 @@
       <c r="B422" s="33"/>
       <c r="C422" s="28"/>
       <c r="D422" s="28"/>
-      <c r="E422" s="79"/>
+      <c r="E422" s="78"/>
       <c r="O422" s="33"/>
     </row>
     <row r="423" spans="1:15" ht="15.75" customHeight="1">
@@ -7987,7 +7983,7 @@
       <c r="B423" s="33"/>
       <c r="C423" s="28"/>
       <c r="D423" s="28"/>
-      <c r="E423" s="79"/>
+      <c r="E423" s="78"/>
       <c r="O423" s="33"/>
     </row>
     <row r="424" spans="1:15" ht="15.75" customHeight="1">
@@ -7995,7 +7991,7 @@
       <c r="B424" s="33"/>
       <c r="C424" s="28"/>
       <c r="D424" s="28"/>
-      <c r="E424" s="79"/>
+      <c r="E424" s="78"/>
       <c r="O424" s="33"/>
     </row>
     <row r="425" spans="1:15" ht="15.75" customHeight="1">
@@ -8003,7 +7999,7 @@
       <c r="B425" s="33"/>
       <c r="C425" s="28"/>
       <c r="D425" s="28"/>
-      <c r="E425" s="79"/>
+      <c r="E425" s="78"/>
       <c r="O425" s="33"/>
     </row>
     <row r="426" spans="1:15" ht="15.75" customHeight="1">
@@ -8011,7 +8007,7 @@
       <c r="B426" s="33"/>
       <c r="C426" s="28"/>
       <c r="D426" s="28"/>
-      <c r="E426" s="79"/>
+      <c r="E426" s="78"/>
       <c r="O426" s="33"/>
     </row>
     <row r="427" spans="1:15" ht="15.75" customHeight="1">
@@ -8019,7 +8015,7 @@
       <c r="B427" s="33"/>
       <c r="C427" s="28"/>
       <c r="D427" s="28"/>
-      <c r="E427" s="79"/>
+      <c r="E427" s="78"/>
       <c r="O427" s="33"/>
     </row>
     <row r="428" spans="1:15" ht="15.75" customHeight="1">
@@ -8027,7 +8023,7 @@
       <c r="B428" s="33"/>
       <c r="C428" s="28"/>
       <c r="D428" s="28"/>
-      <c r="E428" s="79"/>
+      <c r="E428" s="78"/>
       <c r="O428" s="33"/>
     </row>
     <row r="429" spans="1:15" ht="15.75" customHeight="1">
@@ -8035,7 +8031,7 @@
       <c r="B429" s="33"/>
       <c r="C429" s="28"/>
       <c r="D429" s="28"/>
-      <c r="E429" s="79"/>
+      <c r="E429" s="78"/>
       <c r="O429" s="33"/>
     </row>
     <row r="430" spans="1:15" ht="15.75" customHeight="1">
@@ -8043,7 +8039,7 @@
       <c r="B430" s="33"/>
       <c r="C430" s="28"/>
       <c r="D430" s="28"/>
-      <c r="E430" s="79"/>
+      <c r="E430" s="78"/>
       <c r="O430" s="33"/>
     </row>
     <row r="431" spans="1:15" ht="15.75" customHeight="1">
@@ -8051,7 +8047,7 @@
       <c r="B431" s="33"/>
       <c r="C431" s="28"/>
       <c r="D431" s="28"/>
-      <c r="E431" s="79"/>
+      <c r="E431" s="78"/>
       <c r="O431" s="33"/>
     </row>
     <row r="432" spans="1:15" ht="15.75" customHeight="1">
@@ -8059,7 +8055,7 @@
       <c r="B432" s="33"/>
       <c r="C432" s="28"/>
       <c r="D432" s="28"/>
-      <c r="E432" s="79"/>
+      <c r="E432" s="78"/>
       <c r="O432" s="33"/>
     </row>
     <row r="433" spans="1:15" ht="15.75" customHeight="1">
@@ -8067,7 +8063,7 @@
       <c r="B433" s="33"/>
       <c r="C433" s="28"/>
       <c r="D433" s="28"/>
-      <c r="E433" s="79"/>
+      <c r="E433" s="78"/>
       <c r="O433" s="33"/>
     </row>
     <row r="434" spans="1:15" ht="15.75" customHeight="1">
@@ -8075,7 +8071,7 @@
       <c r="B434" s="33"/>
       <c r="C434" s="28"/>
       <c r="D434" s="28"/>
-      <c r="E434" s="79"/>
+      <c r="E434" s="78"/>
       <c r="O434" s="33"/>
     </row>
     <row r="435" spans="1:15" ht="15.75" customHeight="1">
@@ -8083,7 +8079,7 @@
       <c r="B435" s="33"/>
       <c r="C435" s="28"/>
       <c r="D435" s="28"/>
-      <c r="E435" s="79"/>
+      <c r="E435" s="78"/>
       <c r="O435" s="33"/>
     </row>
     <row r="436" spans="1:15" ht="15.75" customHeight="1">
@@ -8091,7 +8087,7 @@
       <c r="B436" s="33"/>
       <c r="C436" s="28"/>
       <c r="D436" s="28"/>
-      <c r="E436" s="79"/>
+      <c r="E436" s="78"/>
       <c r="O436" s="33"/>
     </row>
     <row r="437" spans="1:15" ht="15.75" customHeight="1">
@@ -8099,7 +8095,7 @@
       <c r="B437" s="33"/>
       <c r="C437" s="28"/>
       <c r="D437" s="28"/>
-      <c r="E437" s="79"/>
+      <c r="E437" s="78"/>
       <c r="O437" s="33"/>
     </row>
     <row r="438" spans="1:15" ht="15.75" customHeight="1">
@@ -8107,7 +8103,7 @@
       <c r="B438" s="33"/>
       <c r="C438" s="28"/>
       <c r="D438" s="28"/>
-      <c r="E438" s="79"/>
+      <c r="E438" s="78"/>
       <c r="O438" s="33"/>
     </row>
     <row r="439" spans="1:15" ht="15.75" customHeight="1">
@@ -8115,7 +8111,7 @@
       <c r="B439" s="33"/>
       <c r="C439" s="28"/>
       <c r="D439" s="28"/>
-      <c r="E439" s="79"/>
+      <c r="E439" s="78"/>
       <c r="O439" s="33"/>
     </row>
     <row r="440" spans="1:15" ht="15.75" customHeight="1">
@@ -8123,7 +8119,7 @@
       <c r="B440" s="33"/>
       <c r="C440" s="28"/>
       <c r="D440" s="28"/>
-      <c r="E440" s="79"/>
+      <c r="E440" s="78"/>
       <c r="O440" s="33"/>
     </row>
     <row r="441" spans="1:15" ht="15.75" customHeight="1">
@@ -8131,7 +8127,7 @@
       <c r="B441" s="33"/>
       <c r="C441" s="28"/>
       <c r="D441" s="28"/>
-      <c r="E441" s="79"/>
+      <c r="E441" s="78"/>
       <c r="O441" s="33"/>
     </row>
     <row r="442" spans="1:15" ht="15.75" customHeight="1">
@@ -8139,7 +8135,7 @@
       <c r="B442" s="33"/>
       <c r="C442" s="28"/>
       <c r="D442" s="28"/>
-      <c r="E442" s="79"/>
+      <c r="E442" s="78"/>
       <c r="O442" s="33"/>
     </row>
     <row r="443" spans="1:15" ht="15.75" customHeight="1">
@@ -8147,7 +8143,7 @@
       <c r="B443" s="33"/>
       <c r="C443" s="28"/>
       <c r="D443" s="28"/>
-      <c r="E443" s="79"/>
+      <c r="E443" s="78"/>
       <c r="O443" s="33"/>
     </row>
     <row r="444" spans="1:15" ht="15.75" customHeight="1">
@@ -8155,7 +8151,7 @@
       <c r="B444" s="33"/>
       <c r="C444" s="28"/>
       <c r="D444" s="28"/>
-      <c r="E444" s="79"/>
+      <c r="E444" s="78"/>
       <c r="O444" s="33"/>
     </row>
     <row r="445" spans="1:15" ht="15.75" customHeight="1">
@@ -8163,7 +8159,7 @@
       <c r="B445" s="33"/>
       <c r="C445" s="28"/>
       <c r="D445" s="28"/>
-      <c r="E445" s="79"/>
+      <c r="E445" s="78"/>
       <c r="O445" s="33"/>
     </row>
     <row r="446" spans="1:15" ht="15.75" customHeight="1">
@@ -8171,7 +8167,7 @@
       <c r="B446" s="33"/>
       <c r="C446" s="28"/>
       <c r="D446" s="28"/>
-      <c r="E446" s="79"/>
+      <c r="E446" s="78"/>
       <c r="O446" s="33"/>
     </row>
     <row r="447" spans="1:15" ht="15.75" customHeight="1">
@@ -8179,7 +8175,7 @@
       <c r="B447" s="33"/>
       <c r="C447" s="28"/>
       <c r="D447" s="28"/>
-      <c r="E447" s="79"/>
+      <c r="E447" s="78"/>
       <c r="O447" s="33"/>
     </row>
     <row r="448" spans="1:15" ht="15.75" customHeight="1">
@@ -8187,7 +8183,7 @@
       <c r="B448" s="33"/>
       <c r="C448" s="28"/>
       <c r="D448" s="28"/>
-      <c r="E448" s="79"/>
+      <c r="E448" s="78"/>
       <c r="O448" s="33"/>
     </row>
     <row r="449" spans="1:15" ht="15.75" customHeight="1">
@@ -8195,7 +8191,7 @@
       <c r="B449" s="33"/>
       <c r="C449" s="28"/>
       <c r="D449" s="28"/>
-      <c r="E449" s="79"/>
+      <c r="E449" s="78"/>
       <c r="O449" s="33"/>
     </row>
     <row r="450" spans="1:15" ht="15.75" customHeight="1">
@@ -8203,7 +8199,7 @@
       <c r="B450" s="33"/>
       <c r="C450" s="28"/>
       <c r="D450" s="28"/>
-      <c r="E450" s="79"/>
+      <c r="E450" s="78"/>
       <c r="O450" s="33"/>
     </row>
     <row r="451" spans="1:15" ht="15.75" customHeight="1">
@@ -8211,7 +8207,7 @@
       <c r="B451" s="33"/>
       <c r="C451" s="28"/>
       <c r="D451" s="28"/>
-      <c r="E451" s="79"/>
+      <c r="E451" s="78"/>
       <c r="O451" s="33"/>
     </row>
     <row r="452" spans="1:15" ht="15.75" customHeight="1">
@@ -8219,7 +8215,7 @@
       <c r="B452" s="33"/>
       <c r="C452" s="28"/>
       <c r="D452" s="28"/>
-      <c r="E452" s="79"/>
+      <c r="E452" s="78"/>
       <c r="O452" s="33"/>
     </row>
     <row r="453" spans="1:15" ht="15.75" customHeight="1">
@@ -8227,7 +8223,7 @@
       <c r="B453" s="33"/>
       <c r="C453" s="28"/>
       <c r="D453" s="28"/>
-      <c r="E453" s="79"/>
+      <c r="E453" s="78"/>
       <c r="O453" s="33"/>
     </row>
     <row r="454" spans="1:15" ht="15.75" customHeight="1">
@@ -8235,7 +8231,7 @@
       <c r="B454" s="33"/>
       <c r="C454" s="28"/>
       <c r="D454" s="28"/>
-      <c r="E454" s="79"/>
+      <c r="E454" s="78"/>
       <c r="O454" s="33"/>
     </row>
     <row r="455" spans="1:15" ht="15.75" customHeight="1">
@@ -8243,7 +8239,7 @@
       <c r="B455" s="33"/>
       <c r="C455" s="28"/>
       <c r="D455" s="28"/>
-      <c r="E455" s="79"/>
+      <c r="E455" s="78"/>
       <c r="O455" s="33"/>
     </row>
     <row r="456" spans="1:15" ht="15.75" customHeight="1">
@@ -8251,7 +8247,7 @@
       <c r="B456" s="33"/>
       <c r="C456" s="28"/>
       <c r="D456" s="28"/>
-      <c r="E456" s="79"/>
+      <c r="E456" s="78"/>
       <c r="O456" s="33"/>
     </row>
     <row r="457" spans="1:15" ht="15.75" customHeight="1">
@@ -8259,7 +8255,7 @@
       <c r="B457" s="33"/>
       <c r="C457" s="28"/>
       <c r="D457" s="28"/>
-      <c r="E457" s="79"/>
+      <c r="E457" s="78"/>
       <c r="O457" s="33"/>
     </row>
     <row r="458" spans="1:15" ht="15.75" customHeight="1">
@@ -8267,7 +8263,7 @@
       <c r="B458" s="33"/>
       <c r="C458" s="28"/>
       <c r="D458" s="28"/>
-      <c r="E458" s="79"/>
+      <c r="E458" s="78"/>
       <c r="O458" s="33"/>
     </row>
     <row r="459" spans="1:15" ht="15.75" customHeight="1">
@@ -8275,7 +8271,7 @@
       <c r="B459" s="33"/>
       <c r="C459" s="28"/>
       <c r="D459" s="28"/>
-      <c r="E459" s="79"/>
+      <c r="E459" s="78"/>
       <c r="O459" s="33"/>
     </row>
     <row r="460" spans="1:15" ht="15.75" customHeight="1">
@@ -8283,7 +8279,7 @@
       <c r="B460" s="33"/>
       <c r="C460" s="28"/>
       <c r="D460" s="28"/>
-      <c r="E460" s="79"/>
+      <c r="E460" s="78"/>
       <c r="O460" s="33"/>
     </row>
     <row r="461" spans="1:15" ht="15.75" customHeight="1">
@@ -8291,7 +8287,7 @@
       <c r="B461" s="33"/>
       <c r="C461" s="28"/>
       <c r="D461" s="28"/>
-      <c r="E461" s="79"/>
+      <c r="E461" s="78"/>
       <c r="O461" s="33"/>
     </row>
     <row r="462" spans="1:15" ht="15.75" customHeight="1">
@@ -8299,7 +8295,7 @@
       <c r="B462" s="33"/>
       <c r="C462" s="28"/>
       <c r="D462" s="28"/>
-      <c r="E462" s="79"/>
+      <c r="E462" s="78"/>
       <c r="O462" s="33"/>
     </row>
     <row r="463" spans="1:15" ht="15.75" customHeight="1">
@@ -8307,7 +8303,7 @@
       <c r="B463" s="33"/>
       <c r="C463" s="28"/>
       <c r="D463" s="28"/>
-      <c r="E463" s="79"/>
+      <c r="E463" s="78"/>
       <c r="O463" s="33"/>
     </row>
     <row r="464" spans="1:15" ht="15.75" customHeight="1">
@@ -8315,7 +8311,7 @@
       <c r="B464" s="33"/>
       <c r="C464" s="28"/>
       <c r="D464" s="28"/>
-      <c r="E464" s="79"/>
+      <c r="E464" s="78"/>
       <c r="O464" s="33"/>
     </row>
     <row r="465" spans="1:15" ht="15.75" customHeight="1">
@@ -8323,7 +8319,7 @@
       <c r="B465" s="33"/>
       <c r="C465" s="28"/>
       <c r="D465" s="28"/>
-      <c r="E465" s="79"/>
+      <c r="E465" s="78"/>
       <c r="O465" s="33"/>
     </row>
     <row r="466" spans="1:15" ht="15.75" customHeight="1">
@@ -8331,7 +8327,7 @@
       <c r="B466" s="33"/>
       <c r="C466" s="28"/>
       <c r="D466" s="28"/>
-      <c r="E466" s="79"/>
+      <c r="E466" s="78"/>
       <c r="O466" s="33"/>
     </row>
     <row r="467" spans="1:15" ht="15.75" customHeight="1">
@@ -8339,7 +8335,7 @@
       <c r="B467" s="33"/>
       <c r="C467" s="28"/>
       <c r="D467" s="28"/>
-      <c r="E467" s="79"/>
+      <c r="E467" s="78"/>
       <c r="O467" s="33"/>
     </row>
     <row r="468" spans="1:15" ht="15.75" customHeight="1">
@@ -8347,7 +8343,7 @@
       <c r="B468" s="33"/>
       <c r="C468" s="28"/>
       <c r="D468" s="28"/>
-      <c r="E468" s="79"/>
+      <c r="E468" s="78"/>
       <c r="O468" s="33"/>
     </row>
     <row r="469" spans="1:15" ht="15.75" customHeight="1">
@@ -8355,7 +8351,7 @@
       <c r="B469" s="33"/>
       <c r="C469" s="28"/>
       <c r="D469" s="28"/>
-      <c r="E469" s="79"/>
+      <c r="E469" s="78"/>
       <c r="O469" s="33"/>
     </row>
     <row r="470" spans="1:15" ht="15.75" customHeight="1">
@@ -8363,7 +8359,7 @@
       <c r="B470" s="33"/>
       <c r="C470" s="28"/>
       <c r="D470" s="28"/>
-      <c r="E470" s="79"/>
+      <c r="E470" s="78"/>
       <c r="O470" s="33"/>
     </row>
     <row r="471" spans="1:15" ht="15.75" customHeight="1">
@@ -8371,7 +8367,7 @@
       <c r="B471" s="33"/>
       <c r="C471" s="28"/>
       <c r="D471" s="28"/>
-      <c r="E471" s="79"/>
+      <c r="E471" s="78"/>
       <c r="O471" s="33"/>
     </row>
     <row r="472" spans="1:15" ht="15.75" customHeight="1">
@@ -8379,7 +8375,7 @@
       <c r="B472" s="33"/>
       <c r="C472" s="28"/>
       <c r="D472" s="28"/>
-      <c r="E472" s="79"/>
+      <c r="E472" s="78"/>
       <c r="O472" s="33"/>
     </row>
     <row r="473" spans="1:15" ht="15.75" customHeight="1">
@@ -8387,7 +8383,7 @@
       <c r="B473" s="33"/>
       <c r="C473" s="28"/>
       <c r="D473" s="28"/>
-      <c r="E473" s="79"/>
+      <c r="E473" s="78"/>
       <c r="O473" s="33"/>
     </row>
     <row r="474" spans="1:15" ht="15.75" customHeight="1">
@@ -8395,7 +8391,7 @@
       <c r="B474" s="33"/>
       <c r="C474" s="28"/>
       <c r="D474" s="28"/>
-      <c r="E474" s="79"/>
+      <c r="E474" s="78"/>
       <c r="O474" s="33"/>
     </row>
     <row r="475" spans="1:15" ht="15.75" customHeight="1">
@@ -8403,7 +8399,7 @@
       <c r="B475" s="33"/>
       <c r="C475" s="28"/>
       <c r="D475" s="28"/>
-      <c r="E475" s="79"/>
+      <c r="E475" s="78"/>
       <c r="O475" s="33"/>
     </row>
     <row r="476" spans="1:15" ht="15.75" customHeight="1">
@@ -8411,7 +8407,7 @@
       <c r="B476" s="33"/>
       <c r="C476" s="28"/>
       <c r="D476" s="28"/>
-      <c r="E476" s="79"/>
+      <c r="E476" s="78"/>
       <c r="O476" s="33"/>
     </row>
     <row r="477" spans="1:15" ht="15.75" customHeight="1">
@@ -8419,7 +8415,7 @@
       <c r="B477" s="33"/>
       <c r="C477" s="28"/>
       <c r="D477" s="28"/>
-      <c r="E477" s="79"/>
+      <c r="E477" s="78"/>
       <c r="O477" s="33"/>
     </row>
     <row r="478" spans="1:15" ht="15.75" customHeight="1">
@@ -8427,7 +8423,7 @@
       <c r="B478" s="33"/>
       <c r="C478" s="28"/>
       <c r="D478" s="28"/>
-      <c r="E478" s="79"/>
+      <c r="E478" s="78"/>
       <c r="O478" s="33"/>
     </row>
     <row r="479" spans="1:15" ht="15.75" customHeight="1">
@@ -8435,7 +8431,7 @@
       <c r="B479" s="33"/>
       <c r="C479" s="28"/>
       <c r="D479" s="28"/>
-      <c r="E479" s="79"/>
+      <c r="E479" s="78"/>
       <c r="O479" s="33"/>
     </row>
     <row r="480" spans="1:15" ht="15.75" customHeight="1">
@@ -8443,7 +8439,7 @@
       <c r="B480" s="33"/>
       <c r="C480" s="28"/>
       <c r="D480" s="28"/>
-      <c r="E480" s="79"/>
+      <c r="E480" s="78"/>
       <c r="O480" s="33"/>
     </row>
     <row r="481" spans="1:15" ht="15.75" customHeight="1">
@@ -8451,7 +8447,7 @@
       <c r="B481" s="33"/>
       <c r="C481" s="28"/>
       <c r="D481" s="28"/>
-      <c r="E481" s="79"/>
+      <c r="E481" s="78"/>
       <c r="O481" s="33"/>
     </row>
     <row r="482" spans="1:15" ht="15.75" customHeight="1">
@@ -8459,7 +8455,7 @@
       <c r="B482" s="33"/>
       <c r="C482" s="28"/>
       <c r="D482" s="28"/>
-      <c r="E482" s="79"/>
+      <c r="E482" s="78"/>
       <c r="O482" s="33"/>
     </row>
     <row r="483" spans="1:15" ht="15.75" customHeight="1">
@@ -8467,7 +8463,7 @@
       <c r="B483" s="33"/>
       <c r="C483" s="28"/>
       <c r="D483" s="28"/>
-      <c r="E483" s="79"/>
+      <c r="E483" s="78"/>
       <c r="O483" s="33"/>
     </row>
     <row r="484" spans="1:15" ht="15.75" customHeight="1">
@@ -8475,7 +8471,7 @@
       <c r="B484" s="33"/>
       <c r="C484" s="28"/>
       <c r="D484" s="28"/>
-      <c r="E484" s="79"/>
+      <c r="E484" s="78"/>
       <c r="O484" s="33"/>
     </row>
     <row r="485" spans="1:15" ht="15.75" customHeight="1">
@@ -8483,7 +8479,7 @@
       <c r="B485" s="33"/>
       <c r="C485" s="28"/>
       <c r="D485" s="28"/>
-      <c r="E485" s="79"/>
+      <c r="E485" s="78"/>
       <c r="O485" s="33"/>
     </row>
     <row r="486" spans="1:15" ht="15.75" customHeight="1">
@@ -8491,7 +8487,7 @@
       <c r="B486" s="33"/>
       <c r="C486" s="28"/>
       <c r="D486" s="28"/>
-      <c r="E486" s="79"/>
+      <c r="E486" s="78"/>
       <c r="O486" s="33"/>
     </row>
     <row r="487" spans="1:15" ht="15.75" customHeight="1">
@@ -8499,7 +8495,7 @@
       <c r="B487" s="33"/>
       <c r="C487" s="28"/>
       <c r="D487" s="28"/>
-      <c r="E487" s="79"/>
+      <c r="E487" s="78"/>
       <c r="O487" s="33"/>
     </row>
     <row r="488" spans="1:15" ht="15.75" customHeight="1">
@@ -8507,7 +8503,7 @@
       <c r="B488" s="33"/>
       <c r="C488" s="28"/>
       <c r="D488" s="28"/>
-      <c r="E488" s="79"/>
+      <c r="E488" s="78"/>
       <c r="O488" s="33"/>
     </row>
     <row r="489" spans="1:15" ht="15.75" customHeight="1">
@@ -8515,7 +8511,7 @@
       <c r="B489" s="33"/>
       <c r="C489" s="28"/>
       <c r="D489" s="28"/>
-      <c r="E489" s="79"/>
+      <c r="E489" s="78"/>
       <c r="O489" s="33"/>
     </row>
     <row r="490" spans="1:15" ht="15.75" customHeight="1">
@@ -8523,7 +8519,7 @@
       <c r="B490" s="33"/>
       <c r="C490" s="28"/>
       <c r="D490" s="28"/>
-      <c r="E490" s="79"/>
+      <c r="E490" s="78"/>
       <c r="O490" s="33"/>
     </row>
     <row r="491" spans="1:15" ht="15.75" customHeight="1">
@@ -8531,7 +8527,7 @@
       <c r="B491" s="33"/>
       <c r="C491" s="28"/>
       <c r="D491" s="28"/>
-      <c r="E491" s="79"/>
+      <c r="E491" s="78"/>
       <c r="O491" s="33"/>
     </row>
     <row r="492" spans="1:15" ht="15.75" customHeight="1">
@@ -8539,7 +8535,7 @@
       <c r="B492" s="33"/>
       <c r="C492" s="28"/>
       <c r="D492" s="28"/>
-      <c r="E492" s="79"/>
+      <c r="E492" s="78"/>
       <c r="O492" s="33"/>
     </row>
     <row r="493" spans="1:15" ht="15.75" customHeight="1">
@@ -8547,7 +8543,7 @@
       <c r="B493" s="33"/>
       <c r="C493" s="28"/>
       <c r="D493" s="28"/>
-      <c r="E493" s="79"/>
+      <c r="E493" s="78"/>
       <c r="O493" s="33"/>
     </row>
     <row r="494" spans="1:15" ht="15.75" customHeight="1">
@@ -8555,7 +8551,7 @@
       <c r="B494" s="33"/>
       <c r="C494" s="28"/>
       <c r="D494" s="28"/>
-      <c r="E494" s="79"/>
+      <c r="E494" s="78"/>
       <c r="O494" s="33"/>
     </row>
     <row r="495" spans="1:15" ht="15.75" customHeight="1">
@@ -8563,7 +8559,7 @@
       <c r="B495" s="33"/>
       <c r="C495" s="28"/>
       <c r="D495" s="28"/>
-      <c r="E495" s="79"/>
+      <c r="E495" s="78"/>
       <c r="O495" s="33"/>
     </row>
     <row r="496" spans="1:15" ht="15.75" customHeight="1">
@@ -8571,7 +8567,7 @@
       <c r="B496" s="33"/>
       <c r="C496" s="28"/>
       <c r="D496" s="28"/>
-      <c r="E496" s="79"/>
+      <c r="E496" s="78"/>
       <c r="O496" s="33"/>
     </row>
     <row r="497" spans="1:15" ht="15.75" customHeight="1">
@@ -8579,7 +8575,7 @@
       <c r="B497" s="33"/>
       <c r="C497" s="28"/>
       <c r="D497" s="28"/>
-      <c r="E497" s="79"/>
+      <c r="E497" s="78"/>
       <c r="O497" s="33"/>
     </row>
     <row r="498" spans="1:15" ht="15.75" customHeight="1">
@@ -8587,7 +8583,7 @@
       <c r="B498" s="33"/>
       <c r="C498" s="28"/>
       <c r="D498" s="28"/>
-      <c r="E498" s="79"/>
+      <c r="E498" s="78"/>
       <c r="O498" s="33"/>
     </row>
     <row r="499" spans="1:15" ht="15.75" customHeight="1">
@@ -8595,7 +8591,7 @@
       <c r="B499" s="33"/>
       <c r="C499" s="28"/>
       <c r="D499" s="28"/>
-      <c r="E499" s="79"/>
+      <c r="E499" s="78"/>
       <c r="O499" s="33"/>
     </row>
     <row r="500" spans="1:15" ht="15.75" customHeight="1">
@@ -8603,7 +8599,7 @@
       <c r="B500" s="33"/>
       <c r="C500" s="28"/>
       <c r="D500" s="28"/>
-      <c r="E500" s="79"/>
+      <c r="E500" s="78"/>
       <c r="O500" s="33"/>
     </row>
     <row r="501" spans="1:15" ht="15.75" customHeight="1">
@@ -8611,7 +8607,7 @@
       <c r="B501" s="33"/>
       <c r="C501" s="28"/>
       <c r="D501" s="28"/>
-      <c r="E501" s="79"/>
+      <c r="E501" s="78"/>
       <c r="O501" s="33"/>
     </row>
     <row r="502" spans="1:15" ht="15.75" customHeight="1">
@@ -8619,7 +8615,7 @@
       <c r="B502" s="33"/>
       <c r="C502" s="28"/>
       <c r="D502" s="28"/>
-      <c r="E502" s="79"/>
+      <c r="E502" s="78"/>
       <c r="O502" s="33"/>
     </row>
     <row r="503" spans="1:15" ht="15.75" customHeight="1">
@@ -8627,7 +8623,7 @@
       <c r="B503" s="33"/>
       <c r="C503" s="28"/>
       <c r="D503" s="28"/>
-      <c r="E503" s="79"/>
+      <c r="E503" s="78"/>
       <c r="O503" s="33"/>
     </row>
     <row r="504" spans="1:15" ht="15.75" customHeight="1">
@@ -8635,7 +8631,7 @@
       <c r="B504" s="33"/>
       <c r="C504" s="28"/>
       <c r="D504" s="28"/>
-      <c r="E504" s="79"/>
+      <c r="E504" s="78"/>
       <c r="O504" s="33"/>
     </row>
     <row r="505" spans="1:15" ht="15.75" customHeight="1">
@@ -8643,7 +8639,7 @@
       <c r="B505" s="33"/>
       <c r="C505" s="28"/>
       <c r="D505" s="28"/>
-      <c r="E505" s="79"/>
+      <c r="E505" s="78"/>
       <c r="O505" s="33"/>
     </row>
     <row r="506" spans="1:15" ht="15.75" customHeight="1">
@@ -8651,7 +8647,7 @@
       <c r="B506" s="33"/>
       <c r="C506" s="28"/>
       <c r="D506" s="28"/>
-      <c r="E506" s="79"/>
+      <c r="E506" s="78"/>
       <c r="O506" s="33"/>
     </row>
     <row r="507" spans="1:15" ht="15.75" customHeight="1">
@@ -8659,7 +8655,7 @@
       <c r="B507" s="33"/>
       <c r="C507" s="28"/>
       <c r="D507" s="28"/>
-      <c r="E507" s="79"/>
+      <c r="E507" s="78"/>
       <c r="O507" s="33"/>
     </row>
     <row r="508" spans="1:15" ht="15.75" customHeight="1">
@@ -8667,7 +8663,7 @@
       <c r="B508" s="33"/>
       <c r="C508" s="28"/>
       <c r="D508" s="28"/>
-      <c r="E508" s="79"/>
+      <c r="E508" s="78"/>
       <c r="O508" s="33"/>
     </row>
     <row r="509" spans="1:15" ht="15.75" customHeight="1">
@@ -8675,7 +8671,7 @@
       <c r="B509" s="33"/>
       <c r="C509" s="28"/>
       <c r="D509" s="28"/>
-      <c r="E509" s="79"/>
+      <c r="E509" s="78"/>
       <c r="O509" s="33"/>
     </row>
     <row r="510" spans="1:15" ht="15.75" customHeight="1">
@@ -8683,7 +8679,7 @@
       <c r="B510" s="33"/>
       <c r="C510" s="28"/>
       <c r="D510" s="28"/>
-      <c r="E510" s="79"/>
+      <c r="E510" s="78"/>
       <c r="O510" s="33"/>
     </row>
     <row r="511" spans="1:15" ht="15.75" customHeight="1">
@@ -8691,7 +8687,7 @@
       <c r="B511" s="33"/>
       <c r="C511" s="28"/>
       <c r="D511" s="28"/>
-      <c r="E511" s="79"/>
+      <c r="E511" s="78"/>
       <c r="O511" s="33"/>
     </row>
     <row r="512" spans="1:15" ht="15.75" customHeight="1">
@@ -8699,7 +8695,7 @@
       <c r="B512" s="33"/>
       <c r="C512" s="28"/>
       <c r="D512" s="28"/>
-      <c r="E512" s="79"/>
+      <c r="E512" s="78"/>
       <c r="O512" s="33"/>
     </row>
     <row r="513" spans="1:15" ht="15.75" customHeight="1">
@@ -8707,7 +8703,7 @@
       <c r="B513" s="33"/>
       <c r="C513" s="28"/>
       <c r="D513" s="28"/>
-      <c r="E513" s="79"/>
+      <c r="E513" s="78"/>
       <c r="O513" s="33"/>
     </row>
     <row r="514" spans="1:15" ht="15.75" customHeight="1">
@@ -8715,7 +8711,7 @@
       <c r="B514" s="33"/>
       <c r="C514" s="28"/>
       <c r="D514" s="28"/>
-      <c r="E514" s="79"/>
+      <c r="E514" s="78"/>
       <c r="O514" s="33"/>
     </row>
     <row r="515" spans="1:15" ht="15.75" customHeight="1">
@@ -8723,7 +8719,7 @@
       <c r="B515" s="33"/>
       <c r="C515" s="28"/>
       <c r="D515" s="28"/>
-      <c r="E515" s="79"/>
+      <c r="E515" s="78"/>
       <c r="O515" s="33"/>
     </row>
     <row r="516" spans="1:15" ht="15.75" customHeight="1">
@@ -8731,7 +8727,7 @@
       <c r="B516" s="33"/>
       <c r="C516" s="28"/>
       <c r="D516" s="28"/>
-      <c r="E516" s="79"/>
+      <c r="E516" s="78"/>
       <c r="O516" s="33"/>
     </row>
     <row r="517" spans="1:15" ht="15.75" customHeight="1">
@@ -8739,7 +8735,7 @@
       <c r="B517" s="33"/>
       <c r="C517" s="28"/>
       <c r="D517" s="28"/>
-      <c r="E517" s="79"/>
+      <c r="E517" s="78"/>
       <c r="O517" s="33"/>
     </row>
     <row r="518" spans="1:15" ht="15.75" customHeight="1">
@@ -8747,7 +8743,7 @@
       <c r="B518" s="33"/>
       <c r="C518" s="28"/>
       <c r="D518" s="28"/>
-      <c r="E518" s="79"/>
+      <c r="E518" s="78"/>
       <c r="O518" s="33"/>
     </row>
     <row r="519" spans="1:15" ht="15.75" customHeight="1">
@@ -8755,7 +8751,7 @@
       <c r="B519" s="33"/>
       <c r="C519" s="28"/>
       <c r="D519" s="28"/>
-      <c r="E519" s="79"/>
+      <c r="E519" s="78"/>
       <c r="O519" s="33"/>
     </row>
     <row r="520" spans="1:15" ht="15.75" customHeight="1">
@@ -8763,7 +8759,7 @@
       <c r="B520" s="33"/>
       <c r="C520" s="28"/>
       <c r="D520" s="28"/>
-      <c r="E520" s="79"/>
+      <c r="E520" s="78"/>
       <c r="O520" s="33"/>
     </row>
     <row r="521" spans="1:15" ht="15.75" customHeight="1">
@@ -8771,7 +8767,7 @@
       <c r="B521" s="33"/>
       <c r="C521" s="28"/>
       <c r="D521" s="28"/>
-      <c r="E521" s="79"/>
+      <c r="E521" s="78"/>
       <c r="O521" s="33"/>
     </row>
     <row r="522" spans="1:15" ht="15.75" customHeight="1">
@@ -8779,7 +8775,7 @@
       <c r="B522" s="33"/>
       <c r="C522" s="28"/>
       <c r="D522" s="28"/>
-      <c r="E522" s="79"/>
+      <c r="E522" s="78"/>
       <c r="O522" s="33"/>
     </row>
     <row r="523" spans="1:15" ht="15.75" customHeight="1">
@@ -8787,7 +8783,7 @@
       <c r="B523" s="33"/>
       <c r="C523" s="28"/>
       <c r="D523" s="28"/>
-      <c r="E523" s="79"/>
+      <c r="E523" s="78"/>
       <c r="O523" s="33"/>
     </row>
     <row r="524" spans="1:15" ht="15.75" customHeight="1">
@@ -8795,7 +8791,7 @@
       <c r="B524" s="33"/>
       <c r="C524" s="28"/>
       <c r="D524" s="28"/>
-      <c r="E524" s="79"/>
+      <c r="E524" s="78"/>
       <c r="O524" s="33"/>
     </row>
     <row r="525" spans="1:15" ht="15.75" customHeight="1">
@@ -8803,7 +8799,7 @@
       <c r="B525" s="33"/>
       <c r="C525" s="28"/>
       <c r="D525" s="28"/>
-      <c r="E525" s="79"/>
+      <c r="E525" s="78"/>
       <c r="O525" s="33"/>
     </row>
     <row r="526" spans="1:15" ht="15.75" customHeight="1">
@@ -8811,7 +8807,7 @@
       <c r="B526" s="33"/>
       <c r="C526" s="28"/>
       <c r="D526" s="28"/>
-      <c r="E526" s="79"/>
+      <c r="E526" s="78"/>
       <c r="O526" s="33"/>
     </row>
     <row r="527" spans="1:15" ht="15.75" customHeight="1">
@@ -8819,7 +8815,7 @@
       <c r="B527" s="33"/>
       <c r="C527" s="28"/>
       <c r="D527" s="28"/>
-      <c r="E527" s="79"/>
+      <c r="E527" s="78"/>
       <c r="O527" s="33"/>
     </row>
     <row r="528" spans="1:15" ht="15.75" customHeight="1">
@@ -8827,7 +8823,7 @@
       <c r="B528" s="33"/>
       <c r="C528" s="28"/>
       <c r="D528" s="28"/>
-      <c r="E528" s="79"/>
+      <c r="E528" s="78"/>
       <c r="O528" s="33"/>
     </row>
     <row r="529" spans="1:15" ht="15.75" customHeight="1">
@@ -8835,7 +8831,7 @@
       <c r="B529" s="33"/>
       <c r="C529" s="28"/>
       <c r="D529" s="28"/>
-      <c r="E529" s="79"/>
+      <c r="E529" s="78"/>
       <c r="O529" s="33"/>
     </row>
     <row r="530" spans="1:15" ht="15.75" customHeight="1">
@@ -8843,7 +8839,7 @@
       <c r="B530" s="33"/>
       <c r="C530" s="28"/>
       <c r="D530" s="28"/>
-      <c r="E530" s="79"/>
+      <c r="E530" s="78"/>
       <c r="O530" s="33"/>
     </row>
     <row r="531" spans="1:15" ht="15.75" customHeight="1">
@@ -8851,7 +8847,7 @@
       <c r="B531" s="33"/>
       <c r="C531" s="28"/>
       <c r="D531" s="28"/>
-      <c r="E531" s="79"/>
+      <c r="E531" s="78"/>
       <c r="O531" s="33"/>
     </row>
     <row r="532" spans="1:15" ht="15.75" customHeight="1">
@@ -8859,7 +8855,7 @@
       <c r="B532" s="33"/>
       <c r="C532" s="28"/>
       <c r="D532" s="28"/>
-      <c r="E532" s="79"/>
+      <c r="E532" s="78"/>
       <c r="O532" s="33"/>
     </row>
     <row r="533" spans="1:15" ht="15.75" customHeight="1">
@@ -8867,7 +8863,7 @@
       <c r="B533" s="33"/>
       <c r="C533" s="28"/>
       <c r="D533" s="28"/>
-      <c r="E533" s="79"/>
+      <c r="E533" s="78"/>
       <c r="O533" s="33"/>
     </row>
     <row r="534" spans="1:15" ht="15.75" customHeight="1">
@@ -8875,7 +8871,7 @@
       <c r="B534" s="33"/>
       <c r="C534" s="28"/>
       <c r="D534" s="28"/>
-      <c r="E534" s="79"/>
+      <c r="E534" s="78"/>
       <c r="O534" s="33"/>
     </row>
     <row r="535" spans="1:15" ht="15.75" customHeight="1">
@@ -8883,7 +8879,7 @@
       <c r="B535" s="33"/>
       <c r="C535" s="28"/>
       <c r="D535" s="28"/>
-      <c r="E535" s="79"/>
+      <c r="E535" s="78"/>
       <c r="O535" s="33"/>
     </row>
     <row r="536" spans="1:15" ht="15.75" customHeight="1">
@@ -8891,7 +8887,7 @@
       <c r="B536" s="33"/>
       <c r="C536" s="28"/>
       <c r="D536" s="28"/>
-      <c r="E536" s="79"/>
+      <c r="E536" s="78"/>
       <c r="O536" s="33"/>
     </row>
     <row r="537" spans="1:15" ht="15.75" customHeight="1">
@@ -8899,7 +8895,7 @@
       <c r="B537" s="33"/>
       <c r="C537" s="28"/>
       <c r="D537" s="28"/>
-      <c r="E537" s="79"/>
+      <c r="E537" s="78"/>
       <c r="O537" s="33"/>
     </row>
     <row r="538" spans="1:15" ht="15.75" customHeight="1">
@@ -8907,7 +8903,7 @@
       <c r="B538" s="33"/>
       <c r="C538" s="28"/>
       <c r="D538" s="28"/>
-      <c r="E538" s="79"/>
+      <c r="E538" s="78"/>
       <c r="O538" s="33"/>
     </row>
     <row r="539" spans="1:15" ht="15.75" customHeight="1">
@@ -8915,7 +8911,7 @@
       <c r="B539" s="33"/>
       <c r="C539" s="28"/>
       <c r="D539" s="28"/>
-      <c r="E539" s="79"/>
+      <c r="E539" s="78"/>
       <c r="O539" s="33"/>
     </row>
     <row r="540" spans="1:15" ht="15.75" customHeight="1">
@@ -8923,7 +8919,7 @@
       <c r="B540" s="33"/>
       <c r="C540" s="28"/>
       <c r="D540" s="28"/>
-      <c r="E540" s="79"/>
+      <c r="E540" s="78"/>
       <c r="O540" s="33"/>
     </row>
     <row r="541" spans="1:15" ht="15.75" customHeight="1">
@@ -8931,7 +8927,7 @@
       <c r="B541" s="33"/>
       <c r="C541" s="28"/>
       <c r="D541" s="28"/>
-      <c r="E541" s="79"/>
+      <c r="E541" s="78"/>
       <c r="O541" s="33"/>
     </row>
     <row r="542" spans="1:15" ht="15.75" customHeight="1">
@@ -8939,7 +8935,7 @@
       <c r="B542" s="33"/>
       <c r="C542" s="28"/>
       <c r="D542" s="28"/>
-      <c r="E542" s="79"/>
+      <c r="E542" s="78"/>
       <c r="O542" s="33"/>
     </row>
     <row r="543" spans="1:15" ht="15.75" customHeight="1">
@@ -8947,7 +8943,7 @@
       <c r="B543" s="33"/>
       <c r="C543" s="28"/>
       <c r="D543" s="28"/>
-      <c r="E543" s="79"/>
+      <c r="E543" s="78"/>
       <c r="O543" s="33"/>
     </row>
     <row r="544" spans="1:15" ht="15.75" customHeight="1">
@@ -8955,7 +8951,7 @@
       <c r="B544" s="33"/>
       <c r="C544" s="28"/>
       <c r="D544" s="28"/>
-      <c r="E544" s="79"/>
+      <c r="E544" s="78"/>
       <c r="O544" s="33"/>
     </row>
     <row r="545" spans="1:15" ht="15.75" customHeight="1">
@@ -8963,7 +8959,7 @@
       <c r="B545" s="33"/>
       <c r="C545" s="28"/>
       <c r="D545" s="28"/>
-      <c r="E545" s="79"/>
+      <c r="E545" s="78"/>
       <c r="O545" s="33"/>
     </row>
     <row r="546" spans="1:15" ht="15.75" customHeight="1">
@@ -8971,7 +8967,7 @@
       <c r="B546" s="33"/>
       <c r="C546" s="28"/>
       <c r="D546" s="28"/>
-      <c r="E546" s="79"/>
+      <c r="E546" s="78"/>
       <c r="O546" s="33"/>
     </row>
     <row r="547" spans="1:15" ht="15.75" customHeight="1">
@@ -8979,7 +8975,7 @@
       <c r="B547" s="33"/>
       <c r="C547" s="28"/>
       <c r="D547" s="28"/>
-      <c r="E547" s="79"/>
+      <c r="E547" s="78"/>
       <c r="O547" s="33"/>
     </row>
     <row r="548" spans="1:15" ht="15.75" customHeight="1">
@@ -8987,7 +8983,7 @@
       <c r="B548" s="33"/>
       <c r="C548" s="28"/>
       <c r="D548" s="28"/>
-      <c r="E548" s="79"/>
+      <c r="E548" s="78"/>
       <c r="O548" s="33"/>
     </row>
     <row r="549" spans="1:15" ht="15.75" customHeight="1">
@@ -8995,7 +8991,7 @@
       <c r="B549" s="33"/>
       <c r="C549" s="28"/>
       <c r="D549" s="28"/>
-      <c r="E549" s="79"/>
+      <c r="E549" s="78"/>
       <c r="O549" s="33"/>
     </row>
     <row r="550" spans="1:15" ht="15.75" customHeight="1">
@@ -9003,7 +8999,7 @@
       <c r="B550" s="33"/>
       <c r="C550" s="28"/>
       <c r="D550" s="28"/>
-      <c r="E550" s="79"/>
+      <c r="E550" s="78"/>
       <c r="O550" s="33"/>
     </row>
     <row r="551" spans="1:15" ht="15.75" customHeight="1">
@@ -9011,7 +9007,7 @@
       <c r="B551" s="33"/>
       <c r="C551" s="28"/>
       <c r="D551" s="28"/>
-      <c r="E551" s="79"/>
+      <c r="E551" s="78"/>
       <c r="O551" s="33"/>
     </row>
     <row r="552" spans="1:15" ht="15.75" customHeight="1">
@@ -9019,7 +9015,7 @@
       <c r="B552" s="33"/>
       <c r="C552" s="28"/>
       <c r="D552" s="28"/>
-      <c r="E552" s="79"/>
+      <c r="E552" s="78"/>
       <c r="O552" s="33"/>
     </row>
     <row r="553" spans="1:15" ht="15.75" customHeight="1">
@@ -9027,7 +9023,7 @@
       <c r="B553" s="33"/>
       <c r="C553" s="28"/>
       <c r="D553" s="28"/>
-      <c r="E553" s="79"/>
+      <c r="E553" s="78"/>
       <c r="O553" s="33"/>
     </row>
     <row r="554" spans="1:15" ht="15.75" customHeight="1">
@@ -9035,7 +9031,7 @@
       <c r="B554" s="33"/>
       <c r="C554" s="28"/>
       <c r="D554" s="28"/>
-      <c r="E554" s="79"/>
+      <c r="E554" s="78"/>
       <c r="O554" s="33"/>
     </row>
     <row r="555" spans="1:15" ht="15.75" customHeight="1">
@@ -9043,7 +9039,7 @@
       <c r="B555" s="33"/>
       <c r="C555" s="28"/>
       <c r="D555" s="28"/>
-      <c r="E555" s="79"/>
+      <c r="E555" s="78"/>
       <c r="O555" s="33"/>
     </row>
     <row r="556" spans="1:15" ht="15.75" customHeight="1">
@@ -9051,7 +9047,7 @@
       <c r="B556" s="33"/>
       <c r="C556" s="28"/>
       <c r="D556" s="28"/>
-      <c r="E556" s="79"/>
+      <c r="E556" s="78"/>
       <c r="O556" s="33"/>
     </row>
     <row r="557" spans="1:15" ht="15.75" customHeight="1">
@@ -9059,7 +9055,7 @@
       <c r="B557" s="33"/>
       <c r="C557" s="28"/>
       <c r="D557" s="28"/>
-      <c r="E557" s="79"/>
+      <c r="E557" s="78"/>
       <c r="O557" s="33"/>
     </row>
     <row r="558" spans="1:15" ht="15.75" customHeight="1">
@@ -9067,7 +9063,7 @@
       <c r="B558" s="33"/>
       <c r="C558" s="28"/>
       <c r="D558" s="28"/>
-      <c r="E558" s="79"/>
+      <c r="E558" s="78"/>
       <c r="O558" s="33"/>
     </row>
     <row r="559" spans="1:15" ht="15.75" customHeight="1">
@@ -9075,7 +9071,7 @@
       <c r="B559" s="33"/>
       <c r="C559" s="28"/>
       <c r="D559" s="28"/>
-      <c r="E559" s="79"/>
+      <c r="E559" s="78"/>
       <c r="O559" s="33"/>
     </row>
     <row r="560" spans="1:15" ht="15.75" customHeight="1">
@@ -9083,7 +9079,7 @@
       <c r="B560" s="33"/>
       <c r="C560" s="28"/>
       <c r="D560" s="28"/>
-      <c r="E560" s="79"/>
+      <c r="E560" s="78"/>
       <c r="O560" s="33"/>
     </row>
     <row r="561" spans="1:15" ht="15.75" customHeight="1">
@@ -9091,7 +9087,7 @@
       <c r="B561" s="33"/>
       <c r="C561" s="28"/>
       <c r="D561" s="28"/>
-      <c r="E561" s="79"/>
+      <c r="E561" s="78"/>
       <c r="O561" s="33"/>
     </row>
     <row r="562" spans="1:15" ht="15.75" customHeight="1">
@@ -9099,7 +9095,7 @@
       <c r="B562" s="33"/>
       <c r="C562" s="28"/>
       <c r="D562" s="28"/>
-      <c r="E562" s="79"/>
+      <c r="E562" s="78"/>
       <c r="O562" s="33"/>
     </row>
     <row r="563" spans="1:15" ht="15.75" customHeight="1">
@@ -9107,7 +9103,7 @@
       <c r="B563" s="33"/>
       <c r="C563" s="28"/>
       <c r="D563" s="28"/>
-      <c r="E563" s="79"/>
+      <c r="E563" s="78"/>
       <c r="O563" s="33"/>
     </row>
     <row r="564" spans="1:15" ht="15.75" customHeight="1">
@@ -9115,7 +9111,7 @@
       <c r="B564" s="33"/>
       <c r="C564" s="28"/>
       <c r="D564" s="28"/>
-      <c r="E564" s="79"/>
+      <c r="E564" s="78"/>
       <c r="O564" s="33"/>
     </row>
     <row r="565" spans="1:15" ht="15.75" customHeight="1">
@@ -9123,7 +9119,7 @@
       <c r="B565" s="33"/>
       <c r="C565" s="28"/>
       <c r="D565" s="28"/>
-      <c r="E565" s="79"/>
+      <c r="E565" s="78"/>
       <c r="O565" s="33"/>
     </row>
     <row r="566" spans="1:15" ht="15.75" customHeight="1">
@@ -9131,7 +9127,7 @@
       <c r="B566" s="33"/>
       <c r="C566" s="28"/>
       <c r="D566" s="28"/>
-      <c r="E566" s="79"/>
+      <c r="E566" s="78"/>
       <c r="O566" s="33"/>
     </row>
     <row r="567" spans="1:15" ht="15.75" customHeight="1">
@@ -9139,7 +9135,7 @@
       <c r="B567" s="33"/>
       <c r="C567" s="28"/>
       <c r="D567" s="28"/>
-      <c r="E567" s="79"/>
+      <c r="E567" s="78"/>
       <c r="O567" s="33"/>
     </row>
     <row r="568" spans="1:15" ht="15.75" customHeight="1">
@@ -9147,7 +9143,7 @@
       <c r="B568" s="33"/>
       <c r="C568" s="28"/>
       <c r="D568" s="28"/>
-      <c r="E568" s="79"/>
+      <c r="E568" s="78"/>
       <c r="O568" s="33"/>
     </row>
     <row r="569" spans="1:15" ht="15.75" customHeight="1">
@@ -9155,7 +9151,7 @@
       <c r="B569" s="33"/>
       <c r="C569" s="28"/>
       <c r="D569" s="28"/>
-      <c r="E569" s="79"/>
+      <c r="E569" s="78"/>
       <c r="O569" s="33"/>
     </row>
     <row r="570" spans="1:15" ht="15.75" customHeight="1">
@@ -9163,7 +9159,7 @@
       <c r="B570" s="33"/>
       <c r="C570" s="28"/>
       <c r="D570" s="28"/>
-      <c r="E570" s="79"/>
+      <c r="E570" s="78"/>
       <c r="O570" s="33"/>
     </row>
     <row r="571" spans="1:15" ht="15.75" customHeight="1">
@@ -9171,7 +9167,7 @@
       <c r="B571" s="33"/>
       <c r="C571" s="28"/>
       <c r="D571" s="28"/>
-      <c r="E571" s="79"/>
+      <c r="E571" s="78"/>
       <c r="O571" s="33"/>
     </row>
     <row r="572" spans="1:15" ht="15.75" customHeight="1">
@@ -9179,7 +9175,7 @@
       <c r="B572" s="33"/>
       <c r="C572" s="28"/>
       <c r="D572" s="28"/>
-      <c r="E572" s="79"/>
+      <c r="E572" s="78"/>
       <c r="O572" s="33"/>
     </row>
     <row r="573" spans="1:15" ht="15.75" customHeight="1">
@@ -9187,7 +9183,7 @@
       <c r="B573" s="33"/>
       <c r="C573" s="28"/>
       <c r="D573" s="28"/>
-      <c r="E573" s="79"/>
+      <c r="E573" s="78"/>
       <c r="O573" s="33"/>
     </row>
     <row r="574" spans="1:15" ht="15.75" customHeight="1">
@@ -9195,7 +9191,7 @@
       <c r="B574" s="33"/>
       <c r="C574" s="28"/>
       <c r="D574" s="28"/>
-      <c r="E574" s="79"/>
+      <c r="E574" s="78"/>
       <c r="O574" s="33"/>
     </row>
     <row r="575" spans="1:15" ht="15.75" customHeight="1">
@@ -9203,7 +9199,7 @@
       <c r="B575" s="33"/>
       <c r="C575" s="28"/>
       <c r="D575" s="28"/>
-      <c r="E575" s="79"/>
+      <c r="E575" s="78"/>
       <c r="O575" s="33"/>
     </row>
     <row r="576" spans="1:15" ht="15.75" customHeight="1">
@@ -9211,7 +9207,7 @@
       <c r="B576" s="33"/>
       <c r="C576" s="28"/>
       <c r="D576" s="28"/>
-      <c r="E576" s="79"/>
+      <c r="E576" s="78"/>
       <c r="O576" s="33"/>
     </row>
     <row r="577" spans="1:15" ht="15.75" customHeight="1">
@@ -9219,7 +9215,7 @@
       <c r="B577" s="33"/>
       <c r="C577" s="28"/>
       <c r="D577" s="28"/>
-      <c r="E577" s="79"/>
+      <c r="E577" s="78"/>
       <c r="O577" s="33"/>
     </row>
     <row r="578" spans="1:15" ht="15.75" customHeight="1">
@@ -9227,7 +9223,7 @@
       <c r="B578" s="33"/>
       <c r="C578" s="28"/>
       <c r="D578" s="28"/>
-      <c r="E578" s="79"/>
+      <c r="E578" s="78"/>
       <c r="O578" s="33"/>
     </row>
     <row r="579" spans="1:15" ht="15.75" customHeight="1">
@@ -9235,7 +9231,7 @@
       <c r="B579" s="33"/>
       <c r="C579" s="28"/>
       <c r="D579" s="28"/>
-      <c r="E579" s="79"/>
+      <c r="E579" s="78"/>
       <c r="O579" s="33"/>
     </row>
     <row r="580" spans="1:15" ht="15.75" customHeight="1">
@@ -9243,7 +9239,7 @@
       <c r="B580" s="33"/>
       <c r="C580" s="28"/>
       <c r="D580" s="28"/>
-      <c r="E580" s="79"/>
+      <c r="E580" s="78"/>
       <c r="O580" s="33"/>
     </row>
     <row r="581" spans="1:15" ht="15.75" customHeight="1">
@@ -9251,7 +9247,7 @@
       <c r="B581" s="33"/>
       <c r="C581" s="28"/>
       <c r="D581" s="28"/>
-      <c r="E581" s="79"/>
+      <c r="E581" s="78"/>
       <c r="O581" s="33"/>
     </row>
     <row r="582" spans="1:15" ht="15.75" customHeight="1">
@@ -9259,7 +9255,7 @@
       <c r="B582" s="33"/>
       <c r="C582" s="28"/>
       <c r="D582" s="28"/>
-      <c r="E582" s="79"/>
+      <c r="E582" s="78"/>
       <c r="O582" s="33"/>
     </row>
     <row r="583" spans="1:15" ht="15.75" customHeight="1">
@@ -9267,7 +9263,7 @@
       <c r="B583" s="33"/>
       <c r="C583" s="28"/>
       <c r="D583" s="28"/>
-      <c r="E583" s="79"/>
+      <c r="E583" s="78"/>
       <c r="O583" s="33"/>
     </row>
     <row r="584" spans="1:15" ht="15.75" customHeight="1">
@@ -9275,7 +9271,7 @@
       <c r="B584" s="33"/>
       <c r="C584" s="28"/>
       <c r="D584" s="28"/>
-      <c r="E584" s="79"/>
+      <c r="E584" s="78"/>
       <c r="O584" s="33"/>
     </row>
     <row r="585" spans="1:15" ht="15.75" customHeight="1">
@@ -9283,7 +9279,7 @@
       <c r="B585" s="33"/>
       <c r="C585" s="28"/>
       <c r="D585" s="28"/>
-      <c r="E585" s="79"/>
+      <c r="E585" s="78"/>
       <c r="O585" s="33"/>
     </row>
     <row r="586" spans="1:15" ht="15.75" customHeight="1">
@@ -9291,7 +9287,7 @@
       <c r="B586" s="33"/>
       <c r="C586" s="28"/>
       <c r="D586" s="28"/>
-      <c r="E586" s="79"/>
+      <c r="E586" s="78"/>
       <c r="O586" s="33"/>
     </row>
     <row r="587" spans="1:15" ht="15.75" customHeight="1">
@@ -9299,7 +9295,7 @@
       <c r="B587" s="33"/>
       <c r="C587" s="28"/>
       <c r="D587" s="28"/>
-      <c r="E587" s="79"/>
+      <c r="E587" s="78"/>
       <c r="O587" s="33"/>
     </row>
     <row r="588" spans="1:15" ht="15.75" customHeight="1">
@@ -9307,7 +9303,7 @@
       <c r="B588" s="33"/>
       <c r="C588" s="28"/>
       <c r="D588" s="28"/>
-      <c r="E588" s="79"/>
+      <c r="E588" s="78"/>
       <c r="O588" s="33"/>
     </row>
     <row r="589" spans="1:15" ht="15.75" customHeight="1">
@@ -9315,7 +9311,7 @@
       <c r="B589" s="33"/>
       <c r="C589" s="28"/>
       <c r="D589" s="28"/>
-      <c r="E589" s="79"/>
+      <c r="E589" s="78"/>
       <c r="O589" s="33"/>
     </row>
     <row r="590" spans="1:15" ht="15.75" customHeight="1">
@@ -9323,7 +9319,7 @@
       <c r="B590" s="33"/>
       <c r="C590" s="28"/>
       <c r="D590" s="28"/>
-      <c r="E590" s="79"/>
+      <c r="E590" s="78"/>
       <c r="O590" s="33"/>
     </row>
     <row r="591" spans="1:15" ht="15.75" customHeight="1">
@@ -9331,7 +9327,7 @@
       <c r="B591" s="33"/>
       <c r="C591" s="28"/>
       <c r="D591" s="28"/>
-      <c r="E591" s="79"/>
+      <c r="E591" s="78"/>
       <c r="O591" s="33"/>
     </row>
     <row r="592" spans="1:15" ht="15.75" customHeight="1">
@@ -9339,7 +9335,7 @@
       <c r="B592" s="33"/>
       <c r="C592" s="28"/>
       <c r="D592" s="28"/>
-      <c r="E592" s="79"/>
+      <c r="E592" s="78"/>
       <c r="O592" s="33"/>
     </row>
     <row r="593" spans="1:15" ht="15.75" customHeight="1">
@@ -9347,7 +9343,7 @@
       <c r="B593" s="33"/>
       <c r="C593" s="28"/>
       <c r="D593" s="28"/>
-      <c r="E593" s="79"/>
+      <c r="E593" s="78"/>
       <c r="O593" s="33"/>
     </row>
     <row r="594" spans="1:15" ht="15.75" customHeight="1">
@@ -9355,7 +9351,7 @@
       <c r="B594" s="33"/>
       <c r="C594" s="28"/>
       <c r="D594" s="28"/>
-      <c r="E594" s="79"/>
+      <c r="E594" s="78"/>
       <c r="O594" s="33"/>
     </row>
     <row r="595" spans="1:15" ht="15.75" customHeight="1">
@@ -9363,7 +9359,7 @@
       <c r="B595" s="33"/>
       <c r="C595" s="28"/>
       <c r="D595" s="28"/>
-      <c r="E595" s="79"/>
+      <c r="E595" s="78"/>
       <c r="O595" s="33"/>
     </row>
     <row r="596" spans="1:15" ht="15.75" customHeight="1">
@@ -9371,7 +9367,7 @@
       <c r="B596" s="33"/>
       <c r="C596" s="28"/>
       <c r="D596" s="28"/>
-      <c r="E596" s="79"/>
+      <c r="E596" s="78"/>
       <c r="O596" s="33"/>
     </row>
     <row r="597" spans="1:15" ht="15.75" customHeight="1">
@@ -9379,7 +9375,7 @@
       <c r="B597" s="33"/>
       <c r="C597" s="28"/>
       <c r="D597" s="28"/>
-      <c r="E597" s="79"/>
+      <c r="E597" s="78"/>
       <c r="O597" s="33"/>
     </row>
     <row r="598" spans="1:15" ht="15.75" customHeight="1">
@@ -9387,7 +9383,7 @@
       <c r="B598" s="33"/>
       <c r="C598" s="28"/>
       <c r="D598" s="28"/>
-      <c r="E598" s="79"/>
+      <c r="E598" s="78"/>
       <c r="O598" s="33"/>
     </row>
     <row r="599" spans="1:15" ht="15.75" customHeight="1">
@@ -9395,7 +9391,7 @@
       <c r="B599" s="33"/>
       <c r="C599" s="28"/>
       <c r="D599" s="28"/>
-      <c r="E599" s="79"/>
+      <c r="E599" s="78"/>
       <c r="O599" s="33"/>
     </row>
     <row r="600" spans="1:15" ht="15.75" customHeight="1">
@@ -9403,7 +9399,7 @@
       <c r="B600" s="33"/>
       <c r="C600" s="28"/>
       <c r="D600" s="28"/>
-      <c r="E600" s="79"/>
+      <c r="E600" s="78"/>
       <c r="O600" s="33"/>
     </row>
     <row r="601" spans="1:15" ht="15.75" customHeight="1">
@@ -9411,7 +9407,7 @@
       <c r="B601" s="33"/>
       <c r="C601" s="28"/>
       <c r="D601" s="28"/>
-      <c r="E601" s="79"/>
+      <c r="E601" s="78"/>
       <c r="O601" s="33"/>
     </row>
     <row r="602" spans="1:15" ht="15.75" customHeight="1">
@@ -9419,7 +9415,7 @@
       <c r="B602" s="33"/>
       <c r="C602" s="28"/>
       <c r="D602" s="28"/>
-      <c r="E602" s="79"/>
+      <c r="E602" s="78"/>
       <c r="O602" s="33"/>
     </row>
     <row r="603" spans="1:15" ht="15.75" customHeight="1">
@@ -9427,7 +9423,7 @@
       <c r="B603" s="33"/>
       <c r="C603" s="28"/>
       <c r="D603" s="28"/>
-      <c r="E603" s="79"/>
+      <c r="E603" s="78"/>
       <c r="O603" s="33"/>
     </row>
     <row r="604" spans="1:15" ht="15.75" customHeight="1">
@@ -9435,7 +9431,7 @@
       <c r="B604" s="33"/>
       <c r="C604" s="28"/>
       <c r="D604" s="28"/>
-      <c r="E604" s="79"/>
+      <c r="E604" s="78"/>
       <c r="O604" s="33"/>
     </row>
     <row r="605" spans="1:15" ht="15.75" customHeight="1">
@@ -9443,7 +9439,7 @@
       <c r="B605" s="33"/>
       <c r="C605" s="28"/>
       <c r="D605" s="28"/>
-      <c r="E605" s="79"/>
+      <c r="E605" s="78"/>
       <c r="O605" s="33"/>
     </row>
     <row r="606" spans="1:15" ht="15.75" customHeight="1">
@@ -9451,7 +9447,7 @@
       <c r="B606" s="33"/>
       <c r="C606" s="28"/>
       <c r="D606" s="28"/>
-      <c r="E606" s="79"/>
+      <c r="E606" s="78"/>
       <c r="O606" s="33"/>
     </row>
     <row r="607" spans="1:15" ht="15.75" customHeight="1">
@@ -9459,7 +9455,7 @@
       <c r="B607" s="33"/>
       <c r="C607" s="28"/>
       <c r="D607" s="28"/>
-      <c r="E607" s="79"/>
+      <c r="E607" s="78"/>
       <c r="O607" s="33"/>
     </row>
     <row r="608" spans="1:15" ht="15.75" customHeight="1">
@@ -9467,7 +9463,7 @@
       <c r="B608" s="33"/>
       <c r="C608" s="28"/>
       <c r="D608" s="28"/>
-      <c r="E608" s="79"/>
+      <c r="E608" s="78"/>
       <c r="O608" s="33"/>
     </row>
     <row r="609" spans="1:15" ht="15.75" customHeight="1">
@@ -9475,7 +9471,7 @@
       <c r="B609" s="33"/>
       <c r="C609" s="28"/>
       <c r="D609" s="28"/>
-      <c r="E609" s="79"/>
+      <c r="E609" s="78"/>
       <c r="O609" s="33"/>
     </row>
     <row r="610" spans="1:15" ht="15.75" customHeight="1">
@@ -9483,7 +9479,7 @@
       <c r="B610" s="33"/>
       <c r="C610" s="28"/>
       <c r="D610" s="28"/>
-      <c r="E610" s="79"/>
+      <c r="E610" s="78"/>
       <c r="O610" s="33"/>
     </row>
     <row r="611" spans="1:15" ht="15.75" customHeight="1">
@@ -9491,7 +9487,7 @@
       <c r="B611" s="33"/>
       <c r="C611" s="28"/>
       <c r="D611" s="28"/>
-      <c r="E611" s="79"/>
+      <c r="E611" s="78"/>
       <c r="O611" s="33"/>
     </row>
     <row r="612" spans="1:15" ht="15.75" customHeight="1">
@@ -9499,7 +9495,7 @@
       <c r="B612" s="33"/>
       <c r="C612" s="28"/>
       <c r="D612" s="28"/>
-      <c r="E612" s="79"/>
+      <c r="E612" s="78"/>
       <c r="O612" s="33"/>
     </row>
     <row r="613" spans="1:15" ht="15.75" customHeight="1">
@@ -9507,7 +9503,7 @@
       <c r="B613" s="33"/>
       <c r="C613" s="28"/>
       <c r="D613" s="28"/>
-      <c r="E613" s="79"/>
+      <c r="E613" s="78"/>
       <c r="O613" s="33"/>
     </row>
     <row r="614" spans="1:15" ht="15.75" customHeight="1">
@@ -9515,7 +9511,7 @@
       <c r="B614" s="33"/>
       <c r="C614" s="28"/>
       <c r="D614" s="28"/>
-      <c r="E614" s="79"/>
+      <c r="E614" s="78"/>
       <c r="O614" s="33"/>
     </row>
     <row r="615" spans="1:15" ht="15.75" customHeight="1">
@@ -9523,7 +9519,7 @@
       <c r="B615" s="33"/>
       <c r="C615" s="28"/>
       <c r="D615" s="28"/>
-      <c r="E615" s="79"/>
+      <c r="E615" s="78"/>
       <c r="O615" s="33"/>
     </row>
     <row r="616" spans="1:15" ht="15.75" customHeight="1">
@@ -9531,7 +9527,7 @@
       <c r="B616" s="33"/>
       <c r="C616" s="28"/>
       <c r="D616" s="28"/>
-      <c r="E616" s="79"/>
+      <c r="E616" s="78"/>
       <c r="O616" s="33"/>
     </row>
     <row r="617" spans="1:15" ht="15.75" customHeight="1">
@@ -9539,7 +9535,7 @@
       <c r="B617" s="33"/>
       <c r="C617" s="28"/>
       <c r="D617" s="28"/>
-      <c r="E617" s="79"/>
+      <c r="E617" s="78"/>
       <c r="O617" s="33"/>
     </row>
     <row r="618" spans="1:15" ht="15.75" customHeight="1">
@@ -9547,7 +9543,7 @@
       <c r="B618" s="33"/>
       <c r="C618" s="28"/>
       <c r="D618" s="28"/>
-      <c r="E618" s="79"/>
+      <c r="E618" s="78"/>
       <c r="O618" s="33"/>
     </row>
     <row r="619" spans="1:15" ht="15.75" customHeight="1">
@@ -9555,7 +9551,7 @@
       <c r="B619" s="33"/>
       <c r="C619" s="28"/>
       <c r="D619" s="28"/>
-      <c r="E619" s="79"/>
+      <c r="E619" s="78"/>
       <c r="O619" s="33"/>
     </row>
     <row r="620" spans="1:15" ht="15.75" customHeight="1">
@@ -9563,7 +9559,7 @@
       <c r="B620" s="33"/>
       <c r="C620" s="28"/>
       <c r="D620" s="28"/>
-      <c r="E620" s="79"/>
+      <c r="E620" s="78"/>
       <c r="O620" s="33"/>
     </row>
     <row r="621" spans="1:15" ht="15.75" customHeight="1">
@@ -9571,7 +9567,7 @@
       <c r="B621" s="33"/>
       <c r="C621" s="28"/>
       <c r="D621" s="28"/>
-      <c r="E621" s="79"/>
+      <c r="E621" s="78"/>
       <c r="O621" s="33"/>
     </row>
     <row r="622" spans="1:15" ht="15.75" customHeight="1">
@@ -9579,7 +9575,7 @@
       <c r="B622" s="33"/>
       <c r="C622" s="28"/>
       <c r="D622" s="28"/>
-      <c r="E622" s="79"/>
+      <c r="E622" s="78"/>
       <c r="O622" s="33"/>
     </row>
     <row r="623" spans="1:15" ht="15.75" customHeight="1">
@@ -9587,7 +9583,7 @@
       <c r="B623" s="33"/>
       <c r="C623" s="28"/>
       <c r="D623" s="28"/>
-      <c r="E623" s="79"/>
+      <c r="E623" s="78"/>
       <c r="O623" s="33"/>
     </row>
     <row r="624" spans="1:15" ht="15.75" customHeight="1">
@@ -9595,7 +9591,7 @@
       <c r="B624" s="33"/>
       <c r="C624" s="28"/>
       <c r="D624" s="28"/>
-      <c r="E624" s="79"/>
+      <c r="E624" s="78"/>
       <c r="O624" s="33"/>
     </row>
     <row r="625" spans="1:15" ht="15.75" customHeight="1">
@@ -9603,7 +9599,7 @@
       <c r="B625" s="33"/>
       <c r="C625" s="28"/>
       <c r="D625" s="28"/>
-      <c r="E625" s="79"/>
+      <c r="E625" s="78"/>
       <c r="O625" s="33"/>
     </row>
     <row r="626" spans="1:15" ht="15.75" customHeight="1">
@@ -9611,7 +9607,7 @@
       <c r="B626" s="33"/>
       <c r="C626" s="28"/>
       <c r="D626" s="28"/>
-      <c r="E626" s="79"/>
+      <c r="E626" s="78"/>
       <c r="O626" s="33"/>
     </row>
     <row r="627" spans="1:15" ht="15.75" customHeight="1">
@@ -9619,7 +9615,7 @@
       <c r="B627" s="33"/>
       <c r="C627" s="28"/>
       <c r="D627" s="28"/>
-      <c r="E627" s="79"/>
+      <c r="E627" s="78"/>
       <c r="O627" s="33"/>
     </row>
     <row r="628" spans="1:15" ht="15.75" customHeight="1">
@@ -9627,7 +9623,7 @@
       <c r="B628" s="33"/>
       <c r="C628" s="28"/>
       <c r="D628" s="28"/>
-      <c r="E628" s="79"/>
+      <c r="E628" s="78"/>
       <c r="O628" s="33"/>
     </row>
     <row r="629" spans="1:15" ht="15.75" customHeight="1">
@@ -9635,7 +9631,7 @@
       <c r="B629" s="33"/>
       <c r="C629" s="28"/>
       <c r="D629" s="28"/>
-      <c r="E629" s="79"/>
+      <c r="E629" s="78"/>
       <c r="O629" s="33"/>
     </row>
     <row r="630" spans="1:15" ht="15.75" customHeight="1">
@@ -9643,7 +9639,7 @@
       <c r="B630" s="33"/>
       <c r="C630" s="28"/>
       <c r="D630" s="28"/>
-      <c r="E630" s="79"/>
+      <c r="E630" s="78"/>
       <c r="O630" s="33"/>
     </row>
     <row r="631" spans="1:15" ht="15.75" customHeight="1">
@@ -9651,7 +9647,7 @@
       <c r="B631" s="33"/>
       <c r="C631" s="28"/>
       <c r="D631" s="28"/>
-      <c r="E631" s="79"/>
+      <c r="E631" s="78"/>
       <c r="O631" s="33"/>
     </row>
     <row r="632" spans="1:15" ht="15.75" customHeight="1">
@@ -9659,7 +9655,7 @@
       <c r="B632" s="33"/>
       <c r="C632" s="28"/>
       <c r="D632" s="28"/>
-      <c r="E632" s="79"/>
+      <c r="E632" s="78"/>
       <c r="O632" s="33"/>
     </row>
     <row r="633" spans="1:15" ht="15.75" customHeight="1">
@@ -9667,7 +9663,7 @@
       <c r="B633" s="33"/>
       <c r="C633" s="28"/>
       <c r="D633" s="28"/>
-      <c r="E633" s="79"/>
+      <c r="E633" s="78"/>
       <c r="O633" s="33"/>
     </row>
     <row r="634" spans="1:15" ht="15.75" customHeight="1">
@@ -9675,7 +9671,7 @@
       <c r="B634" s="33"/>
       <c r="C634" s="28"/>
       <c r="D634" s="28"/>
-      <c r="E634" s="79"/>
+      <c r="E634" s="78"/>
       <c r="O634" s="33"/>
     </row>
     <row r="635" spans="1:15" ht="15.75" customHeight="1">
@@ -9683,7 +9679,7 @@
       <c r="B635" s="33"/>
       <c r="C635" s="28"/>
       <c r="D635" s="28"/>
-      <c r="E635" s="79"/>
+      <c r="E635" s="78"/>
       <c r="O635" s="33"/>
     </row>
     <row r="636" spans="1:15" ht="15.75" customHeight="1">
@@ -9691,7 +9687,7 @@
       <c r="B636" s="33"/>
       <c r="C636" s="28"/>
       <c r="D636" s="28"/>
-      <c r="E636" s="79"/>
+      <c r="E636" s="78"/>
       <c r="O636" s="33"/>
     </row>
     <row r="637" spans="1:15" ht="15.75" customHeight="1">
@@ -9699,7 +9695,7 @@
       <c r="B637" s="33"/>
       <c r="C637" s="28"/>
       <c r="D637" s="28"/>
-      <c r="E637" s="79"/>
+      <c r="E637" s="78"/>
       <c r="O637" s="33"/>
     </row>
     <row r="638" spans="1:15" ht="15.75" customHeight="1">
@@ -9707,7 +9703,7 @@
       <c r="B638" s="33"/>
       <c r="C638" s="28"/>
       <c r="D638" s="28"/>
-      <c r="E638" s="79"/>
+      <c r="E638" s="78"/>
       <c r="O638" s="33"/>
     </row>
     <row r="639" spans="1:15" ht="15.75" customHeight="1">
@@ -9715,7 +9711,7 @@
       <c r="B639" s="33"/>
       <c r="C639" s="28"/>
       <c r="D639" s="28"/>
-      <c r="E639" s="79"/>
+      <c r="E639" s="78"/>
       <c r="O639" s="33"/>
     </row>
     <row r="640" spans="1:15" ht="15.75" customHeight="1">
@@ -9723,7 +9719,7 @@
       <c r="B640" s="33"/>
       <c r="C640" s="28"/>
       <c r="D640" s="28"/>
-      <c r="E640" s="79"/>
+      <c r="E640" s="78"/>
       <c r="O640" s="33"/>
     </row>
     <row r="641" spans="1:15" ht="15.75" customHeight="1">
@@ -9731,7 +9727,7 @@
       <c r="B641" s="33"/>
       <c r="C641" s="28"/>
       <c r="D641" s="28"/>
-      <c r="E641" s="79"/>
+      <c r="E641" s="78"/>
       <c r="O641" s="33"/>
     </row>
     <row r="642" spans="1:15" ht="15.75" customHeight="1">
@@ -9739,7 +9735,7 @@
       <c r="B642" s="33"/>
       <c r="C642" s="28"/>
       <c r="D642" s="28"/>
-      <c r="E642" s="79"/>
+      <c r="E642" s="78"/>
       <c r="O642" s="33"/>
     </row>
     <row r="643" spans="1:15" ht="15.75" customHeight="1">
@@ -9747,7 +9743,7 @@
       <c r="B643" s="33"/>
       <c r="C643" s="28"/>
       <c r="D643" s="28"/>
-      <c r="E643" s="79"/>
+      <c r="E643" s="78"/>
       <c r="O643" s="33"/>
     </row>
     <row r="644" spans="1:15" ht="15.75" customHeight="1">
@@ -9755,7 +9751,7 @@
       <c r="B644" s="33"/>
       <c r="C644" s="28"/>
       <c r="D644" s="28"/>
-      <c r="E644" s="79"/>
+      <c r="E644" s="78"/>
       <c r="O644" s="33"/>
     </row>
     <row r="645" spans="1:15" ht="15.75" customHeight="1">
@@ -9763,7 +9759,7 @@
       <c r="B645" s="33"/>
       <c r="C645" s="28"/>
       <c r="D645" s="28"/>
-      <c r="E645" s="79"/>
+      <c r="E645" s="78"/>
       <c r="O645" s="33"/>
     </row>
     <row r="646" spans="1:15" ht="15.75" customHeight="1">
@@ -9771,7 +9767,7 @@
       <c r="B646" s="33"/>
       <c r="C646" s="28"/>
       <c r="D646" s="28"/>
-      <c r="E646" s="79"/>
+      <c r="E646" s="78"/>
       <c r="O646" s="33"/>
     </row>
     <row r="647" spans="1:15" ht="15.75" customHeight="1">
@@ -9779,7 +9775,7 @@
       <c r="B647" s="33"/>
       <c r="C647" s="28"/>
       <c r="D647" s="28"/>
-      <c r="E647" s="79"/>
+      <c r="E647" s="78"/>
       <c r="O647" s="33"/>
     </row>
     <row r="648" spans="1:15" ht="15.75" customHeight="1">
@@ -9787,7 +9783,7 @@
       <c r="B648" s="33"/>
       <c r="C648" s="28"/>
       <c r="D648" s="28"/>
-      <c r="E648" s="79"/>
+      <c r="E648" s="78"/>
       <c r="O648" s="33"/>
     </row>
     <row r="649" spans="1:15" ht="15.75" customHeight="1">
@@ -9795,7 +9791,7 @@
       <c r="B649" s="33"/>
       <c r="C649" s="28"/>
       <c r="D649" s="28"/>
-      <c r="E649" s="79"/>
+      <c r="E649" s="78"/>
       <c r="O649" s="33"/>
     </row>
     <row r="650" spans="1:15" ht="15.75" customHeight="1">
@@ -9803,7 +9799,7 @@
       <c r="B650" s="33"/>
       <c r="C650" s="28"/>
       <c r="D650" s="28"/>
-      <c r="E650" s="79"/>
+      <c r="E650" s="78"/>
       <c r="O650" s="33"/>
     </row>
     <row r="651" spans="1:15" ht="15.75" customHeight="1">
@@ -9811,7 +9807,7 @@
       <c r="B651" s="33"/>
       <c r="C651" s="28"/>
       <c r="D651" s="28"/>
-      <c r="E651" s="79"/>
+      <c r="E651" s="78"/>
       <c r="O651" s="33"/>
     </row>
     <row r="652" spans="1:15" ht="15.75" customHeight="1">
@@ -9819,7 +9815,7 @@
       <c r="B652" s="33"/>
       <c r="C652" s="28"/>
       <c r="D652" s="28"/>
-      <c r="E652" s="79"/>
+      <c r="E652" s="78"/>
       <c r="O652" s="33"/>
     </row>
     <row r="653" spans="1:15" ht="15.75" customHeight="1">
@@ -9827,7 +9823,7 @@
       <c r="B653" s="33"/>
       <c r="C653" s="28"/>
       <c r="D653" s="28"/>
-      <c r="E653" s="79"/>
+      <c r="E653" s="78"/>
       <c r="O653" s="33"/>
     </row>
     <row r="654" spans="1:15" ht="15.75" customHeight="1">
@@ -9835,7 +9831,7 @@
       <c r="B654" s="33"/>
       <c r="C654" s="28"/>
       <c r="D654" s="28"/>
-      <c r="E654" s="79"/>
+      <c r="E654" s="78"/>
       <c r="O654" s="33"/>
     </row>
     <row r="655" spans="1:15" ht="15.75" customHeight="1">
@@ -9843,7 +9839,7 @@
       <c r="B655" s="33"/>
       <c r="C655" s="28"/>
       <c r="D655" s="28"/>
-      <c r="E655" s="79"/>
+      <c r="E655" s="78"/>
       <c r="O655" s="33"/>
     </row>
     <row r="656" spans="1:15" ht="15.75" customHeight="1">
@@ -9851,7 +9847,7 @@
       <c r="B656" s="33"/>
       <c r="C656" s="28"/>
       <c r="D656" s="28"/>
-      <c r="E656" s="79"/>
+      <c r="E656" s="78"/>
       <c r="O656" s="33"/>
     </row>
     <row r="657" spans="1:15" ht="15.75" customHeight="1">
@@ -9859,7 +9855,7 @@
       <c r="B657" s="33"/>
       <c r="C657" s="28"/>
       <c r="D657" s="28"/>
-      <c r="E657" s="79"/>
+      <c r="E657" s="78"/>
       <c r="O657" s="33"/>
     </row>
     <row r="658" spans="1:15" ht="15.75" customHeight="1">
@@ -9867,7 +9863,7 @@
       <c r="B658" s="33"/>
       <c r="C658" s="28"/>
       <c r="D658" s="28"/>
-      <c r="E658" s="79"/>
+      <c r="E658" s="78"/>
       <c r="O658" s="33"/>
     </row>
     <row r="659" spans="1:15" ht="15.75" customHeight="1">
@@ -9875,7 +9871,7 @@
       <c r="B659" s="33"/>
       <c r="C659" s="28"/>
       <c r="D659" s="28"/>
-      <c r="E659" s="79"/>
+      <c r="E659" s="78"/>
       <c r="O659" s="33"/>
     </row>
     <row r="660" spans="1:15" ht="15.75" customHeight="1">
@@ -9883,7 +9879,7 @@
       <c r="B660" s="33"/>
       <c r="C660" s="28"/>
       <c r="D660" s="28"/>
-      <c r="E660" s="79"/>
+      <c r="E660" s="78"/>
       <c r="O660" s="33"/>
     </row>
     <row r="661" spans="1:15" ht="15.75" customHeight="1">
@@ -9891,7 +9887,7 @@
       <c r="B661" s="33"/>
       <c r="C661" s="28"/>
       <c r="D661" s="28"/>
-      <c r="E661" s="79"/>
+      <c r="E661" s="78"/>
       <c r="O661" s="33"/>
     </row>
     <row r="662" spans="1:15" ht="15.75" customHeight="1">
@@ -9899,7 +9895,7 @@
       <c r="B662" s="33"/>
       <c r="C662" s="28"/>
       <c r="D662" s="28"/>
-      <c r="E662" s="79"/>
+      <c r="E662" s="78"/>
       <c r="O662" s="33"/>
     </row>
     <row r="663" spans="1:15" ht="15.75" customHeight="1">
@@ -9907,7 +9903,7 @@
       <c r="B663" s="33"/>
       <c r="C663" s="28"/>
       <c r="D663" s="28"/>
-      <c r="E663" s="79"/>
+      <c r="E663" s="78"/>
       <c r="O663" s="33"/>
     </row>
     <row r="664" spans="1:15" ht="15.75" customHeight="1">
@@ -9915,7 +9911,7 @@
       <c r="B664" s="33"/>
       <c r="C664" s="28"/>
       <c r="D664" s="28"/>
-      <c r="E664" s="79"/>
+      <c r="E664" s="78"/>
       <c r="O664" s="33"/>
     </row>
     <row r="665" spans="1:15" ht="15.75" customHeight="1">
@@ -9923,7 +9919,7 @@
       <c r="B665" s="33"/>
       <c r="C665" s="28"/>
       <c r="D665" s="28"/>
-      <c r="E665" s="79"/>
+      <c r="E665" s="78"/>
       <c r="O665" s="33"/>
     </row>
     <row r="666" spans="1:15" ht="15.75" customHeight="1">
@@ -9931,7 +9927,7 @@
       <c r="B666" s="33"/>
       <c r="C666" s="28"/>
       <c r="D666" s="28"/>
-      <c r="E666" s="79"/>
+      <c r="E666" s="78"/>
       <c r="O666" s="33"/>
     </row>
     <row r="667" spans="1:15" ht="15.75" customHeight="1">
@@ -9939,7 +9935,7 @@
       <c r="B667" s="33"/>
       <c r="C667" s="28"/>
       <c r="D667" s="28"/>
-      <c r="E667" s="79"/>
+      <c r="E667" s="78"/>
       <c r="O667" s="33"/>
     </row>
     <row r="668" spans="1:15" ht="15.75" customHeight="1">
@@ -9947,7 +9943,7 @@
       <c r="B668" s="33"/>
       <c r="C668" s="28"/>
       <c r="D668" s="28"/>
-      <c r="E668" s="79"/>
+      <c r="E668" s="78"/>
       <c r="O668" s="33"/>
     </row>
     <row r="669" spans="1:15" ht="15.75" customHeight="1">
@@ -9955,7 +9951,7 @@
       <c r="B669" s="33"/>
       <c r="C669" s="28"/>
       <c r="D669" s="28"/>
-      <c r="E669" s="79"/>
+      <c r="E669" s="78"/>
       <c r="O669" s="33"/>
     </row>
     <row r="670" spans="1:15" ht="15.75" customHeight="1">
@@ -9963,7 +9959,7 @@
       <c r="B670" s="33"/>
       <c r="C670" s="28"/>
       <c r="D670" s="28"/>
-      <c r="E670" s="79"/>
+      <c r="E670" s="78"/>
       <c r="O670" s="33"/>
     </row>
     <row r="671" spans="1:15" ht="15.75" customHeight="1">
@@ -9971,7 +9967,7 @@
       <c r="B671" s="33"/>
       <c r="C671" s="28"/>
       <c r="D671" s="28"/>
-      <c r="E671" s="79"/>
+      <c r="E671" s="78"/>
       <c r="O671" s="33"/>
     </row>
     <row r="672" spans="1:15" ht="15.75" customHeight="1">
@@ -9979,7 +9975,7 @@
       <c r="B672" s="33"/>
       <c r="C672" s="28"/>
       <c r="D672" s="28"/>
-      <c r="E672" s="79"/>
+      <c r="E672" s="78"/>
       <c r="O672" s="33"/>
     </row>
     <row r="673" spans="1:15" ht="15.75" customHeight="1">
@@ -9987,7 +9983,7 @@
       <c r="B673" s="33"/>
       <c r="C673" s="28"/>
       <c r="D673" s="28"/>
-      <c r="E673" s="79"/>
+      <c r="E673" s="78"/>
       <c r="O673" s="33"/>
     </row>
     <row r="674" spans="1:15" ht="15.75" customHeight="1">
@@ -9995,7 +9991,7 @@
       <c r="B674" s="33"/>
       <c r="C674" s="28"/>
       <c r="D674" s="28"/>
-      <c r="E674" s="79"/>
+      <c r="E674" s="78"/>
       <c r="O674" s="33"/>
     </row>
     <row r="675" spans="1:15" ht="15.75" customHeight="1">
@@ -10003,7 +9999,7 @@
       <c r="B675" s="33"/>
       <c r="C675" s="28"/>
       <c r="D675" s="28"/>
-      <c r="E675" s="79"/>
+      <c r="E675" s="78"/>
       <c r="O675" s="33"/>
     </row>
     <row r="676" spans="1:15" ht="15.75" customHeight="1">
@@ -10011,7 +10007,7 @@
       <c r="B676" s="33"/>
       <c r="C676" s="28"/>
       <c r="D676" s="28"/>
-      <c r="E676" s="79"/>
+      <c r="E676" s="78"/>
       <c r="O676" s="33"/>
     </row>
     <row r="677" spans="1:15" ht="15.75" customHeight="1">
@@ -10019,7 +10015,7 @@
       <c r="B677" s="33"/>
       <c r="C677" s="28"/>
       <c r="D677" s="28"/>
-      <c r="E677" s="79"/>
+      <c r="E677" s="78"/>
       <c r="O677" s="33"/>
     </row>
     <row r="678" spans="1:15" ht="15.75" customHeight="1">
@@ -10027,7 +10023,7 @@
       <c r="B678" s="33"/>
       <c r="C678" s="28"/>
       <c r="D678" s="28"/>
-      <c r="E678" s="79"/>
+      <c r="E678" s="78"/>
       <c r="O678" s="33"/>
     </row>
     <row r="679" spans="1:15" ht="15.75" customHeight="1">
@@ -10035,7 +10031,7 @@
       <c r="B679" s="33"/>
       <c r="C679" s="28"/>
       <c r="D679" s="28"/>
-      <c r="E679" s="79"/>
+      <c r="E679" s="78"/>
       <c r="O679" s="33"/>
     </row>
     <row r="680" spans="1:15" ht="15.75" customHeight="1">
@@ -10043,7 +10039,7 @@
       <c r="B680" s="33"/>
       <c r="C680" s="28"/>
       <c r="D680" s="28"/>
-      <c r="E680" s="79"/>
+      <c r="E680" s="78"/>
       <c r="O680" s="33"/>
     </row>
     <row r="681" spans="1:15" ht="15.75" customHeight="1">
@@ -10051,7 +10047,7 @@
       <c r="B681" s="33"/>
       <c r="C681" s="28"/>
       <c r="D681" s="28"/>
-      <c r="E681" s="79"/>
+      <c r="E681" s="78"/>
       <c r="O681" s="33"/>
     </row>
     <row r="682" spans="1:15" ht="15.75" customHeight="1">
@@ -10059,7 +10055,7 @@
       <c r="B682" s="33"/>
       <c r="C682" s="28"/>
       <c r="D682" s="28"/>
-      <c r="E682" s="79"/>
+      <c r="E682" s="78"/>
       <c r="O682" s="33"/>
     </row>
     <row r="683" spans="1:15" ht="15.75" customHeight="1">
@@ -10067,7 +10063,7 @@
       <c r="B683" s="33"/>
       <c r="C683" s="28"/>
       <c r="D683" s="28"/>
-      <c r="E683" s="79"/>
+      <c r="E683" s="78"/>
       <c r="O683" s="33"/>
     </row>
     <row r="684" spans="1:15" ht="15.75" customHeight="1">
@@ -10075,7 +10071,7 @@
       <c r="B684" s="33"/>
       <c r="C684" s="28"/>
       <c r="D684" s="28"/>
-      <c r="E684" s="79"/>
+      <c r="E684" s="78"/>
       <c r="O684" s="33"/>
     </row>
     <row r="685" spans="1:15" ht="15.75" customHeight="1">
@@ -10083,7 +10079,7 @@
       <c r="B685" s="33"/>
       <c r="C685" s="28"/>
       <c r="D685" s="28"/>
-      <c r="E685" s="79"/>
+      <c r="E685" s="78"/>
       <c r="O685" s="33"/>
     </row>
     <row r="686" spans="1:15" ht="15.75" customHeight="1">
@@ -10091,7 +10087,7 @@
       <c r="B686" s="33"/>
       <c r="C686" s="28"/>
       <c r="D686" s="28"/>
-      <c r="E686" s="79"/>
+      <c r="E686" s="78"/>
       <c r="O686" s="33"/>
     </row>
     <row r="687" spans="1:15" ht="15.75" customHeight="1">
@@ -10099,7 +10095,7 @@
       <c r="B687" s="33"/>
       <c r="C687" s="28"/>
       <c r="D687" s="28"/>
-      <c r="E687" s="79"/>
+      <c r="E687" s="78"/>
       <c r="O687" s="33"/>
     </row>
     <row r="688" spans="1:15" ht="15.75" customHeight="1">
@@ -10107,7 +10103,7 @@
       <c r="B688" s="33"/>
       <c r="C688" s="28"/>
       <c r="D688" s="28"/>
-      <c r="E688" s="79"/>
+      <c r="E688" s="78"/>
       <c r="O688" s="33"/>
     </row>
     <row r="689" spans="1:15" ht="15.75" customHeight="1">
@@ -10115,7 +10111,7 @@
       <c r="B689" s="33"/>
       <c r="C689" s="28"/>
       <c r="D689" s="28"/>
-      <c r="E689" s="79"/>
+      <c r="E689" s="78"/>
       <c r="O689" s="33"/>
     </row>
     <row r="690" spans="1:15" ht="15.75" customHeight="1">
@@ -10123,7 +10119,7 @@
       <c r="B690" s="33"/>
       <c r="C690" s="28"/>
       <c r="D690" s="28"/>
-      <c r="E690" s="79"/>
+      <c r="E690" s="78"/>
       <c r="O690" s="33"/>
     </row>
     <row r="691" spans="1:15" ht="15.75" customHeight="1">
@@ -10131,7 +10127,7 @@
       <c r="B691" s="33"/>
       <c r="C691" s="28"/>
       <c r="D691" s="28"/>
-      <c r="E691" s="79"/>
+      <c r="E691" s="78"/>
       <c r="O691" s="33"/>
     </row>
     <row r="692" spans="1:15" ht="15.75" customHeight="1">
@@ -10139,7 +10135,7 @@
       <c r="B692" s="33"/>
       <c r="C692" s="28"/>
       <c r="D692" s="28"/>
-      <c r="E692" s="79"/>
+      <c r="E692" s="78"/>
       <c r="O692" s="33"/>
     </row>
     <row r="693" spans="1:15" ht="15.75" customHeight="1">
@@ -10147,7 +10143,7 @@
       <c r="B693" s="33"/>
       <c r="C693" s="28"/>
       <c r="D693" s="28"/>
-      <c r="E693" s="79"/>
+      <c r="E693" s="78"/>
       <c r="O693" s="33"/>
     </row>
     <row r="694" spans="1:15" ht="15.75" customHeight="1">
@@ -10155,7 +10151,7 @@
       <c r="B694" s="33"/>
       <c r="C694" s="28"/>
       <c r="D694" s="28"/>
-      <c r="E694" s="79"/>
+      <c r="E694" s="78"/>
       <c r="O694" s="33"/>
     </row>
     <row r="695" spans="1:15" ht="15.75" customHeight="1">
@@ -10163,7 +10159,7 @@
       <c r="B695" s="33"/>
       <c r="C695" s="28"/>
       <c r="D695" s="28"/>
-      <c r="E695" s="79"/>
+      <c r="E695" s="78"/>
       <c r="O695" s="33"/>
     </row>
     <row r="696" spans="1:15" ht="15.75" customHeight="1">
@@ -10171,7 +10167,7 @@
       <c r="B696" s="33"/>
       <c r="C696" s="28"/>
       <c r="D696" s="28"/>
-      <c r="E696" s="79"/>
+      <c r="E696" s="78"/>
       <c r="O696" s="33"/>
     </row>
     <row r="697" spans="1:15" ht="15.75" customHeight="1">
@@ -10179,7 +10175,7 @@
       <c r="B697" s="33"/>
       <c r="C697" s="28"/>
       <c r="D697" s="28"/>
-      <c r="E697" s="79"/>
+      <c r="E697" s="78"/>
       <c r="O697" s="33"/>
     </row>
     <row r="698" spans="1:15" ht="15.75" customHeight="1">
@@ -10187,7 +10183,7 @@
       <c r="B698" s="33"/>
       <c r="C698" s="28"/>
       <c r="D698" s="28"/>
-      <c r="E698" s="79"/>
+      <c r="E698" s="78"/>
       <c r="O698" s="33"/>
     </row>
     <row r="699" spans="1:15" ht="15.75" customHeight="1">
@@ -10195,7 +10191,7 @@
       <c r="B699" s="33"/>
       <c r="C699" s="28"/>
       <c r="D699" s="28"/>
-      <c r="E699" s="79"/>
+      <c r="E699" s="78"/>
       <c r="O699" s="33"/>
     </row>
     <row r="700" spans="1:15" ht="15.75" customHeight="1">
@@ -10203,7 +10199,7 @@
       <c r="B700" s="33"/>
       <c r="C700" s="28"/>
       <c r="D700" s="28"/>
-      <c r="E700" s="79"/>
+      <c r="E700" s="78"/>
       <c r="O700" s="33"/>
     </row>
     <row r="701" spans="1:15" ht="15.75" customHeight="1">
@@ -10211,7 +10207,7 @@
       <c r="B701" s="33"/>
       <c r="C701" s="28"/>
       <c r="D701" s="28"/>
-      <c r="E701" s="79"/>
+      <c r="E701" s="78"/>
       <c r="O701" s="33"/>
     </row>
     <row r="702" spans="1:15" ht="15.75" customHeight="1">
@@ -10219,7 +10215,7 @@
       <c r="B702" s="33"/>
       <c r="C702" s="28"/>
       <c r="D702" s="28"/>
-      <c r="E702" s="79"/>
+      <c r="E702" s="78"/>
       <c r="O702" s="33"/>
     </row>
     <row r="703" spans="1:15" ht="15.75" customHeight="1">
@@ -10227,7 +10223,7 @@
       <c r="B703" s="33"/>
       <c r="C703" s="28"/>
       <c r="D703" s="28"/>
-      <c r="E703" s="79"/>
+      <c r="E703" s="78"/>
       <c r="O703" s="33"/>
     </row>
     <row r="704" spans="1:15" ht="15.75" customHeight="1">
@@ -10235,7 +10231,7 @@
       <c r="B704" s="33"/>
       <c r="C704" s="28"/>
       <c r="D704" s="28"/>
-      <c r="E704" s="79"/>
+      <c r="E704" s="78"/>
       <c r="O704" s="33"/>
     </row>
     <row r="705" spans="1:15" ht="15.75" customHeight="1">
@@ -10243,7 +10239,7 @@
       <c r="B705" s="33"/>
       <c r="C705" s="28"/>
       <c r="D705" s="28"/>
-      <c r="E705" s="79"/>
+      <c r="E705" s="78"/>
       <c r="O705" s="33"/>
     </row>
     <row r="706" spans="1:15" ht="15.75" customHeight="1">
@@ -10251,7 +10247,7 @@
       <c r="B706" s="33"/>
       <c r="C706" s="28"/>
       <c r="D706" s="28"/>
-      <c r="E706" s="79"/>
+      <c r="E706" s="78"/>
       <c r="O706" s="33"/>
     </row>
     <row r="707" spans="1:15" ht="15.75" customHeight="1">
@@ -10259,7 +10255,7 @@
       <c r="B707" s="33"/>
       <c r="C707" s="28"/>
       <c r="D707" s="28"/>
-      <c r="E707" s="79"/>
+      <c r="E707" s="78"/>
       <c r="O707" s="33"/>
     </row>
     <row r="708" spans="1:15" ht="15.75" customHeight="1">
@@ -10267,7 +10263,7 @@
       <c r="B708" s="33"/>
       <c r="C708" s="28"/>
       <c r="D708" s="28"/>
-      <c r="E708" s="79"/>
+      <c r="E708" s="78"/>
       <c r="O708" s="33"/>
     </row>
     <row r="709" spans="1:15" ht="15.75" customHeight="1">
@@ -10275,7 +10271,7 @@
       <c r="B709" s="33"/>
       <c r="C709" s="28"/>
       <c r="D709" s="28"/>
-      <c r="E709" s="79"/>
+      <c r="E709" s="78"/>
       <c r="O709" s="33"/>
     </row>
     <row r="710" spans="1:15" ht="15.75" customHeight="1">
@@ -10283,7 +10279,7 @@
       <c r="B710" s="33"/>
       <c r="C710" s="28"/>
       <c r="D710" s="28"/>
-      <c r="E710" s="79"/>
+      <c r="E710" s="78"/>
       <c r="O710" s="33"/>
     </row>
     <row r="711" spans="1:15" ht="15.75" customHeight="1">
@@ -10291,7 +10287,7 @@
       <c r="B711" s="33"/>
       <c r="C711" s="28"/>
       <c r="D711" s="28"/>
-      <c r="E711" s="79"/>
+      <c r="E711" s="78"/>
       <c r="O711" s="33"/>
     </row>
     <row r="712" spans="1:15" ht="15.75" customHeight="1">
@@ -10299,7 +10295,7 @@
       <c r="B712" s="33"/>
       <c r="C712" s="28"/>
       <c r="D712" s="28"/>
-      <c r="E712" s="79"/>
+      <c r="E712" s="78"/>
       <c r="O712" s="33"/>
     </row>
     <row r="713" spans="1:15" ht="15.75" customHeight="1">
@@ -10307,7 +10303,7 @@
       <c r="B713" s="33"/>
       <c r="C713" s="28"/>
       <c r="D713" s="28"/>
-      <c r="E713" s="79"/>
+      <c r="E713" s="78"/>
       <c r="O713" s="33"/>
     </row>
     <row r="714" spans="1:15" ht="15.75" customHeight="1">
@@ -10315,7 +10311,7 @@
       <c r="B714" s="33"/>
       <c r="C714" s="28"/>
       <c r="D714" s="28"/>
-      <c r="E714" s="79"/>
+      <c r="E714" s="78"/>
       <c r="O714" s="33"/>
     </row>
     <row r="715" spans="1:15" ht="15.75" customHeight="1">
@@ -10323,7 +10319,7 @@
       <c r="B715" s="33"/>
       <c r="C715" s="28"/>
       <c r="D715" s="28"/>
-      <c r="E715" s="79"/>
+      <c r="E715" s="78"/>
       <c r="O715" s="33"/>
     </row>
     <row r="716" spans="1:15" ht="15.75" customHeight="1">
@@ -10331,7 +10327,7 @@
       <c r="B716" s="33"/>
       <c r="C716" s="28"/>
       <c r="D716" s="28"/>
-      <c r="E716" s="79"/>
+      <c r="E716" s="78"/>
       <c r="O716" s="33"/>
     </row>
     <row r="717" spans="1:15" ht="15.75" customHeight="1">
@@ -10339,7 +10335,7 @@
       <c r="B717" s="33"/>
       <c r="C717" s="28"/>
       <c r="D717" s="28"/>
-      <c r="E717" s="79"/>
+      <c r="E717" s="78"/>
       <c r="O717" s="33"/>
     </row>
     <row r="718" spans="1:15" ht="15.75" customHeight="1">
@@ -10347,7 +10343,7 @@
       <c r="B718" s="33"/>
       <c r="C718" s="28"/>
       <c r="D718" s="28"/>
-      <c r="E718" s="79"/>
+      <c r="E718" s="78"/>
       <c r="O718" s="33"/>
     </row>
     <row r="719" spans="1:15" ht="15.75" customHeight="1">
@@ -10355,7 +10351,7 @@
       <c r="B719" s="33"/>
       <c r="C719" s="28"/>
       <c r="D719" s="28"/>
-      <c r="E719" s="79"/>
+      <c r="E719" s="78"/>
       <c r="O719" s="33"/>
     </row>
     <row r="720" spans="1:15" ht="15.75" customHeight="1">
@@ -10363,7 +10359,7 @@
       <c r="B720" s="33"/>
       <c r="C720" s="28"/>
       <c r="D720" s="28"/>
-      <c r="E720" s="79"/>
+      <c r="E720" s="78"/>
       <c r="O720" s="33"/>
     </row>
     <row r="721" spans="1:15" ht="15.75" customHeight="1">
@@ -10371,7 +10367,7 @@
       <c r="B721" s="33"/>
       <c r="C721" s="28"/>
       <c r="D721" s="28"/>
-      <c r="E721" s="79"/>
+      <c r="E721" s="78"/>
       <c r="O721" s="33"/>
     </row>
     <row r="722" spans="1:15" ht="15.75" customHeight="1">
@@ -10379,7 +10375,7 @@
       <c r="B722" s="33"/>
       <c r="C722" s="28"/>
       <c r="D722" s="28"/>
-      <c r="E722" s="79"/>
+      <c r="E722" s="78"/>
       <c r="O722" s="33"/>
     </row>
     <row r="723" spans="1:15" ht="15.75" customHeight="1">
@@ -10387,7 +10383,7 @@
       <c r="B723" s="33"/>
       <c r="C723" s="28"/>
       <c r="D723" s="28"/>
-      <c r="E723" s="79"/>
+      <c r="E723" s="78"/>
       <c r="O723" s="33"/>
     </row>
     <row r="724" spans="1:15" ht="15.75" customHeight="1">
@@ -10395,7 +10391,7 @@
       <c r="B724" s="33"/>
       <c r="C724" s="28"/>
       <c r="D724" s="28"/>
-      <c r="E724" s="79"/>
+      <c r="E724" s="78"/>
       <c r="O724" s="33"/>
     </row>
     <row r="725" spans="1:15" ht="15.75" customHeight="1">
@@ -10403,7 +10399,7 @@
       <c r="B725" s="33"/>
       <c r="C725" s="28"/>
       <c r="D725" s="28"/>
-      <c r="E725" s="79"/>
+      <c r="E725" s="78"/>
       <c r="O725" s="33"/>
     </row>
     <row r="726" spans="1:15" ht="15.75" customHeight="1">
@@ -10411,7 +10407,7 @@
       <c r="B726" s="33"/>
       <c r="C726" s="28"/>
       <c r="D726" s="28"/>
-      <c r="E726" s="79"/>
+      <c r="E726" s="78"/>
       <c r="O726" s="33"/>
     </row>
     <row r="727" spans="1:15" ht="15.75" customHeight="1">
@@ -10419,7 +10415,7 @@
       <c r="B727" s="33"/>
       <c r="C727" s="28"/>
       <c r="D727" s="28"/>
-      <c r="E727" s="79"/>
+      <c r="E727" s="78"/>
       <c r="O727" s="33"/>
     </row>
     <row r="728" spans="1:15" ht="15.75" customHeight="1">
@@ -10427,7 +10423,7 @@
       <c r="B728" s="33"/>
       <c r="C728" s="28"/>
       <c r="D728" s="28"/>
-      <c r="E728" s="79"/>
+      <c r="E728" s="78"/>
       <c r="O728" s="33"/>
     </row>
     <row r="729" spans="1:15" ht="15.75" customHeight="1">
@@ -10435,7 +10431,7 @@
       <c r="B729" s="33"/>
       <c r="C729" s="28"/>
       <c r="D729" s="28"/>
-      <c r="E729" s="79"/>
+      <c r="E729" s="78"/>
       <c r="O729" s="33"/>
     </row>
     <row r="730" spans="1:15" ht="15.75" customHeight="1">
@@ -10443,7 +10439,7 @@
       <c r="B730" s="33"/>
       <c r="C730" s="28"/>
       <c r="D730" s="28"/>
-      <c r="E730" s="79"/>
+      <c r="E730" s="78"/>
       <c r="O730" s="33"/>
     </row>
     <row r="731" spans="1:15" ht="15.75" customHeight="1">
@@ -10451,7 +10447,7 @@
       <c r="B731" s="33"/>
       <c r="C731" s="28"/>
       <c r="D731" s="28"/>
-      <c r="E731" s="79"/>
+      <c r="E731" s="78"/>
       <c r="O731" s="33"/>
     </row>
     <row r="732" spans="1:15" ht="15.75" customHeight="1">
@@ -10459,7 +10455,7 @@
       <c r="B732" s="33"/>
       <c r="C732" s="28"/>
       <c r="D732" s="28"/>
-      <c r="E732" s="79"/>
+      <c r="E732" s="78"/>
       <c r="O732" s="33"/>
     </row>
     <row r="733" spans="1:15" ht="15.75" customHeight="1">
@@ -10467,7 +10463,7 @@
       <c r="B733" s="33"/>
       <c r="C733" s="28"/>
       <c r="D733" s="28"/>
-      <c r="E733" s="79"/>
+      <c r="E733" s="78"/>
       <c r="O733" s="33"/>
     </row>
     <row r="734" spans="1:15" ht="15.75" customHeight="1">
@@ -10475,7 +10471,7 @@
       <c r="B734" s="33"/>
       <c r="C734" s="28"/>
       <c r="D734" s="28"/>
-      <c r="E734" s="79"/>
+      <c r="E734" s="78"/>
       <c r="O734" s="33"/>
     </row>
     <row r="735" spans="1:15" ht="15.75" customHeight="1">
@@ -10483,7 +10479,7 @@
       <c r="B735" s="33"/>
       <c r="C735" s="28"/>
       <c r="D735" s="28"/>
-      <c r="E735" s="79"/>
+      <c r="E735" s="78"/>
       <c r="O735" s="33"/>
     </row>
     <row r="736" spans="1:15" ht="15.75" customHeight="1">
@@ -10491,7 +10487,7 @@
       <c r="B736" s="33"/>
       <c r="C736" s="28"/>
       <c r="D736" s="28"/>
-      <c r="E736" s="79"/>
+      <c r="E736" s="78"/>
       <c r="O736" s="33"/>
     </row>
     <row r="737" spans="1:15" ht="15.75" customHeight="1">
@@ -10499,7 +10495,7 @@
       <c r="B737" s="33"/>
       <c r="C737" s="28"/>
       <c r="D737" s="28"/>
-      <c r="E737" s="79"/>
+      <c r="E737" s="78"/>
       <c r="O737" s="33"/>
     </row>
     <row r="738" spans="1:15" ht="15.75" customHeight="1">
@@ -10507,7 +10503,7 @@
       <c r="B738" s="33"/>
       <c r="C738" s="28"/>
       <c r="D738" s="28"/>
-      <c r="E738" s="79"/>
+      <c r="E738" s="78"/>
       <c r="O738" s="33"/>
     </row>
     <row r="739" spans="1:15" ht="15.75" customHeight="1">
@@ -10515,7 +10511,7 @@
       <c r="B739" s="33"/>
       <c r="C739" s="28"/>
       <c r="D739" s="28"/>
-      <c r="E739" s="79"/>
+      <c r="E739" s="78"/>
       <c r="O739" s="33"/>
     </row>
     <row r="740" spans="1:15" ht="15.75" customHeight="1">
@@ -10523,7 +10519,7 @@
       <c r="B740" s="33"/>
       <c r="C740" s="28"/>
       <c r="D740" s="28"/>
-      <c r="E740" s="79"/>
+      <c r="E740" s="78"/>
       <c r="O740" s="33"/>
     </row>
     <row r="741" spans="1:15" ht="15.75" customHeight="1">
@@ -10531,7 +10527,7 @@
       <c r="B741" s="33"/>
       <c r="C741" s="28"/>
       <c r="D741" s="28"/>
-      <c r="E741" s="79"/>
+      <c r="E741" s="78"/>
       <c r="O741" s="33"/>
     </row>
     <row r="742" spans="1:15" ht="15.75" customHeight="1">
@@ -10539,7 +10535,7 @@
       <c r="B742" s="33"/>
       <c r="C742" s="28"/>
       <c r="D742" s="28"/>
-      <c r="E742" s="79"/>
+      <c r="E742" s="78"/>
       <c r="O742" s="33"/>
     </row>
     <row r="743" spans="1:15" ht="15.75" customHeight="1">
@@ -10547,7 +10543,7 @@
       <c r="B743" s="33"/>
       <c r="C743" s="28"/>
       <c r="D743" s="28"/>
-      <c r="E743" s="79"/>
+      <c r="E743" s="78"/>
       <c r="O743" s="33"/>
     </row>
     <row r="744" spans="1:15" ht="15.75" customHeight="1">
@@ -10555,7 +10551,7 @@
       <c r="B744" s="33"/>
       <c r="C744" s="28"/>
       <c r="D744" s="28"/>
-      <c r="E744" s="79"/>
+      <c r="E744" s="78"/>
       <c r="O744" s="33"/>
     </row>
     <row r="745" spans="1:15" ht="15.75" customHeight="1">
@@ -10563,7 +10559,7 @@
       <c r="B745" s="33"/>
       <c r="C745" s="28"/>
       <c r="D745" s="28"/>
-      <c r="E745" s="79"/>
+      <c r="E745" s="78"/>
       <c r="O745" s="33"/>
     </row>
     <row r="746" spans="1:15" ht="15.75" customHeight="1">
@@ -10571,7 +10567,7 @@
       <c r="B746" s="33"/>
       <c r="C746" s="28"/>
       <c r="D746" s="28"/>
-      <c r="E746" s="79"/>
+      <c r="E746" s="78"/>
       <c r="O746" s="33"/>
     </row>
     <row r="747" spans="1:15" ht="15.75" customHeight="1">
@@ -10579,7 +10575,7 @@
       <c r="B747" s="33"/>
       <c r="C747" s="28"/>
       <c r="D747" s="28"/>
-      <c r="E747" s="79"/>
+      <c r="E747" s="78"/>
       <c r="O747" s="33"/>
     </row>
     <row r="748" spans="1:15" ht="15.75" customHeight="1">
@@ -10587,7 +10583,7 @@
       <c r="B748" s="33"/>
       <c r="C748" s="28"/>
       <c r="D748" s="28"/>
-      <c r="E748" s="79"/>
+      <c r="E748" s="78"/>
       <c r="O748" s="33"/>
     </row>
     <row r="749" spans="1:15" ht="15.75" customHeight="1">
@@ -10595,7 +10591,7 @@
       <c r="B749" s="33"/>
       <c r="C749" s="28"/>
       <c r="D749" s="28"/>
-      <c r="E749" s="79"/>
+      <c r="E749" s="78"/>
       <c r="O749" s="33"/>
     </row>
     <row r="750" spans="1:15" ht="15.75" customHeight="1">
@@ -10603,7 +10599,7 @@
       <c r="B750" s="33"/>
       <c r="C750" s="28"/>
       <c r="D750" s="28"/>
-      <c r="E750" s="79"/>
+      <c r="E750" s="78"/>
       <c r="O750" s="33"/>
     </row>
     <row r="751" spans="1:15" ht="15.75" customHeight="1">
@@ -10611,7 +10607,7 @@
       <c r="B751" s="33"/>
       <c r="C751" s="28"/>
       <c r="D751" s="28"/>
-      <c r="E751" s="79"/>
+      <c r="E751" s="78"/>
       <c r="O751" s="33"/>
     </row>
     <row r="752" spans="1:15" ht="15.75" customHeight="1">
@@ -10619,7 +10615,7 @@
       <c r="B752" s="33"/>
       <c r="C752" s="28"/>
       <c r="D752" s="28"/>
-      <c r="E752" s="79"/>
+      <c r="E752" s="78"/>
       <c r="O752" s="33"/>
     </row>
     <row r="753" spans="1:15" ht="15.75" customHeight="1">
@@ -10627,7 +10623,7 @@
       <c r="B753" s="33"/>
       <c r="C753" s="28"/>
       <c r="D753" s="28"/>
-      <c r="E753" s="79"/>
+      <c r="E753" s="78"/>
       <c r="O753" s="33"/>
     </row>
     <row r="754" spans="1:15" ht="15.75" customHeight="1">
@@ -10635,7 +10631,7 @@
       <c r="B754" s="33"/>
       <c r="C754" s="28"/>
       <c r="D754" s="28"/>
-      <c r="E754" s="79"/>
+      <c r="E754" s="78"/>
       <c r="O754" s="33"/>
     </row>
     <row r="755" spans="1:15" ht="15.75" customHeight="1">
@@ -10643,7 +10639,7 @@
       <c r="B755" s="33"/>
       <c r="C755" s="28"/>
       <c r="D755" s="28"/>
-      <c r="E755" s="79"/>
+      <c r="E755" s="78"/>
       <c r="O755" s="33"/>
     </row>
     <row r="756" spans="1:15" ht="15.75" customHeight="1">
@@ -10651,7 +10647,7 @@
       <c r="B756" s="33"/>
       <c r="C756" s="28"/>
       <c r="D756" s="28"/>
-      <c r="E756" s="79"/>
+      <c r="E756" s="78"/>
       <c r="O756" s="33"/>
     </row>
     <row r="757" spans="1:15" ht="15.75" customHeight="1">
@@ -10659,7 +10655,7 @@
       <c r="B757" s="33"/>
       <c r="C757" s="28"/>
       <c r="D757" s="28"/>
-      <c r="E757" s="79"/>
+      <c r="E757" s="78"/>
       <c r="O757" s="33"/>
     </row>
     <row r="758" spans="1:15" ht="15.75" customHeight="1">
@@ -10667,7 +10663,7 @@
       <c r="B758" s="33"/>
       <c r="C758" s="28"/>
       <c r="D758" s="28"/>
-      <c r="E758" s="79"/>
+      <c r="E758" s="78"/>
       <c r="O758" s="33"/>
     </row>
     <row r="759" spans="1:15" ht="15.75" customHeight="1">
@@ -10675,7 +10671,7 @@
       <c r="B759" s="33"/>
       <c r="C759" s="28"/>
       <c r="D759" s="28"/>
-      <c r="E759" s="79"/>
+      <c r="E759" s="78"/>
       <c r="O759" s="33"/>
     </row>
     <row r="760" spans="1:15" ht="15.75" customHeight="1">
@@ -10683,7 +10679,7 @@
       <c r="B760" s="33"/>
       <c r="C760" s="28"/>
       <c r="D760" s="28"/>
-      <c r="E760" s="79"/>
+      <c r="E760" s="78"/>
       <c r="O760" s="33"/>
     </row>
     <row r="761" spans="1:15" ht="15.75" customHeight="1">
@@ -10691,7 +10687,7 @@
       <c r="B761" s="33"/>
       <c r="C761" s="28"/>
       <c r="D761" s="28"/>
-      <c r="E761" s="79"/>
+      <c r="E761" s="78"/>
       <c r="O761" s="33"/>
     </row>
     <row r="762" spans="1:15" ht="15.75" customHeight="1">
@@ -10699,7 +10695,7 @@
       <c r="B762" s="33"/>
       <c r="C762" s="28"/>
       <c r="D762" s="28"/>
-      <c r="E762" s="79"/>
+      <c r="E762" s="78"/>
       <c r="O762" s="33"/>
     </row>
     <row r="763" spans="1:15" ht="15.75" customHeight="1">
@@ -10707,7 +10703,7 @@
       <c r="B763" s="33"/>
       <c r="C763" s="28"/>
       <c r="D763" s="28"/>
-      <c r="E763" s="79"/>
+      <c r="E763" s="78"/>
       <c r="O763" s="33"/>
     </row>
     <row r="764" spans="1:15" ht="15.75" customHeight="1">
@@ -10715,7 +10711,7 @@
       <c r="B764" s="33"/>
       <c r="C764" s="28"/>
       <c r="D764" s="28"/>
-      <c r="E764" s="79"/>
+      <c r="E764" s="78"/>
       <c r="O764" s="33"/>
     </row>
     <row r="765" spans="1:15" ht="15.75" customHeight="1">
@@ -10723,7 +10719,7 @@
       <c r="B765" s="33"/>
       <c r="C765" s="28"/>
       <c r="D765" s="28"/>
-      <c r="E765" s="79"/>
+      <c r="E765" s="78"/>
       <c r="O765" s="33"/>
     </row>
     <row r="766" spans="1:15" ht="15.75" customHeight="1">
@@ -10731,7 +10727,7 @@
       <c r="B766" s="33"/>
       <c r="C766" s="28"/>
       <c r="D766" s="28"/>
-      <c r="E766" s="79"/>
+      <c r="E766" s="78"/>
       <c r="O766" s="33"/>
     </row>
     <row r="767" spans="1:15" ht="15.75" customHeight="1">
@@ -10739,7 +10735,7 @@
       <c r="B767" s="33"/>
       <c r="C767" s="28"/>
       <c r="D767" s="28"/>
-      <c r="E767" s="79"/>
+      <c r="E767" s="78"/>
       <c r="O767" s="33"/>
     </row>
     <row r="768" spans="1:15" ht="15.75" customHeight="1">
@@ -10747,7 +10743,7 @@
       <c r="B768" s="33"/>
       <c r="C768" s="28"/>
       <c r="D768" s="28"/>
-      <c r="E768" s="79"/>
+      <c r="E768" s="78"/>
       <c r="O768" s="33"/>
     </row>
     <row r="769" spans="1:15" ht="15.75" customHeight="1">
@@ -10755,7 +10751,7 @@
       <c r="B769" s="33"/>
       <c r="C769" s="28"/>
       <c r="D769" s="28"/>
-      <c r="E769" s="79"/>
+      <c r="E769" s="78"/>
       <c r="O769" s="33"/>
     </row>
     <row r="770" spans="1:15" ht="15.75" customHeight="1">
@@ -10763,7 +10759,7 @@
       <c r="B770" s="33"/>
       <c r="C770" s="28"/>
       <c r="D770" s="28"/>
-      <c r="E770" s="79"/>
+      <c r="E770" s="78"/>
       <c r="O770" s="33"/>
     </row>
     <row r="771" spans="1:15" ht="15.75" customHeight="1">
@@ -10771,7 +10767,7 @@
       <c r="B771" s="33"/>
       <c r="C771" s="28"/>
       <c r="D771" s="28"/>
-      <c r="E771" s="79"/>
+      <c r="E771" s="78"/>
       <c r="O771" s="33"/>
     </row>
     <row r="772" spans="1:15" ht="15.75" customHeight="1">
@@ -10779,7 +10775,7 @@
       <c r="B772" s="33"/>
       <c r="C772" s="28"/>
       <c r="D772" s="28"/>
-      <c r="E772" s="79"/>
+      <c r="E772" s="78"/>
       <c r="O772" s="33"/>
     </row>
     <row r="773" spans="1:15" ht="15.75" customHeight="1">
@@ -10787,7 +10783,7 @@
       <c r="B773" s="33"/>
       <c r="C773" s="28"/>
       <c r="D773" s="28"/>
-      <c r="E773" s="79"/>
+      <c r="E773" s="78"/>
       <c r="O773" s="33"/>
     </row>
     <row r="774" spans="1:15" ht="15.75" customHeight="1">
@@ -10795,7 +10791,7 @@
       <c r="B774" s="33"/>
       <c r="C774" s="28"/>
       <c r="D774" s="28"/>
-      <c r="E774" s="79"/>
+      <c r="E774" s="78"/>
       <c r="O774" s="33"/>
     </row>
     <row r="775" spans="1:15" ht="15.75" customHeight="1">
@@ -10803,7 +10799,7 @@
       <c r="B775" s="33"/>
       <c r="C775" s="28"/>
       <c r="D775" s="28"/>
-      <c r="E775" s="79"/>
+      <c r="E775" s="78"/>
       <c r="O775" s="33"/>
     </row>
     <row r="776" spans="1:15" ht="15.75" customHeight="1">
@@ -10811,7 +10807,7 @@
       <c r="B776" s="33"/>
       <c r="C776" s="28"/>
       <c r="D776" s="28"/>
-      <c r="E776" s="79"/>
+      <c r="E776" s="78"/>
       <c r="O776" s="33"/>
     </row>
     <row r="777" spans="1:15" ht="15.75" customHeight="1">
@@ -10819,7 +10815,7 @@
       <c r="B777" s="33"/>
       <c r="C777" s="28"/>
       <c r="D777" s="28"/>
-      <c r="E777" s="79"/>
+      <c r="E777" s="78"/>
       <c r="O777" s="33"/>
     </row>
     <row r="778" spans="1:15" ht="15.75" customHeight="1">
@@ -10827,7 +10823,7 @@
       <c r="B778" s="33"/>
       <c r="C778" s="28"/>
       <c r="D778" s="28"/>
-      <c r="E778" s="79"/>
+      <c r="E778" s="78"/>
       <c r="O778" s="33"/>
     </row>
     <row r="779" spans="1:15" ht="15.75" customHeight="1">
@@ -10835,7 +10831,7 @@
       <c r="B779" s="33"/>
       <c r="C779" s="28"/>
       <c r="D779" s="28"/>
-      <c r="E779" s="79"/>
+      <c r="E779" s="78"/>
       <c r="O779" s="33"/>
     </row>
     <row r="780" spans="1:15" ht="15.75" customHeight="1">
@@ -10843,7 +10839,7 @@
       <c r="B780" s="33"/>
       <c r="C780" s="28"/>
       <c r="D780" s="28"/>
-      <c r="E780" s="79"/>
+      <c r="E780" s="78"/>
       <c r="O780" s="33"/>
     </row>
     <row r="781" spans="1:15" ht="15.75" customHeight="1">
@@ -10851,7 +10847,7 @@
       <c r="B781" s="33"/>
       <c r="C781" s="28"/>
       <c r="D781" s="28"/>
-      <c r="E781" s="79"/>
+      <c r="E781" s="78"/>
       <c r="O781" s="33"/>
     </row>
     <row r="782" spans="1:15" ht="15.75" customHeight="1">
@@ -10859,7 +10855,7 @@
       <c r="B782" s="33"/>
       <c r="C782" s="28"/>
       <c r="D782" s="28"/>
-      <c r="E782" s="79"/>
+      <c r="E782" s="78"/>
       <c r="O782" s="33"/>
     </row>
     <row r="783" spans="1:15" ht="15.75" customHeight="1">
@@ -10867,7 +10863,7 @@
       <c r="B783" s="33"/>
       <c r="C783" s="28"/>
       <c r="D783" s="28"/>
-      <c r="E783" s="79"/>
+      <c r="E783" s="78"/>
       <c r="O783" s="33"/>
     </row>
     <row r="784" spans="1:15" ht="15.75" customHeight="1">
@@ -10875,7 +10871,7 @@
       <c r="B784" s="33"/>
       <c r="C784" s="28"/>
       <c r="D784" s="28"/>
-      <c r="E784" s="79"/>
+      <c r="E784" s="78"/>
       <c r="O784" s="33"/>
     </row>
     <row r="785" spans="1:15" ht="15.75" customHeight="1">
@@ -10883,7 +10879,7 @@
       <c r="B785" s="33"/>
       <c r="C785" s="28"/>
       <c r="D785" s="28"/>
-      <c r="E785" s="79"/>
+      <c r="E785" s="78"/>
       <c r="O785" s="33"/>
     </row>
     <row r="786" spans="1:15" ht="15.75" customHeight="1">
@@ -10891,7 +10887,7 @@
       <c r="B786" s="33"/>
       <c r="C786" s="28"/>
       <c r="D786" s="28"/>
-      <c r="E786" s="79"/>
+      <c r="E786" s="78"/>
       <c r="O786" s="33"/>
     </row>
     <row r="787" spans="1:15" ht="15.75" customHeight="1">
@@ -10899,7 +10895,7 @@
       <c r="B787" s="33"/>
       <c r="C787" s="28"/>
       <c r="D787" s="28"/>
-      <c r="E787" s="79"/>
+      <c r="E787" s="78"/>
       <c r="O787" s="33"/>
     </row>
     <row r="788" spans="1:15" ht="15.75" customHeight="1">
@@ -10907,7 +10903,7 @@
       <c r="B788" s="33"/>
       <c r="C788" s="28"/>
       <c r="D788" s="28"/>
-      <c r="E788" s="79"/>
+      <c r="E788" s="78"/>
       <c r="O788" s="33"/>
     </row>
     <row r="789" spans="1:15" ht="15.75" customHeight="1">
@@ -10915,7 +10911,7 @@
       <c r="B789" s="33"/>
       <c r="C789" s="28"/>
       <c r="D789" s="28"/>
-      <c r="E789" s="79"/>
+      <c r="E789" s="78"/>
       <c r="O789" s="33"/>
     </row>
     <row r="790" spans="1:15" ht="15.75" customHeight="1">
@@ -10923,7 +10919,7 @@
       <c r="B790" s="33"/>
       <c r="C790" s="28"/>
       <c r="D790" s="28"/>
-      <c r="E790" s="79"/>
+      <c r="E790" s="78"/>
       <c r="O790" s="33"/>
     </row>
     <row r="791" spans="1:15" ht="15.75" customHeight="1">
@@ -10931,7 +10927,7 @@
       <c r="B791" s="33"/>
       <c r="C791" s="28"/>
       <c r="D791" s="28"/>
-      <c r="E791" s="79"/>
+      <c r="E791" s="78"/>
       <c r="O791" s="33"/>
     </row>
     <row r="792" spans="1:15" ht="15.75" customHeight="1">
@@ -10939,7 +10935,7 @@
       <c r="B792" s="33"/>
       <c r="C792" s="28"/>
       <c r="D792" s="28"/>
-      <c r="E792" s="79"/>
+      <c r="E792" s="78"/>
       <c r="O792" s="33"/>
     </row>
     <row r="793" spans="1:15" ht="15.75" customHeight="1">
@@ -10947,7 +10943,7 @@
       <c r="B793" s="33"/>
       <c r="C793" s="28"/>
       <c r="D793" s="28"/>
-      <c r="E793" s="79"/>
+      <c r="E793" s="78"/>
       <c r="O793" s="33"/>
     </row>
     <row r="794" spans="1:15" ht="15.75" customHeight="1">
@@ -10955,7 +10951,7 @@
       <c r="B794" s="33"/>
       <c r="C794" s="28"/>
       <c r="D794" s="28"/>
-      <c r="E794" s="79"/>
+      <c r="E794" s="78"/>
       <c r="O794" s="33"/>
     </row>
     <row r="795" spans="1:15" ht="15.75" customHeight="1">
@@ -10963,7 +10959,7 @@
       <c r="B795" s="33"/>
       <c r="C795" s="28"/>
       <c r="D795" s="28"/>
-      <c r="E795" s="79"/>
+      <c r="E795" s="78"/>
       <c r="O795" s="33"/>
     </row>
     <row r="796" spans="1:15" ht="15.75" customHeight="1">
@@ -10971,7 +10967,7 @@
       <c r="B796" s="33"/>
       <c r="C796" s="28"/>
       <c r="D796" s="28"/>
-      <c r="E796" s="79"/>
+      <c r="E796" s="78"/>
       <c r="O796" s="33"/>
     </row>
     <row r="797" spans="1:15" ht="15.75" customHeight="1">
@@ -10979,7 +10975,7 @@
       <c r="B797" s="33"/>
       <c r="C797" s="28"/>
       <c r="D797" s="28"/>
-      <c r="E797" s="79"/>
+      <c r="E797" s="78"/>
       <c r="O797" s="33"/>
     </row>
     <row r="798" spans="1:15" ht="15.75" customHeight="1">
@@ -10987,7 +10983,7 @@
       <c r="B798" s="33"/>
       <c r="C798" s="28"/>
       <c r="D798" s="28"/>
-      <c r="E798" s="79"/>
+      <c r="E798" s="78"/>
       <c r="O798" s="33"/>
     </row>
     <row r="799" spans="1:15" ht="15.75" customHeight="1">
@@ -10995,7 +10991,7 @@
       <c r="B799" s="33"/>
       <c r="C799" s="28"/>
       <c r="D799" s="28"/>
-      <c r="E799" s="79"/>
+      <c r="E799" s="78"/>
       <c r="O799" s="33"/>
     </row>
     <row r="800" spans="1:15" ht="15.75" customHeight="1">
@@ -11003,7 +10999,7 @@
       <c r="B800" s="33"/>
       <c r="C800" s="28"/>
       <c r="D800" s="28"/>
-      <c r="E800" s="79"/>
+      <c r="E800" s="78"/>
       <c r="O800" s="33"/>
     </row>
     <row r="801" spans="1:15" ht="15.75" customHeight="1">
@@ -11011,7 +11007,7 @@
       <c r="B801" s="33"/>
       <c r="C801" s="28"/>
       <c r="D801" s="28"/>
-      <c r="E801" s="79"/>
+      <c r="E801" s="78"/>
       <c r="O801" s="33"/>
     </row>
     <row r="802" spans="1:15" ht="15.75" customHeight="1">
@@ -11019,7 +11015,7 @@
       <c r="B802" s="33"/>
       <c r="C802" s="28"/>
       <c r="D802" s="28"/>
-      <c r="E802" s="79"/>
+      <c r="E802" s="78"/>
       <c r="O802" s="33"/>
     </row>
     <row r="803" spans="1:15" ht="15.75" customHeight="1">
@@ -11027,7 +11023,7 @@
       <c r="B803" s="33"/>
       <c r="C803" s="28"/>
       <c r="D803" s="28"/>
-      <c r="E803" s="79"/>
+      <c r="E803" s="78"/>
       <c r="O803" s="33"/>
     </row>
     <row r="804" spans="1:15" ht="15.75" customHeight="1">
@@ -11035,7 +11031,7 @@
       <c r="B804" s="33"/>
       <c r="C804" s="28"/>
       <c r="D804" s="28"/>
-      <c r="E804" s="79"/>
+      <c r="E804" s="78"/>
       <c r="O804" s="33"/>
     </row>
     <row r="805" spans="1:15" ht="15.75" customHeight="1">
@@ -11043,7 +11039,7 @@
       <c r="B805" s="33"/>
       <c r="C805" s="28"/>
       <c r="D805" s="28"/>
-      <c r="E805" s="79"/>
+      <c r="E805" s="78"/>
       <c r="O805" s="33"/>
     </row>
     <row r="806" spans="1:15" ht="15.75" customHeight="1">
@@ -11051,7 +11047,7 @@
       <c r="B806" s="33"/>
       <c r="C806" s="28"/>
       <c r="D806" s="28"/>
-      <c r="E806" s="79"/>
+      <c r="E806" s="78"/>
       <c r="O806" s="33"/>
     </row>
     <row r="807" spans="1:15" ht="15.75" customHeight="1">
@@ -11059,7 +11055,7 @@
       <c r="B807" s="33"/>
       <c r="C807" s="28"/>
       <c r="D807" s="28"/>
-      <c r="E807" s="79"/>
+      <c r="E807" s="78"/>
       <c r="O807" s="33"/>
     </row>
     <row r="808" spans="1:15" ht="15.75" customHeight="1">
@@ -11067,7 +11063,7 @@
       <c r="B808" s="33"/>
       <c r="C808" s="28"/>
       <c r="D808" s="28"/>
-      <c r="E808" s="79"/>
+      <c r="E808" s="78"/>
       <c r="O808" s="33"/>
     </row>
     <row r="809" spans="1:15" ht="15.75" customHeight="1">
@@ -11075,7 +11071,7 @@
       <c r="B809" s="33"/>
       <c r="C809" s="28"/>
       <c r="D809" s="28"/>
-      <c r="E809" s="79"/>
+      <c r="E809" s="78"/>
       <c r="O809" s="33"/>
     </row>
     <row r="810" spans="1:15" ht="15.75" customHeight="1">
@@ -11083,7 +11079,7 @@
       <c r="B810" s="33"/>
       <c r="C810" s="28"/>
       <c r="D810" s="28"/>
-      <c r="E810" s="79"/>
+      <c r="E810" s="78"/>
       <c r="O810" s="33"/>
     </row>
     <row r="811" spans="1:15" ht="15.75" customHeight="1">
@@ -11091,7 +11087,7 @@
       <c r="B811" s="33"/>
       <c r="C811" s="28"/>
       <c r="D811" s="28"/>
-      <c r="E811" s="79"/>
+      <c r="E811" s="78"/>
       <c r="O811" s="33"/>
     </row>
     <row r="812" spans="1:15" ht="15.75" customHeight="1">
@@ -11099,7 +11095,7 @@
       <c r="B812" s="33"/>
       <c r="C812" s="28"/>
       <c r="D812" s="28"/>
-      <c r="E812" s="79"/>
+      <c r="E812" s="78"/>
       <c r="O812" s="33"/>
     </row>
     <row r="813" spans="1:15" ht="15.75" customHeight="1">
@@ -11107,7 +11103,7 @@
       <c r="B813" s="33"/>
       <c r="C813" s="28"/>
       <c r="D813" s="28"/>
-      <c r="E813" s="79"/>
+      <c r="E813" s="78"/>
       <c r="O813" s="33"/>
     </row>
     <row r="814" spans="1:15" ht="15.75" customHeight="1">
@@ -11115,7 +11111,7 @@
       <c r="B814" s="33"/>
       <c r="C814" s="28"/>
       <c r="D814" s="28"/>
-      <c r="E814" s="79"/>
+      <c r="E814" s="78"/>
       <c r="O814" s="33"/>
     </row>
     <row r="815" spans="1:15" ht="15.75" customHeight="1">
@@ -11123,7 +11119,7 @@
       <c r="B815" s="33"/>
       <c r="C815" s="28"/>
       <c r="D815" s="28"/>
-      <c r="E815" s="79"/>
+      <c r="E815" s="78"/>
       <c r="O815" s="33"/>
     </row>
     <row r="816" spans="1:15" ht="15.75" customHeight="1">
@@ -11131,7 +11127,7 @@
       <c r="B816" s="33"/>
       <c r="C816" s="28"/>
       <c r="D816" s="28"/>
-      <c r="E816" s="79"/>
+      <c r="E816" s="78"/>
       <c r="O816" s="33"/>
     </row>
     <row r="817" spans="1:15" ht="15.75" customHeight="1">
@@ -11139,7 +11135,7 @@
       <c r="B817" s="33"/>
       <c r="C817" s="28"/>
       <c r="D817" s="28"/>
-      <c r="E817" s="79"/>
+      <c r="E817" s="78"/>
       <c r="O817" s="33"/>
     </row>
     <row r="818" spans="1:15" ht="15.75" customHeight="1">
@@ -11147,7 +11143,7 @@
       <c r="B818" s="33"/>
       <c r="C818" s="28"/>
       <c r="D818" s="28"/>
-      <c r="E818" s="79"/>
+      <c r="E818" s="78"/>
       <c r="O818" s="33"/>
     </row>
     <row r="819" spans="1:15" ht="15.75" customHeight="1">
@@ -11155,7 +11151,7 @@
       <c r="B819" s="33"/>
       <c r="C819" s="28"/>
       <c r="D819" s="28"/>
-      <c r="E819" s="79"/>
+      <c r="E819" s="78"/>
       <c r="O819" s="33"/>
     </row>
     <row r="820" spans="1:15" ht="15.75" customHeight="1">
@@ -11163,7 +11159,7 @@
       <c r="B820" s="33"/>
       <c r="C820" s="28"/>
       <c r="D820" s="28"/>
-      <c r="E820" s="79"/>
+      <c r="E820" s="78"/>
       <c r="O820" s="33"/>
     </row>
     <row r="821" spans="1:15" ht="15.75" customHeight="1">
@@ -11171,7 +11167,7 @@
       <c r="B821" s="33"/>
       <c r="C821" s="28"/>
       <c r="D821" s="28"/>
-      <c r="E821" s="79"/>
+      <c r="E821" s="78"/>
       <c r="O821" s="33"/>
     </row>
     <row r="822" spans="1:15" ht="15.75" customHeight="1">
@@ -11179,7 +11175,7 @@
       <c r="B822" s="33"/>
       <c r="C822" s="28"/>
       <c r="D822" s="28"/>
-      <c r="E822" s="79"/>
+      <c r="E822" s="78"/>
       <c r="O822" s="33"/>
     </row>
     <row r="823" spans="1:15" ht="15.75" customHeight="1">
@@ -11187,7 +11183,7 @@
       <c r="B823" s="33"/>
       <c r="C823" s="28"/>
       <c r="D823" s="28"/>
-      <c r="E823" s="79"/>
+      <c r="E823" s="78"/>
       <c r="O823" s="33"/>
     </row>
     <row r="824" spans="1:15" ht="15.75" customHeight="1">
@@ -11195,7 +11191,7 @@
       <c r="B824" s="33"/>
       <c r="C824" s="28"/>
       <c r="D824" s="28"/>
-      <c r="E824" s="79"/>
+      <c r="E824" s="78"/>
       <c r="O824" s="33"/>
     </row>
     <row r="825" spans="1:15" ht="15.75" customHeight="1">
@@ -11203,7 +11199,7 @@
       <c r="B825" s="33"/>
       <c r="C825" s="28"/>
       <c r="D825" s="28"/>
-      <c r="E825" s="79"/>
+      <c r="E825" s="78"/>
       <c r="O825" s="33"/>
     </row>
     <row r="826" spans="1:15" ht="15.75" customHeight="1">
@@ -11211,7 +11207,7 @@
       <c r="B826" s="33"/>
       <c r="C826" s="28"/>
       <c r="D826" s="28"/>
-      <c r="E826" s="79"/>
+      <c r="E826" s="78"/>
       <c r="O826" s="33"/>
     </row>
     <row r="827" spans="1:15" ht="15.75" customHeight="1">
@@ -11219,7 +11215,7 @@
       <c r="B827" s="33"/>
       <c r="C827" s="28"/>
       <c r="D827" s="28"/>
-      <c r="E827" s="79"/>
+      <c r="E827" s="78"/>
       <c r="O827" s="33"/>
     </row>
     <row r="828" spans="1:15" ht="15.75" customHeight="1">
@@ -11227,7 +11223,7 @@
       <c r="B828" s="33"/>
       <c r="C828" s="28"/>
       <c r="D828" s="28"/>
-      <c r="E828" s="79"/>
+      <c r="E828" s="78"/>
       <c r="O828" s="33"/>
     </row>
     <row r="829" spans="1:15" ht="15.75" customHeight="1">
@@ -11235,7 +11231,7 @@
       <c r="B829" s="33"/>
       <c r="C829" s="28"/>
       <c r="D829" s="28"/>
-      <c r="E829" s="79"/>
+      <c r="E829" s="78"/>
       <c r="O829" s="33"/>
     </row>
     <row r="830" spans="1:15" ht="15.75" customHeight="1">
@@ -11243,7 +11239,7 @@
       <c r="B830" s="33"/>
       <c r="C830" s="28"/>
       <c r="D830" s="28"/>
-      <c r="E830" s="79"/>
+      <c r="E830" s="78"/>
       <c r="O830" s="33"/>
     </row>
     <row r="831" spans="1:15" ht="15.75" customHeight="1">
@@ -11251,7 +11247,7 @@
       <c r="B831" s="33"/>
       <c r="C831" s="28"/>
       <c r="D831" s="28"/>
-      <c r="E831" s="79"/>
+      <c r="E831" s="78"/>
       <c r="O831" s="33"/>
     </row>
     <row r="832" spans="1:15" ht="15.75" customHeight="1">
@@ -11259,7 +11255,7 @@
       <c r="B832" s="33"/>
       <c r="C832" s="28"/>
       <c r="D832" s="28"/>
-      <c r="E832" s="79"/>
+      <c r="E832" s="78"/>
       <c r="O832" s="33"/>
     </row>
     <row r="833" spans="1:15" ht="15.75" customHeight="1">
@@ -11267,7 +11263,7 @@
       <c r="B833" s="33"/>
       <c r="C833" s="28"/>
       <c r="D833" s="28"/>
-      <c r="E833" s="79"/>
+      <c r="E833" s="78"/>
       <c r="O833" s="33"/>
     </row>
     <row r="834" spans="1:15" ht="15.75" customHeight="1">
@@ -11275,7 +11271,7 @@
       <c r="B834" s="33"/>
       <c r="C834" s="28"/>
       <c r="D834" s="28"/>
-      <c r="E834" s="79"/>
+      <c r="E834" s="78"/>
       <c r="O834" s="33"/>
     </row>
     <row r="835" spans="1:15" ht="15.75" customHeight="1">
@@ -11283,7 +11279,7 @@
       <c r="B835" s="33"/>
       <c r="C835" s="28"/>
       <c r="D835" s="28"/>
-      <c r="E835" s="79"/>
+      <c r="E835" s="78"/>
       <c r="O835" s="33"/>
     </row>
     <row r="836" spans="1:15" ht="15.75" customHeight="1">
@@ -11291,7 +11287,7 @@
       <c r="B836" s="33"/>
       <c r="C836" s="28"/>
       <c r="D836" s="28"/>
-      <c r="E836" s="79"/>
+      <c r="E836" s="78"/>
       <c r="O836" s="33"/>
     </row>
     <row r="837" spans="1:15" ht="15.75" customHeight="1">
@@ -11299,7 +11295,7 @@
       <c r="B837" s="33"/>
       <c r="C837" s="28"/>
       <c r="D837" s="28"/>
-      <c r="E837" s="79"/>
+      <c r="E837" s="78"/>
       <c r="O837" s="33"/>
     </row>
     <row r="838" spans="1:15" ht="15.75" customHeight="1">
@@ -11307,7 +11303,7 @@
       <c r="B838" s="33"/>
       <c r="C838" s="28"/>
       <c r="D838" s="28"/>
-      <c r="E838" s="79"/>
+      <c r="E838" s="78"/>
       <c r="O838" s="33"/>
     </row>
     <row r="839" spans="1:15" ht="15.75" customHeight="1">
@@ -11315,7 +11311,7 @@
       <c r="B839" s="33"/>
       <c r="C839" s="28"/>
       <c r="D839" s="28"/>
-      <c r="E839" s="79"/>
+      <c r="E839" s="78"/>
       <c r="O839" s="33"/>
     </row>
     <row r="840" spans="1:15" ht="15.75" customHeight="1">
@@ -11323,7 +11319,7 @@
       <c r="B840" s="33"/>
       <c r="C840" s="28"/>
       <c r="D840" s="28"/>
-      <c r="E840" s="79"/>
+      <c r="E840" s="78"/>
       <c r="O840" s="33"/>
     </row>
     <row r="841" spans="1:15" ht="15.75" customHeight="1">
@@ -11331,7 +11327,7 @@
       <c r="B841" s="33"/>
       <c r="C841" s="28"/>
       <c r="D841" s="28"/>
-      <c r="E841" s="79"/>
+      <c r="E841" s="78"/>
       <c r="O841" s="33"/>
     </row>
     <row r="842" spans="1:15" ht="15.75" customHeight="1">
@@ -11339,7 +11335,7 @@
       <c r="B842" s="33"/>
       <c r="C842" s="28"/>
       <c r="D842" s="28"/>
-      <c r="E842" s="79"/>
+      <c r="E842" s="78"/>
       <c r="O842" s="33"/>
     </row>
     <row r="843" spans="1:15" ht="15.75" customHeight="1">
@@ -11347,7 +11343,7 @@
       <c r="B843" s="33"/>
       <c r="C843" s="28"/>
       <c r="D843" s="28"/>
-      <c r="E843" s="79"/>
+      <c r="E843" s="78"/>
       <c r="O843" s="33"/>
     </row>
     <row r="844" spans="1:15" ht="15.75" customHeight="1">
@@ -11355,7 +11351,7 @@
       <c r="B844" s="33"/>
       <c r="C844" s="28"/>
       <c r="D844" s="28"/>
-      <c r="E844" s="79"/>
+      <c r="E844" s="78"/>
       <c r="O844" s="33"/>
     </row>
     <row r="845" spans="1:15" ht="15.75" customHeight="1">
@@ -11363,7 +11359,7 @@
       <c r="B845" s="33"/>
       <c r="C845" s="28"/>
       <c r="D845" s="28"/>
-      <c r="E845" s="79"/>
+      <c r="E845" s="78"/>
       <c r="O845" s="33"/>
     </row>
     <row r="846" spans="1:15" ht="15.75" customHeight="1">
@@ -11371,7 +11367,7 @@
       <c r="B846" s="33"/>
       <c r="C846" s="28"/>
       <c r="D846" s="28"/>
-      <c r="E846" s="79"/>
+      <c r="E846" s="78"/>
       <c r="O846" s="33"/>
     </row>
     <row r="847" spans="1:15" ht="15.75" customHeight="1">
@@ -11379,7 +11375,7 @@
       <c r="B847" s="33"/>
       <c r="C847" s="28"/>
       <c r="D847" s="28"/>
-      <c r="E847" s="79"/>
+      <c r="E847" s="78"/>
       <c r="O847" s="33"/>
     </row>
     <row r="848" spans="1:15" ht="15.75" customHeight="1">
@@ -11387,7 +11383,7 @@
       <c r="B848" s="33"/>
       <c r="C848" s="28"/>
       <c r="D848" s="28"/>
-      <c r="E848" s="79"/>
+      <c r="E848" s="78"/>
       <c r="O848" s="33"/>
     </row>
     <row r="849" spans="1:15" ht="15.75" customHeight="1">
@@ -11395,7 +11391,7 @@
       <c r="B849" s="33"/>
       <c r="C849" s="28"/>
       <c r="D849" s="28"/>
-      <c r="E849" s="79"/>
+      <c r="E849" s="78"/>
       <c r="O849" s="33"/>
     </row>
     <row r="850" spans="1:15" ht="15.75" customHeight="1">
@@ -11403,7 +11399,7 @@
       <c r="B850" s="33"/>
       <c r="C850" s="28"/>
       <c r="D850" s="28"/>
-      <c r="E850" s="79"/>
+      <c r="E850" s="78"/>
       <c r="O850" s="33"/>
     </row>
     <row r="851" spans="1:15" ht="15.75" customHeight="1">
@@ -11411,7 +11407,7 @@
       <c r="B851" s="33"/>
       <c r="C851" s="28"/>
       <c r="D851" s="28"/>
-      <c r="E851" s="79"/>
+      <c r="E851" s="78"/>
       <c r="O851" s="33"/>
     </row>
     <row r="852" spans="1:15" ht="15.75" customHeight="1">
@@ -11419,7 +11415,7 @@
       <c r="B852" s="33"/>
       <c r="C852" s="28"/>
       <c r="D852" s="28"/>
-      <c r="E852" s="79"/>
+      <c r="E852" s="78"/>
       <c r="O852" s="33"/>
     </row>
     <row r="853" spans="1:15" ht="15.75" customHeight="1">
@@ -11427,7 +11423,7 @@
       <c r="B853" s="33"/>
       <c r="C853" s="28"/>
       <c r="D853" s="28"/>
-      <c r="E853" s="79"/>
+      <c r="E853" s="78"/>
       <c r="O853" s="33"/>
     </row>
     <row r="854" spans="1:15" ht="15.75" customHeight="1">
@@ -11435,7 +11431,7 @@
       <c r="B854" s="33"/>
       <c r="C854" s="28"/>
       <c r="D854" s="28"/>
-      <c r="E854" s="79"/>
+      <c r="E854" s="78"/>
       <c r="O854" s="33"/>
     </row>
     <row r="855" spans="1:15" ht="15.75" customHeight="1">
@@ -11443,7 +11439,7 @@
       <c r="B855" s="33"/>
       <c r="C855" s="28"/>
       <c r="D855" s="28"/>
-      <c r="E855" s="79"/>
+      <c r="E855" s="78"/>
       <c r="O855" s="33"/>
     </row>
     <row r="856" spans="1:15" ht="15.75" customHeight="1">
@@ -11451,7 +11447,7 @@
       <c r="B856" s="33"/>
       <c r="C856" s="28"/>
       <c r="D856" s="28"/>
-      <c r="E856" s="79"/>
+      <c r="E856" s="78"/>
       <c r="O856" s="33"/>
     </row>
     <row r="857" spans="1:15" ht="15.75" customHeight="1">
@@ -11459,7 +11455,7 @@
       <c r="B857" s="33"/>
       <c r="C857" s="28"/>
       <c r="D857" s="28"/>
-      <c r="E857" s="79"/>
+      <c r="E857" s="78"/>
       <c r="O857" s="33"/>
     </row>
     <row r="858" spans="1:15" ht="15.75" customHeight="1">
@@ -11467,7 +11463,7 @@
       <c r="B858" s="33"/>
       <c r="C858" s="28"/>
       <c r="D858" s="28"/>
-      <c r="E858" s="79"/>
+      <c r="E858" s="78"/>
       <c r="O858" s="33"/>
     </row>
     <row r="859" spans="1:15" ht="15.75" customHeight="1">
@@ -11475,7 +11471,7 @@
       <c r="B859" s="33"/>
       <c r="C859" s="28"/>
       <c r="D859" s="28"/>
-      <c r="E859" s="79"/>
+      <c r="E859" s="78"/>
       <c r="O859" s="33"/>
     </row>
     <row r="860" spans="1:15" ht="15.75" customHeight="1">
@@ -11483,7 +11479,7 @@
       <c r="B860" s="33"/>
       <c r="C860" s="28"/>
       <c r="D860" s="28"/>
-      <c r="E860" s="79"/>
+      <c r="E860" s="78"/>
       <c r="O860" s="33"/>
     </row>
     <row r="861" spans="1:15" ht="15.75" customHeight="1">
@@ -11491,7 +11487,7 @@
       <c r="B861" s="33"/>
       <c r="C861" s="28"/>
       <c r="D861" s="28"/>
-      <c r="E861" s="79"/>
+      <c r="E861" s="78"/>
       <c r="O861" s="33"/>
     </row>
     <row r="862" spans="1:15" ht="15.75" customHeight="1">
@@ -11499,7 +11495,7 @@
       <c r="B862" s="33"/>
       <c r="C862" s="28"/>
       <c r="D862" s="28"/>
-      <c r="E862" s="79"/>
+      <c r="E862" s="78"/>
       <c r="O862" s="33"/>
     </row>
     <row r="863" spans="1:15" ht="15.75" customHeight="1">
@@ -11507,7 +11503,7 @@
       <c r="B863" s="33"/>
       <c r="C863" s="28"/>
       <c r="D863" s="28"/>
-      <c r="E863" s="79"/>
+      <c r="E863" s="78"/>
       <c r="O863" s="33"/>
     </row>
     <row r="864" spans="1:15" ht="15.75" customHeight="1">
@@ -11515,7 +11511,7 @@
       <c r="B864" s="33"/>
       <c r="C864" s="28"/>
       <c r="D864" s="28"/>
-      <c r="E864" s="79"/>
+      <c r="E864" s="78"/>
       <c r="O864" s="33"/>
     </row>
     <row r="865" spans="1:15" ht="15.75" customHeight="1">
@@ -11523,7 +11519,7 @@
       <c r="B865" s="33"/>
       <c r="C865" s="28"/>
       <c r="D865" s="28"/>
-      <c r="E865" s="79"/>
+      <c r="E865" s="78"/>
       <c r="O865" s="33"/>
     </row>
     <row r="866" spans="1:15" ht="15.75" customHeight="1">
@@ -11531,7 +11527,7 @@
       <c r="B866" s="33"/>
       <c r="C866" s="28"/>
       <c r="D866" s="28"/>
-      <c r="E866" s="79"/>
+      <c r="E866" s="78"/>
       <c r="O866" s="33"/>
     </row>
     <row r="867" spans="1:15" ht="15.75" customHeight="1">
@@ -11539,7 +11535,7 @@
       <c r="B867" s="33"/>
       <c r="C867" s="28"/>
       <c r="D867" s="28"/>
-      <c r="E867" s="79"/>
+      <c r="E867" s="78"/>
       <c r="O867" s="33"/>
     </row>
     <row r="868" spans="1:15" ht="15.75" customHeight="1">
@@ -11547,7 +11543,7 @@
       <c r="B868" s="33"/>
       <c r="C868" s="28"/>
       <c r="D868" s="28"/>
-      <c r="E868" s="79"/>
+      <c r="E868" s="78"/>
       <c r="O868" s="33"/>
     </row>
     <row r="869" spans="1:15" ht="15.75" customHeight="1">
@@ -11555,7 +11551,7 @@
       <c r="B869" s="33"/>
       <c r="C869" s="28"/>
       <c r="D869" s="28"/>
-      <c r="E869" s="79"/>
+      <c r="E869" s="78"/>
       <c r="O869" s="33"/>
     </row>
     <row r="870" spans="1:15" ht="15.75" customHeight="1">
@@ -11563,7 +11559,7 @@
       <c r="B870" s="33"/>
       <c r="C870" s="28"/>
       <c r="D870" s="28"/>
-      <c r="E870" s="79"/>
+      <c r="E870" s="78"/>
       <c r="O870" s="33"/>
     </row>
     <row r="871" spans="1:15" ht="15.75" customHeight="1">
@@ -11571,7 +11567,7 @@
       <c r="B871" s="33"/>
       <c r="C871" s="28"/>
       <c r="D871" s="28"/>
-      <c r="E871" s="79"/>
+      <c r="E871" s="78"/>
       <c r="O871" s="33"/>
     </row>
     <row r="872" spans="1:15" ht="15.75" customHeight="1">
@@ -11579,7 +11575,7 @@
       <c r="B872" s="33"/>
       <c r="C872" s="28"/>
       <c r="D872" s="28"/>
-      <c r="E872" s="79"/>
+      <c r="E872" s="78"/>
       <c r="O872" s="33"/>
     </row>
     <row r="873" spans="1:15" ht="15.75" customHeight="1">
@@ -11587,7 +11583,7 @@
       <c r="B873" s="33"/>
       <c r="C873" s="28"/>
       <c r="D873" s="28"/>
-      <c r="E873" s="79"/>
+      <c r="E873" s="78"/>
       <c r="O873" s="33"/>
     </row>
     <row r="874" spans="1:15" ht="15.75" customHeight="1">
@@ -11595,7 +11591,7 @@
       <c r="B874" s="33"/>
       <c r="C874" s="28"/>
       <c r="D874" s="28"/>
-      <c r="E874" s="79"/>
+      <c r="E874" s="78"/>
       <c r="O874" s="33"/>
     </row>
     <row r="875" spans="1:15" ht="15.75" customHeight="1">
@@ -11603,7 +11599,7 @@
       <c r="B875" s="33"/>
       <c r="C875" s="28"/>
       <c r="D875" s="28"/>
-      <c r="E875" s="79"/>
+      <c r="E875" s="78"/>
       <c r="O875" s="33"/>
     </row>
     <row r="876" spans="1:15" ht="15.75" customHeight="1">
@@ -11611,7 +11607,7 @@
       <c r="B876" s="33"/>
       <c r="C876" s="28"/>
       <c r="D876" s="28"/>
-      <c r="E876" s="79"/>
+      <c r="E876" s="78"/>
       <c r="O876" s="33"/>
     </row>
     <row r="877" spans="1:15" ht="15.75" customHeight="1">
@@ -11619,7 +11615,7 @@
       <c r="B877" s="33"/>
       <c r="C877" s="28"/>
       <c r="D877" s="28"/>
-      <c r="E877" s="79"/>
+      <c r="E877" s="78"/>
       <c r="O877" s="33"/>
     </row>
     <row r="878" spans="1:15" ht="15.75" customHeight="1">
@@ -11627,7 +11623,7 @@
       <c r="B878" s="33"/>
       <c r="C878" s="28"/>
       <c r="D878" s="28"/>
-      <c r="E878" s="79"/>
+      <c r="E878" s="78"/>
       <c r="O878" s="33"/>
     </row>
     <row r="879" spans="1:15" ht="15.75" customHeight="1">
@@ -11635,7 +11631,7 @@
       <c r="B879" s="33"/>
       <c r="C879" s="28"/>
       <c r="D879" s="28"/>
-      <c r="E879" s="79"/>
+      <c r="E879" s="78"/>
       <c r="O879" s="33"/>
     </row>
     <row r="880" spans="1:15" ht="15.75" customHeight="1">
@@ -11643,7 +11639,7 @@
       <c r="B880" s="33"/>
       <c r="C880" s="28"/>
       <c r="D880" s="28"/>
-      <c r="E880" s="79"/>
+      <c r="E880" s="78"/>
       <c r="O880" s="33"/>
     </row>
     <row r="881" spans="1:15" ht="15.75" customHeight="1">
@@ -11651,7 +11647,7 @@
       <c r="B881" s="33"/>
       <c r="C881" s="28"/>
       <c r="D881" s="28"/>
-      <c r="E881" s="79"/>
+      <c r="E881" s="78"/>
       <c r="O881" s="33"/>
     </row>
     <row r="882" spans="1:15" ht="15.75" customHeight="1">
@@ -11659,7 +11655,7 @@
       <c r="B882" s="33"/>
       <c r="C882" s="28"/>
       <c r="D882" s="28"/>
-      <c r="E882" s="79"/>
+      <c r="E882" s="78"/>
       <c r="O882" s="33"/>
     </row>
     <row r="883" spans="1:15" ht="15.75" customHeight="1">
@@ -11667,7 +11663,7 @@
       <c r="B883" s="33"/>
       <c r="C883" s="28"/>
       <c r="D883" s="28"/>
-      <c r="E883" s="79"/>
+      <c r="E883" s="78"/>
       <c r="O883" s="33"/>
     </row>
     <row r="884" spans="1:15" ht="15.75" customHeight="1">
@@ -11675,7 +11671,7 @@
       <c r="B884" s="33"/>
       <c r="C884" s="28"/>
       <c r="D884" s="28"/>
-      <c r="E884" s="79"/>
+      <c r="E884" s="78"/>
       <c r="O884" s="33"/>
     </row>
     <row r="885" spans="1:15" ht="15.75" customHeight="1">
@@ -11683,7 +11679,7 @@
       <c r="B885" s="33"/>
       <c r="C885" s="28"/>
       <c r="D885" s="28"/>
-      <c r="E885" s="79"/>
+      <c r="E885" s="78"/>
       <c r="O885" s="33"/>
     </row>
     <row r="886" spans="1:15" ht="15.75" customHeight="1">
@@ -11691,7 +11687,7 @@
       <c r="B886" s="33"/>
       <c r="C886" s="28"/>
       <c r="D886" s="28"/>
-      <c r="E886" s="79"/>
+      <c r="E886" s="78"/>
       <c r="O886" s="33"/>
     </row>
     <row r="887" spans="1:15" ht="15.75" customHeight="1">
@@ -11699,7 +11695,7 @@
       <c r="B887" s="33"/>
       <c r="C887" s="28"/>
       <c r="D887" s="28"/>
-      <c r="E887" s="79"/>
+      <c r="E887" s="78"/>
       <c r="O887" s="33"/>
     </row>
     <row r="888" spans="1:15" ht="15.75" customHeight="1">
@@ -11707,7 +11703,7 @@
       <c r="B888" s="33"/>
       <c r="C888" s="28"/>
       <c r="D888" s="28"/>
-      <c r="E888" s="79"/>
+      <c r="E888" s="78"/>
       <c r="O888" s="33"/>
     </row>
     <row r="889" spans="1:15" ht="15.75" customHeight="1">
@@ -11715,7 +11711,7 @@
       <c r="B889" s="33"/>
       <c r="C889" s="28"/>
       <c r="D889" s="28"/>
-      <c r="E889" s="79"/>
+      <c r="E889" s="78"/>
       <c r="O889" s="33"/>
     </row>
     <row r="890" spans="1:15" ht="15.75" customHeight="1">
@@ -11723,7 +11719,7 @@
       <c r="B890" s="33"/>
       <c r="C890" s="28"/>
       <c r="D890" s="28"/>
-      <c r="E890" s="79"/>
+      <c r="E890" s="78"/>
       <c r="O890" s="33"/>
     </row>
     <row r="891" spans="1:15" ht="15.75" customHeight="1">
@@ -11731,7 +11727,7 @@
       <c r="B891" s="33"/>
       <c r="C891" s="28"/>
       <c r="D891" s="28"/>
-      <c r="E891" s="79"/>
+      <c r="E891" s="78"/>
       <c r="O891" s="33"/>
     </row>
     <row r="892" spans="1:15" ht="15.75" customHeight="1">
@@ -11739,7 +11735,7 @@
       <c r="B892" s="33"/>
       <c r="C892" s="28"/>
       <c r="D892" s="28"/>
-      <c r="E892" s="79"/>
+      <c r="E892" s="78"/>
       <c r="O892" s="33"/>
     </row>
     <row r="893" spans="1:15" ht="15.75" customHeight="1">
@@ -11747,7 +11743,7 @@
       <c r="B893" s="33"/>
       <c r="C893" s="28"/>
       <c r="D893" s="28"/>
-      <c r="E893" s="79"/>
+      <c r="E893" s="78"/>
       <c r="O893" s="33"/>
     </row>
     <row r="894" spans="1:15" ht="15.75" customHeight="1">
@@ -11755,7 +11751,7 @@
       <c r="B894" s="33"/>
       <c r="C894" s="28"/>
       <c r="D894" s="28"/>
-      <c r="E894" s="79"/>
+      <c r="E894" s="78"/>
       <c r="O894" s="33"/>
     </row>
     <row r="895" spans="1:15" ht="15.75" customHeight="1">
@@ -11763,7 +11759,7 @@
       <c r="B895" s="33"/>
       <c r="C895" s="28"/>
       <c r="D895" s="28"/>
-      <c r="E895" s="79"/>
+      <c r="E895" s="78"/>
       <c r="O895" s="33"/>
     </row>
     <row r="896" spans="1:15" ht="15.75" customHeight="1">
@@ -11771,7 +11767,7 @@
       <c r="B896" s="33"/>
       <c r="C896" s="28"/>
       <c r="D896" s="28"/>
-      <c r="E896" s="79"/>
+      <c r="E896" s="78"/>
       <c r="O896" s="33"/>
     </row>
     <row r="897" spans="1:15" ht="15.75" customHeight="1">
@@ -11779,7 +11775,7 @@
       <c r="B897" s="33"/>
       <c r="C897" s="28"/>
       <c r="D897" s="28"/>
-      <c r="E897" s="79"/>
+      <c r="E897" s="78"/>
       <c r="O897" s="33"/>
     </row>
     <row r="898" spans="1:15" ht="15.75" customHeight="1">
@@ -11787,7 +11783,7 @@
       <c r="B898" s="33"/>
       <c r="C898" s="28"/>
       <c r="D898" s="28"/>
-      <c r="E898" s="79"/>
+      <c r="E898" s="78"/>
       <c r="O898" s="33"/>
     </row>
     <row r="899" spans="1:15" ht="15.75" customHeight="1">
@@ -11795,7 +11791,7 @@
       <c r="B899" s="33"/>
       <c r="C899" s="28"/>
       <c r="D899" s="28"/>
-      <c r="E899" s="79"/>
+      <c r="E899" s="78"/>
       <c r="O899" s="33"/>
     </row>
     <row r="900" spans="1:15" ht="15.75" customHeight="1">
@@ -11803,7 +11799,7 @@
       <c r="B900" s="33"/>
       <c r="C900" s="28"/>
       <c r="D900" s="28"/>
-      <c r="E900" s="79"/>
+      <c r="E900" s="78"/>
       <c r="O900" s="33"/>
     </row>
     <row r="901" spans="1:15" ht="15.75" customHeight="1">
@@ -11811,7 +11807,7 @@
       <c r="B901" s="33"/>
       <c r="C901" s="28"/>
       <c r="D901" s="28"/>
-      <c r="E901" s="79"/>
+      <c r="E901" s="78"/>
       <c r="O901" s="33"/>
     </row>
     <row r="902" spans="1:15" ht="15.75" customHeight="1">
@@ -11819,7 +11815,7 @@
       <c r="B902" s="33"/>
       <c r="C902" s="28"/>
       <c r="D902" s="28"/>
-      <c r="E902" s="79"/>
+      <c r="E902" s="78"/>
       <c r="O902" s="33"/>
     </row>
     <row r="903" spans="1:15" ht="15.75" customHeight="1">
@@ -11827,7 +11823,7 @@
       <c r="B903" s="33"/>
       <c r="C903" s="28"/>
       <c r="D903" s="28"/>
-      <c r="E903" s="79"/>
+      <c r="E903" s="78"/>
       <c r="O903" s="33"/>
     </row>
     <row r="904" spans="1:15" ht="15.75" customHeight="1">
@@ -11835,7 +11831,7 @@
       <c r="B904" s="33"/>
       <c r="C904" s="28"/>
       <c r="D904" s="28"/>
-      <c r="E904" s="79"/>
+      <c r="E904" s="78"/>
       <c r="O904" s="33"/>
     </row>
     <row r="905" spans="1:15" ht="15.75" customHeight="1">
@@ -11843,7 +11839,7 @@
       <c r="B905" s="33"/>
       <c r="C905" s="28"/>
       <c r="D905" s="28"/>
-      <c r="E905" s="79"/>
+      <c r="E905" s="78"/>
       <c r="O905" s="33"/>
     </row>
     <row r="906" spans="1:15" ht="15.75" customHeight="1">
@@ -11851,7 +11847,7 @@
       <c r="B906" s="33"/>
       <c r="C906" s="28"/>
       <c r="D906" s="28"/>
-      <c r="E906" s="79"/>
+      <c r="E906" s="78"/>
       <c r="O906" s="33"/>
     </row>
     <row r="907" spans="1:15" ht="15.75" customHeight="1">
@@ -11859,7 +11855,7 @@
       <c r="B907" s="33"/>
       <c r="C907" s="28"/>
       <c r="D907" s="28"/>
-      <c r="E907" s="79"/>
+      <c r="E907" s="78"/>
       <c r="O907" s="33"/>
     </row>
     <row r="908" spans="1:15" ht="15.75" customHeight="1">
@@ -11867,7 +11863,7 @@
       <c r="B908" s="33"/>
       <c r="C908" s="28"/>
       <c r="D908" s="28"/>
-      <c r="E908" s="79"/>
+      <c r="E908" s="78"/>
       <c r="O908" s="33"/>
     </row>
     <row r="909" spans="1:15" ht="15.75" customHeight="1">
@@ -11875,7 +11871,7 @@
       <c r="B909" s="33"/>
       <c r="C909" s="28"/>
       <c r="D909" s="28"/>
-      <c r="E909" s="79"/>
+      <c r="E909" s="78"/>
       <c r="O909" s="33"/>
     </row>
     <row r="910" spans="1:15" ht="15.75" customHeight="1">
@@ -11883,7 +11879,7 @@
       <c r="B910" s="33"/>
       <c r="C910" s="28"/>
       <c r="D910" s="28"/>
-      <c r="E910" s="79"/>
+      <c r="E910" s="78"/>
       <c r="O910" s="33"/>
     </row>
     <row r="911" spans="1:15" ht="15.75" customHeight="1">
@@ -11891,7 +11887,7 @@
       <c r="B911" s="33"/>
       <c r="C911" s="28"/>
       <c r="D911" s="28"/>
-      <c r="E911" s="79"/>
+      <c r="E911" s="78"/>
       <c r="O911" s="33"/>
     </row>
     <row r="912" spans="1:15" ht="15.75" customHeight="1">
@@ -11899,7 +11895,7 @@
       <c r="B912" s="33"/>
       <c r="C912" s="28"/>
       <c r="D912" s="28"/>
-      <c r="E912" s="79"/>
+      <c r="E912" s="78"/>
       <c r="O912" s="33"/>
     </row>
     <row r="913" spans="1:15" ht="15.75" customHeight="1">
@@ -11907,7 +11903,7 @@
       <c r="B913" s="33"/>
       <c r="C913" s="28"/>
       <c r="D913" s="28"/>
-      <c r="E913" s="79"/>
+      <c r="E913" s="78"/>
       <c r="O913" s="33"/>
     </row>
     <row r="914" spans="1:15" ht="15.75" customHeight="1">
@@ -11915,7 +11911,7 @@
       <c r="B914" s="33"/>
       <c r="C914" s="28"/>
       <c r="D914" s="28"/>
-      <c r="E914" s="79"/>
+      <c r="E914" s="78"/>
       <c r="O914" s="33"/>
     </row>
     <row r="915" spans="1:15" ht="15.75" customHeight="1">
@@ -11923,7 +11919,7 @@
       <c r="B915" s="33"/>
       <c r="C915" s="28"/>
       <c r="D915" s="28"/>
-      <c r="E915" s="79"/>
+      <c r="E915" s="78"/>
       <c r="O915" s="33"/>
     </row>
     <row r="916" spans="1:15" ht="15.75" customHeight="1">
@@ -11931,7 +11927,7 @@
       <c r="B916" s="33"/>
       <c r="C916" s="28"/>
       <c r="D916" s="28"/>
-      <c r="E916" s="79"/>
+      <c r="E916" s="78"/>
       <c r="O916" s="33"/>
     </row>
     <row r="917" spans="1:15" ht="15.75" customHeight="1">
@@ -11939,7 +11935,7 @@
       <c r="B917" s="33"/>
       <c r="C917" s="28"/>
       <c r="D917" s="28"/>
-      <c r="E917" s="79"/>
+      <c r="E917" s="78"/>
       <c r="O917" s="33"/>
     </row>
     <row r="918" spans="1:15" ht="15.75" customHeight="1">
@@ -11947,7 +11943,7 @@
       <c r="B918" s="33"/>
       <c r="C918" s="28"/>
       <c r="D918" s="28"/>
-      <c r="E918" s="79"/>
+      <c r="E918" s="78"/>
       <c r="O918" s="33"/>
     </row>
     <row r="919" spans="1:15" ht="15.75" customHeight="1">
@@ -11955,7 +11951,7 @@
       <c r="B919" s="33"/>
       <c r="C919" s="28"/>
       <c r="D919" s="28"/>
-      <c r="E919" s="79"/>
+      <c r="E919" s="78"/>
       <c r="O919" s="33"/>
     </row>
     <row r="920" spans="1:15" ht="15.75" customHeight="1">
@@ -11963,7 +11959,7 @@
       <c r="B920" s="33"/>
       <c r="C920" s="28"/>
       <c r="D920" s="28"/>
-      <c r="E920" s="79"/>
+      <c r="E920" s="78"/>
       <c r="O920" s="33"/>
     </row>
     <row r="921" spans="1:15" ht="15.75" customHeight="1">
@@ -11971,7 +11967,7 @@
       <c r="B921" s="33"/>
       <c r="C921" s="28"/>
       <c r="D921" s="28"/>
-      <c r="E921" s="79"/>
+      <c r="E921" s="78"/>
       <c r="O921" s="33"/>
     </row>
     <row r="922" spans="1:15" ht="15.75" customHeight="1">
@@ -11979,7 +11975,7 @@
       <c r="B922" s="33"/>
       <c r="C922" s="28"/>
       <c r="D922" s="28"/>
-      <c r="E922" s="79"/>
+      <c r="E922" s="78"/>
       <c r="O922" s="33"/>
     </row>
     <row r="923" spans="1:15" ht="15.75" customHeight="1">
@@ -11987,7 +11983,7 @@
       <c r="B923" s="33"/>
       <c r="C923" s="28"/>
       <c r="D923" s="28"/>
-      <c r="E923" s="79"/>
+      <c r="E923" s="78"/>
       <c r="O923" s="33"/>
     </row>
     <row r="924" spans="1:15" ht="15.75" customHeight="1">
@@ -11995,7 +11991,7 @@
       <c r="B924" s="33"/>
       <c r="C924" s="28"/>
       <c r="D924" s="28"/>
-      <c r="E924" s="79"/>
+      <c r="E924" s="78"/>
       <c r="O924" s="33"/>
     </row>
     <row r="925" spans="1:15" ht="15.75" customHeight="1">
@@ -12003,7 +11999,7 @@
       <c r="B925" s="33"/>
       <c r="C925" s="28"/>
       <c r="D925" s="28"/>
-      <c r="E925" s="79"/>
+      <c r="E925" s="78"/>
       <c r="O925" s="33"/>
     </row>
     <row r="926" spans="1:15" ht="15.75" customHeight="1">
@@ -12011,7 +12007,7 @@
       <c r="B926" s="33"/>
       <c r="C926" s="28"/>
       <c r="D926" s="28"/>
-      <c r="E926" s="79"/>
+      <c r="E926" s="78"/>
       <c r="O926" s="33"/>
     </row>
     <row r="927" spans="1:15" ht="15.75" customHeight="1">
@@ -12019,7 +12015,7 @@
       <c r="B927" s="33"/>
       <c r="C927" s="28"/>
       <c r="D927" s="28"/>
-      <c r="E927" s="79"/>
+      <c r="E927" s="78"/>
       <c r="O927" s="33"/>
     </row>
     <row r="928" spans="1:15" ht="15.75" customHeight="1">
@@ -12027,7 +12023,7 @@
       <c r="B928" s="33"/>
       <c r="C928" s="28"/>
       <c r="D928" s="28"/>
-      <c r="E928" s="79"/>
+      <c r="E928" s="78"/>
       <c r="O928" s="33"/>
     </row>
     <row r="929" spans="1:15" ht="15.75" customHeight="1">
@@ -12035,7 +12031,7 @@
       <c r="B929" s="33"/>
       <c r="C929" s="28"/>
       <c r="D929" s="28"/>
-      <c r="E929" s="79"/>
+      <c r="E929" s="78"/>
       <c r="O929" s="33"/>
     </row>
     <row r="930" spans="1:15" ht="15.75" customHeight="1">
@@ -12043,7 +12039,7 @@
       <c r="B930" s="33"/>
       <c r="C930" s="28"/>
       <c r="D930" s="28"/>
-      <c r="E930" s="79"/>
+      <c r="E930" s="78"/>
       <c r="O930" s="33"/>
     </row>
     <row r="931" spans="1:15" ht="15.75" customHeight="1">
@@ -12051,7 +12047,7 @@
       <c r="B931" s="33"/>
       <c r="C931" s="28"/>
       <c r="D931" s="28"/>
-      <c r="E931" s="79"/>
+      <c r="E931" s="78"/>
       <c r="O931" s="33"/>
     </row>
     <row r="932" spans="1:15" ht="15.75" customHeight="1">
@@ -12059,7 +12055,7 @@
       <c r="B932" s="33"/>
       <c r="C932" s="28"/>
       <c r="D932" s="28"/>
-      <c r="E932" s="79"/>
+      <c r="E932" s="78"/>
       <c r="O932" s="33"/>
     </row>
     <row r="933" spans="1:15" ht="15.75" customHeight="1">
@@ -12067,7 +12063,7 @@
       <c r="B933" s="33"/>
       <c r="C933" s="28"/>
       <c r="D933" s="28"/>
-      <c r="E933" s="79"/>
+      <c r="E933" s="78"/>
       <c r="O933" s="33"/>
     </row>
     <row r="934" spans="1:15" ht="15.75" customHeight="1">
@@ -12075,7 +12071,7 @@
       <c r="B934" s="33"/>
       <c r="C934" s="28"/>
       <c r="D934" s="28"/>
-      <c r="E934" s="79"/>
+      <c r="E934" s="78"/>
       <c r="O934" s="33"/>
     </row>
     <row r="935" spans="1:15" ht="15.75" customHeight="1">
@@ -12083,7 +12079,7 @@
       <c r="B935" s="33"/>
       <c r="C935" s="28"/>
       <c r="D935" s="28"/>
-      <c r="E935" s="79"/>
+      <c r="E935" s="78"/>
       <c r="O935" s="33"/>
     </row>
     <row r="936" spans="1:15" ht="15.75" customHeight="1">
@@ -12091,7 +12087,7 @@
       <c r="B936" s="33"/>
       <c r="C936" s="28"/>
       <c r="D936" s="28"/>
-      <c r="E936" s="79"/>
+      <c r="E936" s="78"/>
       <c r="O936" s="33"/>
     </row>
     <row r="937" spans="1:15" ht="15.75" customHeight="1">
@@ -12099,7 +12095,7 @@
       <c r="B937" s="33"/>
       <c r="C937" s="28"/>
       <c r="D937" s="28"/>
-      <c r="E937" s="79"/>
+      <c r="E937" s="78"/>
       <c r="O937" s="33"/>
     </row>
     <row r="938" spans="1:15" ht="15.75" customHeight="1">
@@ -12107,7 +12103,7 @@
       <c r="B938" s="33"/>
       <c r="C938" s="28"/>
       <c r="D938" s="28"/>
-      <c r="E938" s="79"/>
+      <c r="E938" s="78"/>
       <c r="O938" s="33"/>
     </row>
     <row r="939" spans="1:15" ht="15.75" customHeight="1">
@@ -12115,7 +12111,7 @@
       <c r="B939" s="33"/>
       <c r="C939" s="28"/>
       <c r="D939" s="28"/>
-      <c r="E939" s="79"/>
+      <c r="E939" s="78"/>
       <c r="O939" s="33"/>
     </row>
     <row r="940" spans="1:15" ht="15.75" customHeight="1">
@@ -12123,7 +12119,7 @@
       <c r="B940" s="33"/>
       <c r="C940" s="28"/>
       <c r="D940" s="28"/>
-      <c r="E940" s="79"/>
+      <c r="E940" s="78"/>
       <c r="O940" s="33"/>
     </row>
     <row r="941" spans="1:15" ht="15.75" customHeight="1">
@@ -12131,7 +12127,7 @@
       <c r="B941" s="33"/>
       <c r="C941" s="28"/>
       <c r="D941" s="28"/>
-      <c r="E941" s="79"/>
+      <c r="E941" s="78"/>
       <c r="O941" s="33"/>
     </row>
     <row r="942" spans="1:15" ht="15.75" customHeight="1">
@@ -12139,7 +12135,7 @@
       <c r="B942" s="33"/>
       <c r="C942" s="28"/>
       <c r="D942" s="28"/>
-      <c r="E942" s="79"/>
+      <c r="E942" s="78"/>
       <c r="O942" s="33"/>
     </row>
     <row r="943" spans="1:15" ht="15.75" customHeight="1">
@@ -12147,7 +12143,7 @@
       <c r="B943" s="33"/>
       <c r="C943" s="28"/>
       <c r="D943" s="28"/>
-      <c r="E943" s="79"/>
+      <c r="E943" s="78"/>
       <c r="O943" s="33"/>
     </row>
     <row r="944" spans="1:15" ht="15.75" customHeight="1">
@@ -12155,7 +12151,7 @@
       <c r="B944" s="33"/>
       <c r="C944" s="28"/>
       <c r="D944" s="28"/>
-      <c r="E944" s="79"/>
+      <c r="E944" s="78"/>
       <c r="O944" s="33"/>
     </row>
     <row r="945" spans="1:15" ht="15.75" customHeight="1">
@@ -12163,7 +12159,7 @@
       <c r="B945" s="33"/>
       <c r="C945" s="28"/>
       <c r="D945" s="28"/>
-      <c r="E945" s="79"/>
+      <c r="E945" s="78"/>
       <c r="O945" s="33"/>
     </row>
     <row r="946" spans="1:15" ht="15.75" customHeight="1">
@@ -12171,7 +12167,7 @@
       <c r="B946" s="33"/>
       <c r="C946" s="28"/>
       <c r="D946" s="28"/>
-      <c r="E946" s="79"/>
+      <c r="E946" s="78"/>
       <c r="O946" s="33"/>
     </row>
     <row r="947" spans="1:15" ht="15.75" customHeight="1">
@@ -12179,7 +12175,7 @@
       <c r="B947" s="33"/>
       <c r="C947" s="28"/>
       <c r="D947" s="28"/>
-      <c r="E947" s="79"/>
+      <c r="E947" s="78"/>
       <c r="O947" s="33"/>
     </row>
     <row r="948" spans="1:15" ht="15.75" customHeight="1">
@@ -12187,7 +12183,7 @@
       <c r="B948" s="33"/>
       <c r="C948" s="28"/>
       <c r="D948" s="28"/>
-      <c r="E948" s="79"/>
+      <c r="E948" s="78"/>
       <c r="O948" s="33"/>
     </row>
     <row r="949" spans="1:15" ht="15.75" customHeight="1">
@@ -12195,7 +12191,7 @@
       <c r="B949" s="33"/>
       <c r="C949" s="28"/>
       <c r="D949" s="28"/>
-      <c r="E949" s="79"/>
+      <c r="E949" s="78"/>
       <c r="O949" s="33"/>
     </row>
     <row r="950" spans="1:15" ht="15.75" customHeight="1">
@@ -12203,7 +12199,7 @@
       <c r="B950" s="33"/>
       <c r="C950" s="28"/>
       <c r="D950" s="28"/>
-      <c r="E950" s="79"/>
+      <c r="E950" s="78"/>
       <c r="O950" s="33"/>
     </row>
     <row r="951" spans="1:15" ht="15.75" customHeight="1">
@@ -12211,7 +12207,7 @@
       <c r="B951" s="33"/>
       <c r="C951" s="28"/>
       <c r="D951" s="28"/>
-      <c r="E951" s="79"/>
+      <c r="E951" s="78"/>
       <c r="O951" s="33"/>
     </row>
     <row r="952" spans="1:15" ht="15.75" customHeight="1">
@@ -12219,7 +12215,7 @@
       <c r="B952" s="33"/>
       <c r="C952" s="28"/>
       <c r="D952" s="28"/>
-      <c r="E952" s="79"/>
+      <c r="E952" s="78"/>
       <c r="O952" s="33"/>
     </row>
     <row r="953" spans="1:15" ht="15.75" customHeight="1">
@@ -12227,7 +12223,7 @@
       <c r="B953" s="33"/>
       <c r="C953" s="28"/>
       <c r="D953" s="28"/>
-      <c r="E953" s="79"/>
+      <c r="E953" s="78"/>
       <c r="O953" s="33"/>
     </row>
     <row r="954" spans="1:15" ht="15.75" customHeight="1">
@@ -12235,7 +12231,7 @@
       <c r="B954" s="33"/>
       <c r="C954" s="28"/>
       <c r="D954" s="28"/>
-      <c r="E954" s="79"/>
+      <c r="E954" s="78"/>
       <c r="O954" s="33"/>
     </row>
     <row r="955" spans="1:15" ht="15.75" customHeight="1">
@@ -12243,7 +12239,7 @@
       <c r="B955" s="33"/>
       <c r="C955" s="28"/>
       <c r="D955" s="28"/>
-      <c r="E955" s="79"/>
+      <c r="E955" s="78"/>
       <c r="O955" s="33"/>
     </row>
     <row r="956" spans="1:15" ht="15.75" customHeight="1">
@@ -12251,7 +12247,7 @@
       <c r="B956" s="33"/>
       <c r="C956" s="28"/>
       <c r="D956" s="28"/>
-      <c r="E956" s="79"/>
+      <c r="E956" s="78"/>
       <c r="O956" s="33"/>
     </row>
     <row r="957" spans="1:15" ht="15.75" customHeight="1">
@@ -12259,7 +12255,7 @@
       <c r="B957" s="33"/>
       <c r="C957" s="28"/>
       <c r="D957" s="28"/>
-      <c r="E957" s="79"/>
+      <c r="E957" s="78"/>
       <c r="O957" s="33"/>
     </row>
     <row r="958" spans="1:15" ht="15.75" customHeight="1">
@@ -12267,7 +12263,7 @@
       <c r="B958" s="33"/>
       <c r="C958" s="28"/>
       <c r="D958" s="28"/>
-      <c r="E958" s="79"/>
+      <c r="E958" s="78"/>
       <c r="O958" s="33"/>
     </row>
     <row r="959" spans="1:15" ht="15.75" customHeight="1">
@@ -12275,7 +12271,7 @@
       <c r="B959" s="33"/>
       <c r="C959" s="28"/>
       <c r="D959" s="28"/>
-      <c r="E959" s="79"/>
+      <c r="E959" s="78"/>
       <c r="O959" s="33"/>
     </row>
     <row r="960" spans="1:15" ht="15.75" customHeight="1">
@@ -12283,7 +12279,7 @@
       <c r="B960" s="33"/>
       <c r="C960" s="28"/>
       <c r="D960" s="28"/>
-      <c r="E960" s="79"/>
+      <c r="E960" s="78"/>
       <c r="O960" s="33"/>
     </row>
     <row r="961" spans="1:15" ht="15.75" customHeight="1">
@@ -12291,7 +12287,7 @@
       <c r="B961" s="33"/>
       <c r="C961" s="28"/>
       <c r="D961" s="28"/>
-      <c r="E961" s="79"/>
+      <c r="E961" s="78"/>
       <c r="O961" s="33"/>
     </row>
     <row r="962" spans="1:15" ht="15.75" customHeight="1">
@@ -12299,7 +12295,7 @@
       <c r="B962" s="33"/>
       <c r="C962" s="28"/>
       <c r="D962" s="28"/>
-      <c r="E962" s="79"/>
+      <c r="E962" s="78"/>
       <c r="O962" s="33"/>
     </row>
     <row r="963" spans="1:15" ht="15.75" customHeight="1">
@@ -12307,7 +12303,7 @@
       <c r="B963" s="33"/>
       <c r="C963" s="28"/>
       <c r="D963" s="28"/>
-      <c r="E963" s="79"/>
+      <c r="E963" s="78"/>
       <c r="O963" s="33"/>
     </row>
     <row r="964" spans="1:15" ht="15.75" customHeight="1">
@@ -12315,7 +12311,7 @@
       <c r="B964" s="33"/>
       <c r="C964" s="28"/>
       <c r="D964" s="28"/>
-      <c r="E964" s="79"/>
+      <c r="E964" s="78"/>
       <c r="O964" s="33"/>
     </row>
     <row r="965" spans="1:15" ht="15.75" customHeight="1">
@@ -12323,7 +12319,7 @@
       <c r="B965" s="33"/>
       <c r="C965" s="28"/>
       <c r="D965" s="28"/>
-      <c r="E965" s="79"/>
+      <c r="E965" s="78"/>
       <c r="O965" s="33"/>
     </row>
     <row r="966" spans="1:15" ht="15.75" customHeight="1">
@@ -12331,7 +12327,7 @@
       <c r="B966" s="33"/>
       <c r="C966" s="28"/>
       <c r="D966" s="28"/>
-      <c r="E966" s="79"/>
+      <c r="E966" s="78"/>
       <c r="O966" s="33"/>
     </row>
     <row r="967" spans="1:15" ht="15.75" customHeight="1">
@@ -12339,7 +12335,7 @@
       <c r="B967" s="33"/>
       <c r="C967" s="28"/>
       <c r="D967" s="28"/>
-      <c r="E967" s="79"/>
+      <c r="E967" s="78"/>
       <c r="O967" s="33"/>
     </row>
     <row r="968" spans="1:15" ht="15.75" customHeight="1">
@@ -12347,7 +12343,7 @@
       <c r="B968" s="33"/>
       <c r="C968" s="28"/>
       <c r="D968" s="28"/>
-      <c r="E968" s="79"/>
+      <c r="E968" s="78"/>
       <c r="O968" s="33"/>
     </row>
     <row r="969" spans="1:15" ht="15.75" customHeight="1">
@@ -12355,7 +12351,7 @@
       <c r="B969" s="33"/>
       <c r="C969" s="28"/>
       <c r="D969" s="28"/>
-      <c r="E969" s="79"/>
+      <c r="E969" s="78"/>
       <c r="O969" s="33"/>
     </row>
     <row r="970" spans="1:15" ht="15.75" customHeight="1">
@@ -12363,7 +12359,7 @@
       <c r="B970" s="33"/>
       <c r="C970" s="28"/>
       <c r="D970" s="28"/>
-      <c r="E970" s="79"/>
+      <c r="E970" s="78"/>
       <c r="O970" s="33"/>
     </row>
     <row r="971" spans="1:15" ht="15.75" customHeight="1">
@@ -12371,7 +12367,7 @@
       <c r="B971" s="33"/>
       <c r="C971" s="28"/>
       <c r="D971" s="28"/>
-      <c r="E971" s="79"/>
+      <c r="E971" s="78"/>
       <c r="O971" s="33"/>
     </row>
     <row r="972" spans="1:15" ht="15.75" customHeight="1">
@@ -12379,7 +12375,7 @@
       <c r="B972" s="33"/>
       <c r="C972" s="28"/>
       <c r="D972" s="28"/>
-      <c r="E972" s="79"/>
+      <c r="E972" s="78"/>
       <c r="O972" s="33"/>
     </row>
     <row r="973" spans="1:15" ht="15.75" customHeight="1">
@@ -12387,7 +12383,7 @@
       <c r="B973" s="33"/>
       <c r="C973" s="28"/>
       <c r="D973" s="28"/>
-      <c r="E973" s="79"/>
+      <c r="E973" s="78"/>
       <c r="O973" s="33"/>
     </row>
     <row r="974" spans="1:15" ht="15.75" customHeight="1">
@@ -12395,7 +12391,7 @@
       <c r="B974" s="33"/>
       <c r="C974" s="28"/>
       <c r="D974" s="28"/>
-      <c r="E974" s="79"/>
+      <c r="E974" s="78"/>
       <c r="O974" s="33"/>
     </row>
     <row r="975" spans="1:15" ht="15.75" customHeight="1">
@@ -12403,7 +12399,7 @@
       <c r="B975" s="33"/>
       <c r="C975" s="28"/>
       <c r="D975" s="28"/>
-      <c r="E975" s="79"/>
+      <c r="E975" s="78"/>
       <c r="O975" s="33"/>
     </row>
     <row r="976" spans="1:15" ht="15.75" customHeight="1">
@@ -12411,7 +12407,7 @@
       <c r="B976" s="33"/>
       <c r="C976" s="28"/>
       <c r="D976" s="28"/>
-      <c r="E976" s="79"/>
+      <c r="E976" s="78"/>
       <c r="O976" s="33"/>
     </row>
     <row r="977" spans="1:15" ht="15.75" customHeight="1">
@@ -12419,7 +12415,7 @@
       <c r="B977" s="33"/>
       <c r="C977" s="28"/>
       <c r="D977" s="28"/>
-      <c r="E977" s="79"/>
+      <c r="E977" s="78"/>
       <c r="O977" s="33"/>
     </row>
     <row r="978" spans="1:15" ht="15.75" customHeight="1">
@@ -12427,7 +12423,7 @@
       <c r="B978" s="33"/>
       <c r="C978" s="28"/>
       <c r="D978" s="28"/>
-      <c r="E978" s="79"/>
+      <c r="E978" s="78"/>
       <c r="O978" s="33"/>
     </row>
     <row r="979" spans="1:15" ht="15.75" customHeight="1">
@@ -12435,7 +12431,7 @@
       <c r="B979" s="33"/>
       <c r="C979" s="28"/>
       <c r="D979" s="28"/>
-      <c r="E979" s="79"/>
+      <c r="E979" s="78"/>
       <c r="O979" s="33"/>
     </row>
     <row r="980" spans="1:15" ht="15.75" customHeight="1">
@@ -12443,7 +12439,7 @@
       <c r="B980" s="33"/>
       <c r="C980" s="28"/>
       <c r="D980" s="28"/>
-      <c r="E980" s="79"/>
+      <c r="E980" s="78"/>
       <c r="O980" s="33"/>
     </row>
     <row r="981" spans="1:15" ht="15.75" customHeight="1">
@@ -12451,7 +12447,7 @@
       <c r="B981" s="33"/>
       <c r="C981" s="28"/>
       <c r="D981" s="28"/>
-      <c r="E981" s="79"/>
+      <c r="E981" s="78"/>
       <c r="O981" s="33"/>
     </row>
     <row r="982" spans="1:15" ht="15.75" customHeight="1">
@@ -12459,7 +12455,7 @@
       <c r="B982" s="33"/>
       <c r="C982" s="28"/>
       <c r="D982" s="28"/>
-      <c r="E982" s="79"/>
+      <c r="E982" s="78"/>
       <c r="O982" s="33"/>
     </row>
     <row r="983" spans="1:15" ht="15.75" customHeight="1">
@@ -12467,7 +12463,7 @@
       <c r="B983" s="33"/>
       <c r="C983" s="28"/>
       <c r="D983" s="28"/>
-      <c r="E983" s="79"/>
+      <c r="E983" s="78"/>
       <c r="O983" s="33"/>
     </row>
     <row r="984" spans="1:15" ht="15.75" customHeight="1">
@@ -12475,7 +12471,7 @@
       <c r="B984" s="33"/>
       <c r="C984" s="28"/>
       <c r="D984" s="28"/>
-      <c r="E984" s="79"/>
+      <c r="E984" s="78"/>
       <c r="O984" s="33"/>
     </row>
     <row r="985" spans="1:15" ht="15.75" customHeight="1">
@@ -12483,7 +12479,7 @@
       <c r="B985" s="33"/>
       <c r="C985" s="28"/>
       <c r="D985" s="28"/>
-      <c r="E985" s="79"/>
+      <c r="E985" s="78"/>
       <c r="O985" s="33"/>
     </row>
     <row r="986" spans="1:15" ht="15.75" customHeight="1">
@@ -12491,7 +12487,7 @@
       <c r="B986" s="33"/>
       <c r="C986" s="28"/>
       <c r="D986" s="28"/>
-      <c r="E986" s="79"/>
+      <c r="E986" s="78"/>
       <c r="O986" s="33"/>
     </row>
     <row r="987" spans="1:15" ht="15.75" customHeight="1">
@@ -12499,7 +12495,7 @@
       <c r="B987" s="33"/>
       <c r="C987" s="28"/>
       <c r="D987" s="28"/>
-      <c r="E987" s="79"/>
+      <c r="E987" s="78"/>
       <c r="O987" s="33"/>
     </row>
     <row r="988" spans="1:15" ht="15.75" customHeight="1">
@@ -12507,7 +12503,7 @@
       <c r="B988" s="33"/>
       <c r="C988" s="28"/>
       <c r="D988" s="28"/>
-      <c r="E988" s="79"/>
+      <c r="E988" s="78"/>
       <c r="O988" s="33"/>
     </row>
     <row r="989" spans="1:15" ht="15.75" customHeight="1">
@@ -12515,7 +12511,7 @@
       <c r="B989" s="33"/>
       <c r="C989" s="28"/>
       <c r="D989" s="28"/>
-      <c r="E989" s="79"/>
+      <c r="E989" s="78"/>
       <c r="O989" s="33"/>
     </row>
     <row r="990" spans="1:15" ht="15.75" customHeight="1">
@@ -12523,7 +12519,7 @@
       <c r="B990" s="33"/>
       <c r="C990" s="28"/>
       <c r="D990" s="28"/>
-      <c r="E990" s="79"/>
+      <c r="E990" s="78"/>
       <c r="O990" s="33"/>
     </row>
     <row r="991" spans="1:15" ht="15.75" customHeight="1">
@@ -12531,7 +12527,7 @@
       <c r="B991" s="33"/>
       <c r="C991" s="28"/>
       <c r="D991" s="28"/>
-      <c r="E991" s="79"/>
+      <c r="E991" s="78"/>
       <c r="O991" s="33"/>
     </row>
     <row r="992" spans="1:15" ht="15.75" customHeight="1">
@@ -12539,7 +12535,7 @@
       <c r="B992" s="33"/>
       <c r="C992" s="28"/>
       <c r="D992" s="28"/>
-      <c r="E992" s="79"/>
+      <c r="E992" s="78"/>
       <c r="O992" s="33"/>
     </row>
     <row r="993" spans="1:15" ht="15.75" customHeight="1">
@@ -12547,7 +12543,7 @@
       <c r="B993" s="33"/>
       <c r="C993" s="28"/>
       <c r="D993" s="28"/>
-      <c r="E993" s="79"/>
+      <c r="E993" s="78"/>
       <c r="O993" s="33"/>
     </row>
     <row r="994" spans="1:15" ht="15.75" customHeight="1">
@@ -12555,7 +12551,7 @@
       <c r="B994" s="33"/>
       <c r="C994" s="28"/>
       <c r="D994" s="28"/>
-      <c r="E994" s="79"/>
+      <c r="E994" s="78"/>
       <c r="O994" s="33"/>
     </row>
     <row r="995" spans="1:15" ht="15.75" customHeight="1">
@@ -12563,7 +12559,7 @@
       <c r="B995" s="33"/>
       <c r="C995" s="28"/>
       <c r="D995" s="28"/>
-      <c r="E995" s="79"/>
+      <c r="E995" s="78"/>
       <c r="O995" s="33"/>
     </row>
     <row r="996" spans="1:15" ht="15.75" customHeight="1">
@@ -12571,7 +12567,7 @@
       <c r="B996" s="33"/>
       <c r="C996" s="28"/>
       <c r="D996" s="28"/>
-      <c r="E996" s="79"/>
+      <c r="E996" s="78"/>
       <c r="O996" s="33"/>
     </row>
     <row r="997" spans="1:15" ht="15.75" customHeight="1">
@@ -12579,7 +12575,7 @@
       <c r="B997" s="33"/>
       <c r="C997" s="28"/>
       <c r="D997" s="28"/>
-      <c r="E997" s="79"/>
+      <c r="E997" s="78"/>
       <c r="O997" s="33"/>
     </row>
     <row r="998" spans="1:15" ht="15.75" customHeight="1">
@@ -12587,7 +12583,7 @@
       <c r="B998" s="33"/>
       <c r="C998" s="28"/>
       <c r="D998" s="28"/>
-      <c r="E998" s="79"/>
+      <c r="E998" s="78"/>
       <c r="O998" s="33"/>
     </row>
     <row r="999" spans="1:15" ht="15.75" customHeight="1">
@@ -12595,7 +12591,7 @@
       <c r="B999" s="33"/>
       <c r="C999" s="28"/>
       <c r="D999" s="28"/>
-      <c r="E999" s="79"/>
+      <c r="E999" s="78"/>
       <c r="O999" s="33"/>
     </row>
   </sheetData>
